--- a/tests/regression_data_windows/performance_analysis_kacker_okapuu_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_kacker_okapuu_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023341589777442</v>
+        <v>2.023341584844695</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29999999993997</v>
+        <v>2.299999999951361</v>
       </c>
       <c r="D2" t="n">
-        <v>2.699358790981029</v>
+        <v>2.699358784590774</v>
       </c>
       <c r="E2" t="n">
-        <v>89.54319862838828</v>
+        <v>89.54319870691063</v>
       </c>
       <c r="F2" t="n">
-        <v>76.81765928167144</v>
+        <v>76.81765910562711</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421162024770734</v>
+        <v>0.1421162051953971</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.95977548414851</v>
+        <v>-75.95977531082251</v>
       </c>
       <c r="I2" t="n">
-        <v>130301.9357266625</v>
+        <v>130301.9351195805</v>
       </c>
       <c r="J2" t="n">
-        <v>80.0872376930931</v>
+        <v>80.08723731996345</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.87211849041501</v>
+        <v>-23.87212006722209</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6445912477382</v>
+        <v>133.6445925258798</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373512.991159218</v>
+        <v>373512.9912698424</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7106315403413289</v>
+        <v>0.7106315395001817</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078552334201465</v>
+        <v>2.07855233472647</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999866825</v>
+        <v>2.400000000069191</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701669617947899</v>
+        <v>2.701669617769235</v>
       </c>
       <c r="E3" t="n">
-        <v>89.5255729094776</v>
+        <v>89.52557290444607</v>
       </c>
       <c r="F3" t="n">
-        <v>75.98406129739259</v>
+        <v>75.9840613124673</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512585864798354</v>
+        <v>0.1512585862637498</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.13531988387243</v>
+        <v>-75.13531989873105</v>
       </c>
       <c r="I3" t="n">
-        <v>134798.6310341011</v>
+        <v>134798.6310519299</v>
       </c>
       <c r="J3" t="n">
-        <v>82.85103321087961</v>
+        <v>82.85103322183765</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41202583029477</v>
+        <v>-26.41202574374695</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9419859731125</v>
+        <v>140.9419858724388</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371889.865839531</v>
+        <v>371889.8658296323</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983877184285719</v>
+        <v>0.6983877184054793</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.35928886010146</v>
+        <v>79.35928866230597</v>
       </c>
       <c r="D2" t="n">
-        <v>79.35928886010146</v>
+        <v>79.35928866230597</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.35928886010146</v>
+        <v>79.35928866230597</v>
       </c>
       <c r="H2" t="n">
-        <v>79.35928886010146</v>
+        <v>79.35928866230597</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4602703971235</v>
+        <v>292.4602704129758</v>
       </c>
       <c r="L2" t="n">
-        <v>132943.6968118109</v>
+        <v>132943.6968369994</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584391130343086</v>
+        <v>1.584391130557221</v>
       </c>
       <c r="N2" t="n">
-        <v>334727.1003394628</v>
+        <v>334727.1003508032</v>
       </c>
       <c r="O2" t="n">
-        <v>418635.4827241983</v>
+        <v>418635.482740096</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687717.5476794465</v>
+        <v>-687717.5477235166</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7177923742183</v>
+        <v>717.7177923749366</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653328247847</v>
+        <v>1006.653328248681</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575411872997</v>
+        <v>1.402575411872755</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987180512527</v>
+        <v>0.9994987180513636</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9714983285626</v>
+        <v>342.9714983378664</v>
       </c>
       <c r="W2" t="n">
-        <v>186371.0551331445</v>
+        <v>186371.0551684446</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365640062967902e-06</v>
+        <v>5.365640061951611e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132877.7430115255</v>
+        <v>132877.7430367164</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525714821279458e-06</v>
+        <v>7.525714819852734e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432196313597691</v>
+        <v>0.003432196313411955</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817668480603836e-05</v>
+        <v>1.817668480681389e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583243128925343</v>
+        <v>0.02583243129044802</v>
       </c>
       <c r="AD2" t="n">
-        <v>132943.6968118109</v>
+        <v>132943.6968369994</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584391130343086</v>
+        <v>1.584391130557221</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584391130343086</v>
+        <v>1.584391130557221</v>
       </c>
       <c r="AG2" t="n">
-        <v>334727.1003394628</v>
+        <v>334727.1003508032</v>
       </c>
       <c r="AH2" t="n">
-        <v>418635.4827241983</v>
+        <v>418635.482740096</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7177923742183</v>
+        <v>717.7177923749366</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653328247847</v>
+        <v>1006.653328248681</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9714983285626</v>
+        <v>342.9714983378664</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987180512527</v>
+        <v>0.9994987180513636</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817668480603836e-05</v>
+        <v>1.817668480681389e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583243128925343</v>
+        <v>0.02583243129044802</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.231387416292173</v>
+        <v>0.2313874157091851</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.231387416292173</v>
+        <v>0.2313874157091851</v>
       </c>
       <c r="DH2" t="n">
-        <v>180960.2690219622</v>
+        <v>180960.2685876724</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.699358790954472</v>
+        <v>2.699358784591404</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>261.2176222339215</v>
+        <v>261.2176174197573</v>
       </c>
       <c r="DU2" t="n">
-        <v>107.8099302919264</v>
+        <v>107.8099286646654</v>
       </c>
       <c r="DV2" t="n">
-        <v>237.9320598322001</v>
+        <v>237.9320552842228</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.62413760280089</v>
+        <v>65.6241375161959</v>
       </c>
       <c r="DX2" t="n">
-        <v>261.2176222339215</v>
+        <v>261.2176174197573</v>
       </c>
       <c r="DY2" t="n">
-        <v>107.8099302919264</v>
+        <v>107.8099286646654</v>
       </c>
       <c r="DZ2" t="n">
-        <v>237.9320598322001</v>
+        <v>237.9320552842228</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.62413760280089</v>
+        <v>65.6241375161959</v>
       </c>
       <c r="EB2" t="n">
-        <v>261.5538380275268</v>
+        <v>261.5538392830645</v>
       </c>
       <c r="EC2" t="n">
-        <v>87504.68877612335</v>
+        <v>87504.69031644682</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.166276177345088</v>
+        <v>1.166276192270346</v>
       </c>
       <c r="EE2" t="n">
-        <v>312637.9764194046</v>
+        <v>312637.9773164046</v>
       </c>
       <c r="EF2" t="n">
-        <v>387667.1080058176</v>
+        <v>387667.109263362</v>
       </c>
       <c r="EG2" t="n">
-        <v>3790.988615978651</v>
+        <v>3790.988615737114</v>
       </c>
       <c r="EH2" t="n">
-        <v>-603880.5144220602</v>
+        <v>-603880.5178610703</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.588993431793</v>
+        <v>716.5889934669789</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.25667875555</v>
+        <v>1005.256678800743</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402835778904876</v>
+        <v>1.40283577889906</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993384387232461</v>
+        <v>0.9993384387283317</v>
       </c>
       <c r="EM2" t="n">
-        <v>324.3211377037305</v>
+        <v>324.3211384831414</v>
       </c>
       <c r="EN2" t="n">
-        <v>122673.8271146426</v>
+        <v>122673.8292741651</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.151698072201403e-06</v>
+        <v>8.151697928700742e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>87447.03333016495</v>
+        <v>87447.03486992542</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.143549371451403e-05</v>
+        <v>1.143549351315876e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003836601554504166</v>
+        <v>0.003836601536134138</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.663030162760424e-05</v>
+        <v>1.663030169185196e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02346192955244631</v>
+        <v>0.0234619296504385</v>
       </c>
       <c r="EU2" t="n">
-        <v>87504.68877612335</v>
+        <v>87504.69031644682</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.166276177345088</v>
+        <v>1.166276192270346</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.166276177345088</v>
+        <v>1.166276192270346</v>
       </c>
       <c r="EX2" t="n">
-        <v>312637.9764194046</v>
+        <v>312637.9773164046</v>
       </c>
       <c r="EY2" t="n">
-        <v>387667.1080058176</v>
+        <v>387667.109263362</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3790.988615978651</v>
+        <v>3790.988615737114</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.588993431793</v>
+        <v>716.5889934669789</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.25667875555</v>
+        <v>1005.256678800743</v>
       </c>
       <c r="FC2" t="n">
-        <v>324.3211377037305</v>
+        <v>324.3211384831414</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993384387232461</v>
+        <v>0.9993384387283317</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.663030162760424e-05</v>
+        <v>1.663030169185196e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02346192955244631</v>
+        <v>0.0234619296504385</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5911242357258</v>
+        <v>295.5911242360879</v>
       </c>
       <c r="FJ2" t="n">
-        <v>134171.9683760789</v>
+        <v>134171.9684891893</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.582036721151148</v>
+        <v>1.582036722483516</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.78882023</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.43108859</v>
       </c>
       <c r="FN2" t="n">
-        <v>3790.988615983877</v>
+        <v>3790.988615742339</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698798.1558750229</v>
+        <v>-698798.1558048986</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.85326548207</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.758731672578</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402457549589185</v>
+        <v>1.402457549591192</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995340929339721</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8001192148805</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="FU2" t="n">
-        <v>188083.7930091468</v>
+        <v>188083.7931679049</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.316779207825569e-06</v>
+        <v>5.316779203337774e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>134110.1504742452</v>
+        <v>134110.1505872532</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.456557139513776e-06</v>
+        <v>7.456557133230502e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395546168352472</v>
+        <v>0.003395546168358775</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832896897518385e-05</v>
+        <v>1.832896897521772e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606674484498724</v>
+        <v>0.0260667448450505</v>
       </c>
       <c r="GB2" t="n">
-        <v>134171.9683760789</v>
+        <v>134171.9684891893</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.582036721151148</v>
+        <v>1.582036722483516</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.582036721151148</v>
+        <v>1.582036722483516</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.78882023</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.43108859</v>
       </c>
       <c r="GG2" t="n">
-        <v>3790.988615983877</v>
+        <v>3790.988615742339</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.85326548207</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.758731672578</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8001192148805</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995340929339721</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832896897518385e-05</v>
+        <v>1.832896897521772e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606674484498724</v>
+        <v>0.0260667448450505</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5911242357258</v>
+        <v>295.5911242360879</v>
       </c>
       <c r="GQ2" t="n">
-        <v>134171.9683760789</v>
+        <v>134171.9684891893</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.582036721151148</v>
+        <v>1.582036722483516</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.78882023</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.43108859</v>
       </c>
       <c r="GU2" t="n">
-        <v>3790.988615983877</v>
+        <v>3790.988615742339</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698798.1558750229</v>
+        <v>-698798.1558048986</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.85326548207</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.758731672578</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402457549589185</v>
+        <v>1.402457549591192</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995340929339721</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8001192148805</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="HB2" t="n">
-        <v>188083.7930091468</v>
+        <v>188083.7931679049</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.316779207825569e-06</v>
+        <v>5.316779203337774e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>134110.1504742452</v>
+        <v>134110.1505872532</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.456557139513776e-06</v>
+        <v>7.456557133230502e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395546168352472</v>
+        <v>0.003395546168358775</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832896897518385e-05</v>
+        <v>1.832896897521772e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606674484498724</v>
+        <v>0.0260667448450505</v>
       </c>
       <c r="HI2" t="n">
-        <v>134171.9683760789</v>
+        <v>134171.9684891893</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.582036721151148</v>
+        <v>1.582036722483516</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.582036721151148</v>
+        <v>1.582036722483516</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.78882023</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.43108859</v>
       </c>
       <c r="HN2" t="n">
-        <v>3790.988615983877</v>
+        <v>3790.988615742339</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.85326548207</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.758731672578</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8001192148805</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995340929339721</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832896897518385e-05</v>
+        <v>1.832896897521772e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606674484498724</v>
+        <v>0.0260667448450505</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,22 +3952,22 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8054289155600628</v>
+        <v>0.8054288987806316</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8054289155600628</v>
+        <v>0.8054288987806316</v>
       </c>
       <c r="HY2" t="n">
-        <v>479227.2334330661</v>
+        <v>479227.2288824975</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.699358790963678</v>
+        <v>2.699358784764777</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01760661587074862</v>
+        <v>0.01760661578122035</v>
       </c>
       <c r="IC2" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.04914148724186166</v>
+        <v>0.0491414872209618</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.08202817165185342</v>
+        <v>0.08202817154142528</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.564498530726155e-12</v>
+        <v>1.430471574526138e-10</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>261.2176222339215</v>
+        <v>261.2176174197573</v>
       </c>
       <c r="IL2" t="n">
-        <v>107.8099302919264</v>
+        <v>107.8099286646654</v>
       </c>
       <c r="IM2" t="n">
-        <v>237.9320598322001</v>
+        <v>237.9320552842228</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.62413760280089</v>
+        <v>65.6241375161959</v>
       </c>
       <c r="IO2" t="n">
-        <v>129.9920472570358</v>
+        <v>129.9920433664184</v>
       </c>
       <c r="IP2" t="n">
-        <v>107.8099302919264</v>
+        <v>107.8099286646654</v>
       </c>
       <c r="IQ2" t="n">
-        <v>72.62885983220013</v>
+        <v>72.62885528422277</v>
       </c>
       <c r="IR2" t="n">
-        <v>33.96716561705429</v>
+        <v>33.96716435527053</v>
       </c>
       <c r="IS2" t="n">
-        <v>261.5538380273268</v>
+        <v>261.553839282965</v>
       </c>
       <c r="IT2" t="n">
-        <v>87504.68877597259</v>
+        <v>87504.69031632978</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.166276177343972</v>
+        <v>1.16627619226923</v>
       </c>
       <c r="IV2" t="n">
-        <v>312637.9764192616</v>
+        <v>312637.9773163336</v>
       </c>
       <c r="IW2" t="n">
-        <v>387667.1080056171</v>
+        <v>387667.1092632624</v>
       </c>
       <c r="IX2" t="n">
-        <v>3790.988615978378</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="IY2" t="n">
-        <v>-603880.5144214313</v>
+        <v>-603880.5178607933</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5889934317877</v>
+        <v>716.5889934669761</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.256678755545</v>
+        <v>1005.256678800739</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402835778904878</v>
+        <v>1.40283577889906</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993384387232446</v>
+        <v>0.9993384387283313</v>
       </c>
       <c r="JD2" t="n">
-        <v>324.3211377036064</v>
+        <v>324.3211384830796</v>
       </c>
       <c r="JE2" t="n">
-        <v>122673.8271144313</v>
+        <v>122673.8292740009</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.15169807221544e-06</v>
+        <v>8.151697928711649e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>87447.03333001418</v>
+        <v>87447.03486980843</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.143549371453374e-05</v>
+        <v>1.143549351317406e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003836601554507105</v>
+        <v>0.003836601536135595</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.663030162759402e-05</v>
+        <v>1.663030169184687e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02346192955243075</v>
+        <v>0.02346192965043073</v>
       </c>
       <c r="JL2" t="n">
-        <v>87504.68877597259</v>
+        <v>87504.69031632978</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.166276177343972</v>
+        <v>1.16627619226923</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.166276177343972</v>
+        <v>1.16627619226923</v>
       </c>
       <c r="JO2" t="n">
-        <v>312637.9764192616</v>
+        <v>312637.9773163336</v>
       </c>
       <c r="JP2" t="n">
-        <v>387667.1080056171</v>
+        <v>387667.1092632624</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3790.988615978378</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5889934317877</v>
+        <v>716.5889934669761</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.256678755545</v>
+        <v>1005.256678800739</v>
       </c>
       <c r="JT2" t="n">
-        <v>324.3211377036064</v>
+        <v>324.3211384830796</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993384387232446</v>
+        <v>0.9993384387283313</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.663030162759402e-05</v>
+        <v>1.663030169184687e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02346192955243075</v>
+        <v>0.02346192965043073</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.591124235826</v>
+        <v>295.591124236088</v>
       </c>
       <c r="KA2" t="n">
-        <v>134171.968376365</v>
+        <v>134171.9684891881</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.582036721153984</v>
+        <v>1.582036722483501</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.7888203015</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.43108859</v>
       </c>
       <c r="KE2" t="n">
-        <v>3790.988615983603</v>
+        <v>3790.988615742342</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698798.1558752219</v>
+        <v>-698798.1558048998</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8532654820749</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.758731672586</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402457549589186</v>
+        <v>1.402457549591192</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995340929339723</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8001192149391</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="KL2" t="n">
-        <v>188083.793009548</v>
+        <v>188083.7931679032</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.31677920781423e-06</v>
+        <v>5.316779203337823e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>134110.1504745313</v>
+        <v>134110.150587252</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.456557139497872e-06</v>
+        <v>7.456557133230571e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395546168351334</v>
+        <v>0.003395546168358774</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832896897518875e-05</v>
+        <v>1.832896897521773e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606674484499481</v>
+        <v>0.02606674484505051</v>
       </c>
       <c r="KS2" t="n">
-        <v>134171.968376365</v>
+        <v>134171.9684891881</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.582036721153984</v>
+        <v>1.582036722483501</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.582036721153984</v>
+        <v>1.582036722483501</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.7888203015</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.43108859</v>
       </c>
       <c r="KX2" t="n">
-        <v>3790.988615983603</v>
+        <v>3790.988615742342</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8532654820749</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.758731672586</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8001192149391</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995340929339723</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832896897518875e-05</v>
+        <v>1.832896897521773e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606674484499481</v>
+        <v>0.02606674484505051</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>269.9868320898125</v>
+        <v>269.98683284022</v>
       </c>
       <c r="LH2" t="n">
-        <v>97760.6357323619</v>
+        <v>97760.6367633842</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.262219936676148</v>
+        <v>1.262219946475593</v>
       </c>
       <c r="LJ2" t="n">
-        <v>318664.7260506725</v>
+        <v>318664.7265868409</v>
       </c>
       <c r="LK2" t="n">
-        <v>396116.0741808555</v>
+        <v>396116.0749325507</v>
       </c>
       <c r="LL2" t="n">
-        <v>3790.988615978379</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="LM2" t="n">
-        <v>-627400.9327356898</v>
+        <v>-627400.9347636432</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8417443450869</v>
+        <v>716.8417443694919</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.567732124637</v>
+        <v>1005.567732155657</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402775075610772</v>
+        <v>1.402775075606287</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993788827666054</v>
+        <v>0.9993788827699169</v>
       </c>
       <c r="LR2" t="n">
-        <v>329.5143186639056</v>
+        <v>329.5143191224095</v>
       </c>
       <c r="LS2" t="n">
-        <v>137051.4446454078</v>
+        <v>137051.44609083</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.296530164912105e-06</v>
+        <v>7.296530087958767e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97700.22794690398</v>
+        <v>97700.22897761829</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.023539065378085e-05</v>
+        <v>1.02353905457999e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003716989854090228</v>
+        <v>0.003716989843789304</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.705904108475692e-05</v>
+        <v>1.705904112268183e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02411669240044451</v>
+        <v>0.02411669245845291</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97760.6357323619</v>
+        <v>97760.6367633842</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.262219936676148</v>
+        <v>1.262219946475593</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.262219936676148</v>
+        <v>1.262219946475593</v>
       </c>
       <c r="MC2" t="n">
-        <v>318664.7260506725</v>
+        <v>318664.7265868409</v>
       </c>
       <c r="MD2" t="n">
-        <v>396116.0741808555</v>
+        <v>396116.0749325507</v>
       </c>
       <c r="ME2" t="n">
-        <v>3790.988615978379</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8417443450869</v>
+        <v>716.8417443694919</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.567732124637</v>
+        <v>1005.567732155657</v>
       </c>
       <c r="MH2" t="n">
-        <v>329.5143186639056</v>
+        <v>329.5143191224095</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993788827666054</v>
+        <v>0.9993788827699169</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.705904108475692e-05</v>
+        <v>1.705904112268183e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02411669240044451</v>
+        <v>0.02411669245845291</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.805428915560371</v>
+        <v>0.8054288987807852</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4008127505270226</v>
+        <v>0.4008127375675217</v>
       </c>
       <c r="MP2" t="n">
-        <v>237570.4790635575</v>
+        <v>237570.4740755524</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.699358790961095</v>
+        <v>2.699358784762195</v>
       </c>
       <c r="MR2" t="n">
-        <v>382453.5002156352</v>
+        <v>382453.5009675311</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>133.6445912477382</v>
+        <v>133.6445925258798</v>
       </c>
       <c r="MU2" t="n">
-        <v>122.2114299313003</v>
+        <v>122.211429611639</v>
       </c>
       <c r="MV2" t="n">
-        <v>-54.08551713649314</v>
+        <v>-54.08552101706937</v>
       </c>
       <c r="MW2" t="n">
-        <v>-23.87211849041501</v>
+        <v>-23.87212006722209</v>
       </c>
       <c r="MX2" t="n">
-        <v>251.1315249279734</v>
+        <v>251.1315281624872</v>
       </c>
       <c r="MY2" t="n">
-        <v>122.2114299313003</v>
+        <v>122.211429611639</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-219.3887171364931</v>
+        <v>-219.3887210170694</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.87981835462848</v>
+        <v>-60.87981884919307</v>
       </c>
       <c r="NB2" t="n">
-        <v>238.4919655302931</v>
+        <v>238.4919654700765</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000056692</v>
+        <v>60000.00000026976</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8770577775437705</v>
+        <v>0.8770577777615605</v>
       </c>
       <c r="NE2" t="n">
-        <v>296172.0084103898</v>
+        <v>296172.0083672304</v>
       </c>
       <c r="NF2" t="n">
-        <v>364582.5527745239</v>
+        <v>364582.552714038</v>
       </c>
       <c r="NG2" t="n">
-        <v>3806.836359451404</v>
+        <v>3806.836359199207</v>
       </c>
       <c r="NH2" t="n">
-        <v>-543317.333043227</v>
+        <v>-543317.3328143312</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0542669159075</v>
+        <v>716.0542669150843</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.486594902474</v>
+        <v>1004.486594902483</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402807917378753</v>
+        <v>1.402807917380378</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992935019434781</v>
+        <v>0.9992935019426958</v>
       </c>
       <c r="NM2" t="n">
-        <v>309.6759323149721</v>
+        <v>309.6759322758142</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.1243586106</v>
+        <v>84109.12435822563</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188931649955557e-05</v>
+        <v>1.188931649960998e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59957.69151044893</v>
+        <v>59957.69151010503</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667842731779839e-05</v>
+        <v>1.667842731789405e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004206072376783151</v>
+        <v>0.004206072377854496</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.542868822437505e-05</v>
+        <v>1.542868822119084e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02163589356139749</v>
+        <v>0.02163589355658727</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000056692</v>
+        <v>60000.00000026976</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8770577775437705</v>
+        <v>0.8770577777615605</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8770577775437705</v>
+        <v>0.8770577777615605</v>
       </c>
       <c r="NX2" t="n">
-        <v>296172.0084103898</v>
+        <v>296172.0083672304</v>
       </c>
       <c r="NY2" t="n">
-        <v>364582.5527745239</v>
+        <v>364582.552714038</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3806.836359451404</v>
+        <v>3806.836359199207</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0542669159075</v>
+        <v>716.0542669150843</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.486594902474</v>
+        <v>1004.486594902483</v>
       </c>
       <c r="OC2" t="n">
-        <v>309.6759323149721</v>
+        <v>309.6759322758142</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992935019434781</v>
+        <v>0.9992935019426958</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.542868822437505e-05</v>
+        <v>1.542868822119084e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02163589356139749</v>
+        <v>0.02163589355658727</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>247.409531257579</v>
+        <v>247.4095313682329</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68204.00504537715</v>
+        <v>68204.00521165313</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9610201069855778</v>
+        <v>0.9610201088988725</v>
       </c>
       <c r="OL2" t="n">
-        <v>302542.5665556038</v>
+        <v>302542.5666345029</v>
       </c>
       <c r="OM2" t="n">
-        <v>373512.991159218</v>
+        <v>373512.9912698424</v>
       </c>
       <c r="ON2" t="n">
-        <v>3806.836359460039</v>
+        <v>3806.836359207841</v>
       </c>
       <c r="OO2" t="n">
-        <v>-568334.6081090989</v>
+        <v>-568334.6083573195</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2272327127101</v>
+        <v>716.2272327153029</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.716528032046</v>
+        <v>1004.716528036614</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402790179070242</v>
+        <v>1.402790179071541</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9993203859032452</v>
+        <v>0.9993203859030168</v>
       </c>
       <c r="OT2" t="n">
-        <v>315.4189686057892</v>
+        <v>315.4189686764</v>
       </c>
       <c r="OU2" t="n">
-        <v>95611.05027825935</v>
+        <v>95611.05051141899</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.045904209910542e-05</v>
+        <v>1.045904207359973e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68157.76992509999</v>
+        <v>68157.77009124818</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.46718415391073e-05</v>
+        <v>1.467184150334175e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004054760333431491</v>
+        <v>0.004054760331632792</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.589816726477823e-05</v>
+        <v>1.589816727057243e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02234742246718149</v>
+        <v>0.02234742247598507</v>
       </c>
       <c r="PB2" t="n">
-        <v>68204.00504537715</v>
+        <v>68204.00521165313</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9610201069855778</v>
+        <v>0.9610201088988725</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9610201069855778</v>
+        <v>0.9610201088988725</v>
       </c>
       <c r="PE2" t="n">
-        <v>302542.5665556038</v>
+        <v>302542.5666345029</v>
       </c>
       <c r="PF2" t="n">
-        <v>373512.991159218</v>
+        <v>373512.9912698424</v>
       </c>
       <c r="PG2" t="n">
-        <v>3806.836359460039</v>
+        <v>3806.836359207841</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2272327127101</v>
+        <v>716.2272327153029</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.716528032046</v>
+        <v>1004.716528036614</v>
       </c>
       <c r="PJ2" t="n">
-        <v>315.4189686057892</v>
+        <v>315.4189686764</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9993203859032452</v>
+        <v>0.9993203859030168</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.589816726477823e-05</v>
+        <v>1.589816727057243e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02234742246718149</v>
+        <v>0.02234742247598507</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>269.972183060388</v>
+        <v>269.9721838109376</v>
       </c>
       <c r="PQ2" t="n">
-        <v>92506.5487219178</v>
+        <v>92506.5497013178</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.19440800413717</v>
+        <v>1.194408013458507</v>
       </c>
       <c r="PS2" t="n">
-        <v>318666.3682164761</v>
+        <v>318666.368752819</v>
       </c>
       <c r="PT2" t="n">
-        <v>396116.0741808494</v>
+        <v>396116.0749327512</v>
       </c>
       <c r="PU2" t="n">
-        <v>3806.836359451404</v>
+        <v>3806.836359199207</v>
       </c>
       <c r="PV2" t="n">
-        <v>-631623.848333906</v>
+        <v>-631623.8503711377</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.8246501488904</v>
+        <v>716.8246501732557</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.460590493873</v>
+        <v>1005.460590524562</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402659060741049</v>
+        <v>1.402659060736183</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9994119197918551</v>
+        <v>0.9994119197949638</v>
       </c>
       <c r="QA2" t="n">
-        <v>329.5025902894296</v>
+        <v>329.5025907479162</v>
       </c>
       <c r="QB2" t="n">
-        <v>129679.2144745275</v>
+        <v>129679.2158474477</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.711336038331934e-06</v>
+        <v>7.711335956691641e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>92452.41278091894</v>
+        <v>92452.41376003789</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.081637536458527e-05</v>
+        <v>1.081637525003425e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003716489604078051</v>
+        <v>0.003716489593774897</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.705750705141232e-05</v>
+        <v>1.705750708933855e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0241137137603503</v>
+        <v>0.02411371381835789</v>
       </c>
       <c r="QI2" t="n">
-        <v>92506.5487219178</v>
+        <v>92506.5497013178</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.19440800413717</v>
+        <v>1.194408013458507</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.19440800413717</v>
+        <v>1.194408013458507</v>
       </c>
       <c r="QL2" t="n">
-        <v>318666.3682164761</v>
+        <v>318666.368752819</v>
       </c>
       <c r="QM2" t="n">
-        <v>396116.0741808494</v>
+        <v>396116.0749327512</v>
       </c>
       <c r="QN2" t="n">
-        <v>3806.836359451404</v>
+        <v>3806.836359199207</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.8246501488904</v>
+        <v>716.8246501732557</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.460590493873</v>
+        <v>1005.460590524562</v>
       </c>
       <c r="QQ2" t="n">
-        <v>329.5025902894296</v>
+        <v>329.5025907479162</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9994119197918551</v>
+        <v>0.9994119197949638</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.705750705141232e-05</v>
+        <v>1.705750708933855e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0241137137603503</v>
+        <v>0.02411371381835789</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4315627315583828</v>
+        <v>0.431562735740305</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8109494433443636</v>
+        <v>0.8109494538917406</v>
       </c>
       <c r="QY2" t="n">
-        <v>372027.3307225464</v>
+        <v>372027.3356833304</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.699358790981029</v>
+        <v>2.699358784590774</v>
       </c>
       <c r="RA2" t="n">
-        <v>382453.5002156352</v>
+        <v>382453.5009675311</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02701446658309776</v>
+        <v>0.02701446561438488</v>
       </c>
       <c r="RC2" t="n">
         <v>0</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01388396193703856</v>
+        <v>0.01388396196388864</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.07948209067921097</v>
+        <v>0.07948208886729358</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04125112786599939</v>
+        <v>0.0412511273381102</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1616316470653467</v>
+        <v>0.1616316437836773</v>
       </c>
       <c r="RH2" t="n">
-        <v>6.220773896004061e-12</v>
+        <v>4.620859250792364e-12</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.43107412846054</v>
+        <v>79.43107413489048</v>
       </c>
       <c r="D3" t="n">
-        <v>79.43107412846054</v>
+        <v>79.43107413489048</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.43107412846054</v>
+        <v>79.43107413489048</v>
       </c>
       <c r="H3" t="n">
-        <v>79.43107412846054</v>
+        <v>79.43107413489048</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4545872541699</v>
+        <v>292.4545872536608</v>
       </c>
       <c r="L3" t="n">
-        <v>132934.6669450949</v>
+        <v>132934.6669442863</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584314364238721</v>
+        <v>1.584314364231847</v>
       </c>
       <c r="N3" t="n">
-        <v>334723.0347947545</v>
+        <v>334723.0347943906</v>
       </c>
       <c r="O3" t="n">
-        <v>418629.7833199889</v>
+        <v>418629.7833194786</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718237</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687701.7482235871</v>
+        <v>-687701.7482221718</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7175347746975</v>
+        <v>717.7175347746743</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653029401381</v>
+        <v>1006.653029401354</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575498893704</v>
+        <v>1.402575498893712</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986783122758</v>
+        <v>0.9994986783122722</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9681628841323</v>
+        <v>342.9681628838335</v>
       </c>
       <c r="W3" t="n">
-        <v>186358.4004041955</v>
+        <v>186358.4004030623</v>
       </c>
       <c r="X3" t="n">
-        <v>5.36600441853485e-06</v>
+        <v>5.36600441856748e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132868.7122733768</v>
+        <v>132868.7122725681</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526226324392337e-06</v>
+        <v>7.526226324438146e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432262902338943</v>
+        <v>0.003432262902344909</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817640677304207e-05</v>
+        <v>1.817640677301717e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0258320030182453</v>
+        <v>0.02583200301820694</v>
       </c>
       <c r="AD3" t="n">
-        <v>132934.6669450949</v>
+        <v>132934.6669442863</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584314364238721</v>
+        <v>1.584314364231847</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584314364238721</v>
+        <v>1.584314364231847</v>
       </c>
       <c r="AG3" t="n">
-        <v>334723.0347947545</v>
+        <v>334723.0347943906</v>
       </c>
       <c r="AH3" t="n">
-        <v>418629.7833199889</v>
+        <v>418629.7833194786</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718237</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7175347746975</v>
+        <v>717.7175347746743</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653029401381</v>
+        <v>1006.653029401354</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9681628841323</v>
+        <v>342.9681628838335</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986783122758</v>
+        <v>0.9994986783122722</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817640677304207e-05</v>
+        <v>1.817640677301717e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0258320030182453</v>
+        <v>0.02583200301820694</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2315989725124876</v>
+        <v>0.2315989725314374</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2315989725124876</v>
+        <v>0.2315989725314374</v>
       </c>
       <c r="DH3" t="n">
-        <v>181117.9531908553</v>
+        <v>181117.9532049791</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.701669617714055</v>
+        <v>2.701669617921033</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>262.5129107609159</v>
+        <v>262.5129110706455</v>
       </c>
       <c r="DU3" t="n">
-        <v>108.2771576821387</v>
+        <v>108.2771577821062</v>
       </c>
       <c r="DV3" t="n">
-        <v>239.1423957403744</v>
+        <v>239.1423960351102</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.64027852670438</v>
+        <v>65.64027853336133</v>
       </c>
       <c r="DX3" t="n">
-        <v>262.5129107609159</v>
+        <v>262.5129110706455</v>
       </c>
       <c r="DY3" t="n">
-        <v>108.2771576821387</v>
+        <v>108.2771577821062</v>
       </c>
       <c r="DZ3" t="n">
-        <v>239.1423957403744</v>
+        <v>239.1423960351102</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.64027852670438</v>
+        <v>65.64027853336131</v>
       </c>
       <c r="EB3" t="n">
-        <v>261.2151829214073</v>
+        <v>261.215182840223</v>
       </c>
       <c r="EC3" t="n">
-        <v>87088.6578119716</v>
+        <v>87088.65771090363</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.16223767231147</v>
+        <v>1.162237671324254</v>
       </c>
       <c r="EE3" t="n">
-        <v>312396.0334726509</v>
+        <v>312396.0334146547</v>
       </c>
       <c r="EF3" t="n">
-        <v>387327.9169305058</v>
+        <v>387327.9168491976</v>
       </c>
       <c r="EG3" t="n">
-        <v>3791.058035531595</v>
+        <v>3791.058035553231</v>
       </c>
       <c r="EH3" t="n">
-        <v>-602954.0012865511</v>
+        <v>-602954.0010657362</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.579526764431</v>
+        <v>716.5795267621631</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.24448991412</v>
+        <v>1005.244489911172</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402837301887618</v>
+        <v>1.402837301887943</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993370812317931</v>
+        <v>0.9993370812314802</v>
       </c>
       <c r="EM3" t="n">
-        <v>324.1108394013069</v>
+        <v>324.1108393508761</v>
       </c>
       <c r="EN3" t="n">
-        <v>122090.5526466904</v>
+        <v>122090.5525049916</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.190641931925987e-06</v>
+        <v>8.190641941432082e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>87031.15641593569</v>
+        <v>87031.15631490677</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.149013802851064e-05</v>
+        <v>1.14901380418488e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003841562701695846</v>
+        <v>0.003841562702886469</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.661296753200688e-05</v>
+        <v>1.661296752785015e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02343549247353001</v>
+        <v>0.02343549246719054</v>
       </c>
       <c r="EU3" t="n">
-        <v>87088.6578119716</v>
+        <v>87088.65771090363</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.16223767231147</v>
+        <v>1.162237671324254</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.16223767231147</v>
+        <v>1.162237671324254</v>
       </c>
       <c r="EX3" t="n">
-        <v>312396.0334726509</v>
+        <v>312396.0334146547</v>
       </c>
       <c r="EY3" t="n">
-        <v>387327.9169305058</v>
+        <v>387327.9168491976</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3791.058035531595</v>
+        <v>3791.058035553231</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.579526764431</v>
+        <v>716.5795267621631</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.24448991412</v>
+        <v>1005.244489911172</v>
       </c>
       <c r="FC3" t="n">
-        <v>324.1108394013069</v>
+        <v>324.1108393508761</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993370812317931</v>
+        <v>0.9993370812314802</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.661296753200688e-05</v>
+        <v>1.661296752785015e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02343549247353001</v>
+        <v>0.02343549246719054</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5910489675684</v>
+        <v>295.591048967545</v>
       </c>
       <c r="FJ3" t="n">
-        <v>134139.509221837</v>
+        <v>134139.5092117213</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.581654219481318</v>
+        <v>1.581654219362113</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.8010381068</v>
+        <v>336974.8010381106</v>
       </c>
       <c r="FM3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="FN3" t="n">
-        <v>3791.058035536821</v>
+        <v>3791.058035558457</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698818.3903327688</v>
+        <v>-698818.3903390757</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8531809316645</v>
+        <v>717.8531809316381</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.758198712699</v>
+        <v>1006.758198712533</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402456972338103</v>
+        <v>1.402456972337923</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995342034561805</v>
+        <v>0.9995342034562149</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8000420522423</v>
+        <v>344.8000420522183</v>
       </c>
       <c r="FU3" t="n">
-        <v>188038.2343243957</v>
+        <v>188038.2343101975</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.318067379184395e-06</v>
+        <v>5.318067379585945e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>134077.7207666543</v>
+        <v>134077.7207565478</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.458360675300979e-06</v>
+        <v>7.458360675863178e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395544026640486</v>
+        <v>0.003395544026639817</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832896064260929e-05</v>
+        <v>1.83289606426067e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606672882650711</v>
+        <v>0.02606672882650213</v>
       </c>
       <c r="GB3" t="n">
-        <v>134139.509221837</v>
+        <v>134139.5092117213</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.581654219481318</v>
+        <v>1.581654219362113</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.581654219481318</v>
+        <v>1.581654219362113</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.8010381068</v>
+        <v>336974.8010381106</v>
       </c>
       <c r="GF3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="GG3" t="n">
-        <v>3791.058035536821</v>
+        <v>3791.058035558457</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8531809316645</v>
+        <v>717.8531809316381</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.758198712699</v>
+        <v>1006.758198712533</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8000420522423</v>
+        <v>344.8000420522183</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995342034561805</v>
+        <v>0.9995342034562149</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832896064260929e-05</v>
+        <v>1.83289606426067e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606672882650711</v>
+        <v>0.02606672882650213</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5910489675684</v>
+        <v>295.591048967545</v>
       </c>
       <c r="GQ3" t="n">
-        <v>134139.509221837</v>
+        <v>134139.5092117213</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.581654219481318</v>
+        <v>1.581654219362113</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.8010381068</v>
+        <v>336974.8010381106</v>
       </c>
       <c r="GT3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="GU3" t="n">
-        <v>3791.058035536821</v>
+        <v>3791.058035558457</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698818.3903327688</v>
+        <v>-698818.3903390757</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8531809316645</v>
+        <v>717.8531809316381</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.758198712699</v>
+        <v>1006.758198712533</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402456972338103</v>
+        <v>1.402456972337923</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995342034561805</v>
+        <v>0.9995342034562149</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8000420522423</v>
+        <v>344.8000420522183</v>
       </c>
       <c r="HB3" t="n">
-        <v>188038.2343243957</v>
+        <v>188038.2343101975</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.318067379184395e-06</v>
+        <v>5.318067379585945e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>134077.7207666543</v>
+        <v>134077.7207565478</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.458360675300979e-06</v>
+        <v>7.458360675863178e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395544026640486</v>
+        <v>0.003395544026639817</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832896064260929e-05</v>
+        <v>1.83289606426067e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606672882650711</v>
+        <v>0.02606672882650213</v>
       </c>
       <c r="HI3" t="n">
-        <v>134139.509221837</v>
+        <v>134139.5092117213</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.581654219481318</v>
+        <v>1.581654219362113</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.581654219481318</v>
+        <v>1.581654219362113</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.8010381068</v>
+        <v>336974.8010381106</v>
       </c>
       <c r="HM3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HN3" t="n">
-        <v>3791.058035536821</v>
+        <v>3791.058035558457</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8531809316645</v>
+        <v>717.8531809316381</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.758198712699</v>
+        <v>1006.758198712533</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8000420522423</v>
+        <v>344.8000420522183</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995342034561805</v>
+        <v>0.9995342034562149</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832896064260929e-05</v>
+        <v>1.83289606426067e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606672882650711</v>
+        <v>0.02606672882650213</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,22 +5425,22 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8099479525147204</v>
+        <v>0.8099479535963747</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8099479525147204</v>
+        <v>0.8099479535963747</v>
       </c>
       <c r="HY3" t="n">
-        <v>480436.6601533291</v>
+        <v>480436.6604323015</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.701669617721788</v>
+        <v>2.701669617921294</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01762361550009564</v>
+        <v>0.01762361550703731</v>
       </c>
       <c r="IC3" t="n">
         <v>0</v>
@@ -5449,16 +5449,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.04914564471554182</v>
+        <v>0.04914564471719297</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.08204932875488058</v>
+        <v>0.0820493287634734</v>
       </c>
       <c r="IH3" t="n">
-        <v>7.225803289045984e-12</v>
+        <v>1.623812195816754e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>262.5129107609159</v>
+        <v>262.5129110706455</v>
       </c>
       <c r="IL3" t="n">
-        <v>108.2771576821387</v>
+        <v>108.2771577821062</v>
       </c>
       <c r="IM3" t="n">
-        <v>239.1423957403744</v>
+        <v>239.1423960351102</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.64027852670438</v>
+        <v>65.64027853336133</v>
       </c>
       <c r="IO3" t="n">
-        <v>131.057886841304</v>
+        <v>131.0578870899518</v>
       </c>
       <c r="IP3" t="n">
-        <v>108.2771576821387</v>
+        <v>108.2771577821062</v>
       </c>
       <c r="IQ3" t="n">
-        <v>73.83919574037441</v>
+        <v>73.83919603511023</v>
       </c>
       <c r="IR3" t="n">
-        <v>34.29188368510532</v>
+        <v>34.29188376693727</v>
       </c>
       <c r="IS3" t="n">
-        <v>261.2151829212137</v>
+        <v>261.2151828401231</v>
       </c>
       <c r="IT3" t="n">
-        <v>87088.65781399737</v>
+        <v>87088.65771087007</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.162237672339387</v>
+        <v>1.162237671324251</v>
       </c>
       <c r="IV3" t="n">
-        <v>312396.0334725067</v>
+        <v>312396.0334145828</v>
       </c>
       <c r="IW3" t="n">
-        <v>387327.9169303047</v>
+        <v>387327.9168490971</v>
       </c>
       <c r="IX3" t="n">
-        <v>3791.058035524152</v>
+        <v>3791.058035552956</v>
       </c>
       <c r="IY3" t="n">
-        <v>-602954.0012840737</v>
+        <v>-602954.0010653865</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5795267644334</v>
+        <v>716.5795267621606</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.244489914163</v>
+        <v>1005.24448991117</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402837301887673</v>
+        <v>1.402837301887945</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993370812317752</v>
+        <v>0.9993370812314791</v>
       </c>
       <c r="JD3" t="n">
-        <v>324.1108394011873</v>
+        <v>324.1108393508142</v>
       </c>
       <c r="JE3" t="n">
-        <v>122090.552649533</v>
+        <v>122090.5525049446</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.190641931735288e-06</v>
+        <v>8.190641941435233e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>87031.15641795857</v>
+        <v>87031.15631487312</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.149013802824357e-05</v>
+        <v>1.149013804185325e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003841562701699032</v>
+        <v>0.003841562702887948</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.66129675319973e-05</v>
+        <v>1.661296752784505e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.0234354924735157</v>
+        <v>0.02343549246718277</v>
       </c>
       <c r="JL3" t="n">
-        <v>87088.65781399737</v>
+        <v>87088.65771087007</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.162237672339387</v>
+        <v>1.162237671324251</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.162237672339387</v>
+        <v>1.162237671324251</v>
       </c>
       <c r="JO3" t="n">
-        <v>312396.0334725067</v>
+        <v>312396.0334145828</v>
       </c>
       <c r="JP3" t="n">
-        <v>387327.9169303047</v>
+        <v>387327.9168490971</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3791.058035524152</v>
+        <v>3791.058035552956</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5795267644334</v>
+        <v>716.5795267621606</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.244489914163</v>
+        <v>1005.24448991117</v>
       </c>
       <c r="JT3" t="n">
-        <v>324.1108394011873</v>
+        <v>324.1108393508142</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993370812317752</v>
+        <v>0.9993370812314791</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.66129675319973e-05</v>
+        <v>1.661296752784505e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.0234354924735157</v>
+        <v>0.02343549246718277</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5910489676689</v>
+        <v>295.5910489676455</v>
       </c>
       <c r="KA3" t="n">
-        <v>134139.5092221238</v>
+        <v>134139.5092120086</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.581654219484161</v>
+        <v>1.581654219364963</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.8010381783</v>
+        <v>336974.8010381822</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KE3" t="n">
-        <v>3791.058035536546</v>
+        <v>3791.058035558183</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698818.3903329686</v>
+        <v>-698818.390339275</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8531809316696</v>
+        <v>717.8531809316432</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.758198712706</v>
+        <v>1006.75819871254</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402456972338104</v>
+        <v>1.402456972337924</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995342034561807</v>
+        <v>0.9995342034562151</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8000420523011</v>
+        <v>344.8000420522771</v>
       </c>
       <c r="KL3" t="n">
-        <v>188038.2343247978</v>
+        <v>188038.2343106005</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.318067379173021e-06</v>
+        <v>5.318067379574547e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>134077.720766941</v>
+        <v>134077.720756835</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.458360675285032e-06</v>
+        <v>7.458360675847197e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395544026639346</v>
+        <v>0.003395544026638677</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832896064261421e-05</v>
+        <v>1.832896064261161e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.0260667288265147</v>
+        <v>0.02606672882650971</v>
       </c>
       <c r="KS3" t="n">
-        <v>134139.5092221238</v>
+        <v>134139.5092120086</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581654219484161</v>
+        <v>1.581654219364963</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.581654219484161</v>
+        <v>1.581654219364963</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.8010381783</v>
+        <v>336974.8010381822</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KX3" t="n">
-        <v>3791.058035536546</v>
+        <v>3791.058035558183</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8531809316696</v>
+        <v>717.8531809316432</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.758198712706</v>
+        <v>1006.75819871254</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8000420523011</v>
+        <v>344.8000420522771</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995342034561807</v>
+        <v>0.9995342034562151</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832896064261421e-05</v>
+        <v>1.832896064261161e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.0260667288265147</v>
+        <v>0.02606672882650971</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>269.7870969682763</v>
+        <v>269.7870969195392</v>
       </c>
       <c r="LH3" t="n">
-        <v>97484.73984117934</v>
+        <v>97484.73977234072</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.259590687292349</v>
+        <v>1.259590686630691</v>
       </c>
       <c r="LJ3" t="n">
-        <v>318522.0190981007</v>
+        <v>318522.0190632827</v>
       </c>
       <c r="LK3" t="n">
-        <v>395916.0017820591</v>
+        <v>395916.0017332444</v>
       </c>
       <c r="LL3" t="n">
-        <v>3791.058035531321</v>
+        <v>3791.058035552956</v>
       </c>
       <c r="LM3" t="n">
-        <v>-626862.5400621926</v>
+        <v>-626862.5399320791</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8352535766765</v>
+        <v>716.83525357509</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.559450769063</v>
+        <v>1005.559450767013</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402776224734744</v>
+        <v>1.402776224734988</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993780141827046</v>
+        <v>0.9993780141825032</v>
       </c>
       <c r="LR3" t="n">
-        <v>329.3922556824922</v>
+        <v>329.3922556527015</v>
       </c>
       <c r="LS3" t="n">
-        <v>136664.6550854239</v>
+        <v>136664.6549889142</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.317180871491152e-06</v>
+        <v>7.317180876658394e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>97424.41643624689</v>
+        <v>97424.41636743085</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.026436735861164e-05</v>
+        <v>1.026436736586191e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003719733429119037</v>
+        <v>0.003719733429788775</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.704894490410198e-05</v>
+        <v>1.704894490163782e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02410124998277224</v>
+        <v>0.02410124997900316</v>
       </c>
       <c r="LZ3" t="n">
-        <v>97484.73984117934</v>
+        <v>97484.73977234072</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.259590687292349</v>
+        <v>1.259590686630691</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.259590687292349</v>
+        <v>1.259590686630691</v>
       </c>
       <c r="MC3" t="n">
-        <v>318522.0190981007</v>
+        <v>318522.0190632827</v>
       </c>
       <c r="MD3" t="n">
-        <v>395916.0017820591</v>
+        <v>395916.0017332444</v>
       </c>
       <c r="ME3" t="n">
-        <v>3791.058035531321</v>
+        <v>3791.058035552956</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8352535766765</v>
+        <v>716.83525357509</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.559450769063</v>
+        <v>1005.559450767013</v>
       </c>
       <c r="MH3" t="n">
-        <v>329.3922556824922</v>
+        <v>329.3922556527015</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993780141827046</v>
+        <v>0.9993780141825032</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.704894490410198e-05</v>
+        <v>1.704894490163782e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02410124998277224</v>
+        <v>0.02410124997900316</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8099479525150192</v>
+        <v>0.8099479535965296</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.404361319983746</v>
+        <v>0.4043613208137606</v>
       </c>
       <c r="MP3" t="n">
-        <v>238938.0442779613</v>
+        <v>238938.0445823073</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.701669617786683</v>
+        <v>2.701669617921288</v>
       </c>
       <c r="MR3" t="n">
-        <v>382253.4278169391</v>
+        <v>382253.4277682183</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>140.9419859731125</v>
+        <v>140.9419858724388</v>
       </c>
       <c r="MU3" t="n">
-        <v>126.2302382087897</v>
+        <v>126.230238213327</v>
       </c>
       <c r="MV3" t="n">
-        <v>-62.69426107545456</v>
+        <v>-62.69426083999619</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.41202583029477</v>
+        <v>-26.41202574374695</v>
       </c>
       <c r="MX3" t="n">
-        <v>260.6087398670682</v>
+        <v>260.6087396632716</v>
       </c>
       <c r="MY3" t="n">
-        <v>126.2302382087897</v>
+        <v>126.230238213327</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-227.9974610754546</v>
+        <v>-227.9974608399962</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.02900057511738</v>
+        <v>-61.02900054917075</v>
       </c>
       <c r="NB3" t="n">
-        <v>235.8696638041643</v>
+        <v>235.8696638083255</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000223319</v>
+        <v>57499.99999738485</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8498616913181003</v>
+        <v>0.8498616912313506</v>
       </c>
       <c r="NE3" t="n">
-        <v>294299.4762517592</v>
+        <v>294299.4762547551</v>
       </c>
       <c r="NF3" t="n">
-        <v>361957.5441346085</v>
+        <v>361957.5441388059</v>
       </c>
       <c r="NG3" t="n">
-        <v>3807.976748313888</v>
+        <v>3807.976748355868</v>
       </c>
       <c r="NH3" t="n">
-        <v>-536228.6512642627</v>
+        <v>-536228.6512858133</v>
       </c>
       <c r="NI3" t="n">
-        <v>716.0083017015454</v>
+        <v>716.0083017015755</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.418583802488</v>
+        <v>1004.418583802345</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402802986244091</v>
+        <v>1.402802986243833</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992893832279568</v>
+        <v>0.9992893832280709</v>
       </c>
       <c r="NM3" t="n">
-        <v>307.9669022649921</v>
+        <v>307.9669022677155</v>
       </c>
       <c r="NN3" t="n">
-        <v>80603.95326200542</v>
+        <v>80603.95325520333</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240633938573052e-05</v>
+        <v>1.240633938677748e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57459.21134500646</v>
+        <v>57459.21134016812</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740364993866046e-05</v>
+        <v>1.740364994012593e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004252688980938778</v>
+        <v>0.004252688980861993</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.528932515251638e-05</v>
+        <v>1.528932515273658e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.0214250549672177</v>
+        <v>0.02142505496754925</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000223319</v>
+        <v>57499.99999738485</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8498616913181003</v>
+        <v>0.8498616912313506</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8498616913181003</v>
+        <v>0.8498616912313506</v>
       </c>
       <c r="NX3" t="n">
-        <v>294299.4762517592</v>
+        <v>294299.4762547551</v>
       </c>
       <c r="NY3" t="n">
-        <v>361957.5441346085</v>
+        <v>361957.5441388059</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3807.976748313888</v>
+        <v>3807.976748355868</v>
       </c>
       <c r="OA3" t="n">
-        <v>716.0083017015454</v>
+        <v>716.0083017015755</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.418583802488</v>
+        <v>1004.418583802345</v>
       </c>
       <c r="OC3" t="n">
-        <v>307.9669022649921</v>
+        <v>307.9669022677155</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992893832279568</v>
+        <v>0.9992893832280709</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.528932515251638e-05</v>
+        <v>1.528932515273658e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.0214250549672177</v>
+        <v>0.02142505496754925</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>245.7879687245497</v>
+        <v>245.7879687146408</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66392.3624760301</v>
+        <v>66392.36245926056</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.941667629883818</v>
+        <v>0.9416676296838904</v>
       </c>
       <c r="OL3" t="n">
-        <v>301384.7742668053</v>
+        <v>301384.7742597459</v>
       </c>
       <c r="OM3" t="n">
-        <v>371889.865839531</v>
+        <v>371889.8658296323</v>
       </c>
       <c r="ON3" t="n">
-        <v>3807.976748322546</v>
+        <v>3807.976748354728</v>
       </c>
       <c r="OO3" t="n">
-        <v>-564065.0040809835</v>
+        <v>-564065.0040610592</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1922605915614</v>
+        <v>716.1922605913269</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.665486151612</v>
+        <v>1004.665486151155</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402787409796606</v>
+        <v>1.402787409796427</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.999317816772666</v>
+        <v>0.9993178167727105</v>
       </c>
       <c r="OT3" t="n">
-        <v>314.3824840450551</v>
+        <v>314.3824840387118</v>
       </c>
       <c r="OU3" t="n">
-        <v>93070.98794253344</v>
+        <v>93070.98791901751</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.074448678483405e-05</v>
+        <v>1.074448678754883e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66347.17940334808</v>
+        <v>66347.17938659289</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.507223078649123e-05</v>
+        <v>1.507223079029755e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.00408140820895873</v>
+        <v>0.004081408209121513</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.581324606132523e-05</v>
+        <v>1.581324606080473e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.0222185197251266</v>
+        <v>0.02221851972433588</v>
       </c>
       <c r="PB3" t="n">
-        <v>66392.3624760301</v>
+        <v>66392.36245926056</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.941667629883818</v>
+        <v>0.9416676296838904</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.941667629883818</v>
+        <v>0.9416676296838904</v>
       </c>
       <c r="PE3" t="n">
-        <v>301384.7742668053</v>
+        <v>301384.7742597459</v>
       </c>
       <c r="PF3" t="n">
-        <v>371889.865839531</v>
+        <v>371889.8658296323</v>
       </c>
       <c r="PG3" t="n">
-        <v>3807.976748322546</v>
+        <v>3807.976748354728</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1922605915614</v>
+        <v>716.1922605913269</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.665486151612</v>
+        <v>1004.665486151155</v>
       </c>
       <c r="PJ3" t="n">
-        <v>314.3824840450551</v>
+        <v>314.3824840387118</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.999317816772666</v>
+        <v>0.9993178167727105</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.581324606132523e-05</v>
+        <v>1.581324606080473e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.0222185197251266</v>
+        <v>0.02221851972433588</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>269.7715080042279</v>
+        <v>269.7715079555807</v>
       </c>
       <c r="PQ3" t="n">
-        <v>91901.75160616222</v>
+        <v>91901.75153799784</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.187480173554329</v>
+        <v>1.187480172887899</v>
       </c>
       <c r="PS3" t="n">
-        <v>318523.7609238679</v>
+        <v>318523.7608891161</v>
       </c>
       <c r="PT3" t="n">
-        <v>395916.0017821593</v>
+        <v>395916.0017334384</v>
       </c>
       <c r="PU3" t="n">
-        <v>3807.976748313887</v>
+        <v>3807.976748346068</v>
       </c>
       <c r="PV3" t="n">
-        <v>-631367.6280555143</v>
+        <v>-631367.6279276692</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.8170544728974</v>
+        <v>716.8170544713075</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.445398280636</v>
+        <v>1005.445398278551</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402652729879561</v>
+        <v>1.402652729879763</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9994132707882387</v>
+        <v>0.999413270788071</v>
       </c>
       <c r="QA3" t="n">
-        <v>329.3798012776307</v>
+        <v>329.3798012479004</v>
       </c>
       <c r="QB3" t="n">
-        <v>128830.9750270308</v>
+        <v>128830.9749314722</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.762108450938789e-06</v>
+        <v>7.762108456696226e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>91848.09060906539</v>
+        <v>91848.09054092508</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.08875426083305e-05</v>
+        <v>1.088754261640776e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003719200283723669</v>
+        <v>0.003719200284391784</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.704731314648989e-05</v>
+        <v>1.704731314403022e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02409808133765233</v>
+        <v>0.02409808133388995</v>
       </c>
       <c r="QI3" t="n">
-        <v>91901.75160616222</v>
+        <v>91901.75153799784</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.187480173554329</v>
+        <v>1.187480172887899</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.187480173554329</v>
+        <v>1.187480172887899</v>
       </c>
       <c r="QL3" t="n">
-        <v>318523.7609238679</v>
+        <v>318523.7608891161</v>
       </c>
       <c r="QM3" t="n">
-        <v>395916.0017821593</v>
+        <v>395916.0017334384</v>
       </c>
       <c r="QN3" t="n">
-        <v>3807.976748313887</v>
+        <v>3807.976748346068</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.8170544728974</v>
+        <v>716.8170544713075</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.445398280636</v>
+        <v>1005.445398278551</v>
       </c>
       <c r="QQ3" t="n">
-        <v>329.3798012776307</v>
+        <v>329.3798012479004</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9994132707882387</v>
+        <v>0.999413270788071</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.704731314648989e-05</v>
+        <v>1.704731314403022e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02409808133765233</v>
+        <v>0.02409808133388995</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.457653030038397</v>
+        <v>0.4576530297074522</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8462232075926968</v>
+        <v>0.8462232069234652</v>
       </c>
       <c r="QY3" t="n">
-        <v>377505.5354516112</v>
+        <v>377505.5351124302</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.701669617947899</v>
+        <v>2.701669617769235</v>
       </c>
       <c r="RA3" t="n">
-        <v>382253.4278169391</v>
+        <v>382253.4277682183</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02714521512729258</v>
+        <v>0.02714521518889738</v>
       </c>
       <c r="RC3" t="n">
         <v>0</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01389203144512741</v>
+        <v>0.01389203144372897</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.0797179277083543</v>
+        <v>0.07971792781845342</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04153273187854656</v>
+        <v>0.04153273191622209</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1622879061593208</v>
+        <v>0.1622879063673019</v>
       </c>
       <c r="RH3" t="n">
-        <v>-2.899777640230639e-11</v>
+        <v>4.211100912421273e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760661587074862</v>
+        <v>0.01760661578122035</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8698,25 +8698,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914148724186166</v>
+        <v>0.0491414872209618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202817165185342</v>
+        <v>0.08202817154142528</v>
       </c>
       <c r="H2" t="n">
-        <v>1.564498530726155e-12</v>
+        <v>1.430471574526138e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350719505</v>
+        <v>80.71248351628473</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350719505</v>
+        <v>80.71248351628473</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350719505</v>
+        <v>80.71248351628473</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350719505</v>
+        <v>80.71248351628473</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750144388</v>
+        <v>292.3522750139074</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796839549</v>
+        <v>132772.1796831121</v>
       </c>
       <c r="T2" t="n">
-        <v>1.582932746998819</v>
+        <v>1.582932746991653</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439822922</v>
+        <v>334649.8439819124</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785915396</v>
+        <v>418527.178591007</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.91734772346</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3142070009</v>
+        <v>-687417.3142055235</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007517379</v>
+        <v>717.7129007517138</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.64765284594</v>
+        <v>1006.647652845912</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602409</v>
+        <v>1.402577063602417</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405094</v>
+        <v>0.9994979633405058</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100794172</v>
+        <v>342.9081100791053</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6856003792</v>
+        <v>186130.685599198</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261078156e-06</v>
+        <v>5.372569261112252e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094701001</v>
+        <v>132706.2094692572</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418203563e-06</v>
+        <v>7.535442418251427e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124708921</v>
+        <v>0.00343346212471515</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103497783e-05</v>
+        <v>1.817140103495183e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0258242925087263</v>
+        <v>0.02582429250868626</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796839549</v>
+        <v>132772.1796831121</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.582932746998819</v>
+        <v>1.582932746991653</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.582932746998819</v>
+        <v>1.582932746991653</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439822922</v>
+        <v>334649.8439819124</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785915396</v>
+        <v>418527.178591007</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.91734772346</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007517379</v>
+        <v>717.7129007517138</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.64765284594</v>
+        <v>1006.647652845912</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100794172</v>
+        <v>342.9081100791053</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405094</v>
+        <v>0.9994979633405058</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103497783e-05</v>
+        <v>1.817140103495183e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0258242925087263</v>
+        <v>0.02582429250868626</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8838,97 +8838,97 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990478</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BG2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372425</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296838e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.6617461907</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979579e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BW2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BY2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8939,97 +8939,97 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CK2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990478</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CN2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372425</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296838e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.6617461907</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979579e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953536</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756448</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="DD2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DF2" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2353764204891571</v>
+        <v>0.2353764205158788</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2353764204891571</v>
+        <v>0.2353764205158788</v>
       </c>
       <c r="DO2" t="n">
-        <v>183929.9703417376</v>
+        <v>183929.9703618819</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.742859854030673</v>
+        <v>2.742859854327152</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>306.8418861841554</v>
+        <v>306.8418890349799</v>
       </c>
       <c r="DT2" t="n">
-        <v>125.3773394031109</v>
+        <v>125.377340567974</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.0579687872626</v>
+        <v>280.0579713892414</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>306.8418861841554</v>
+        <v>306.8418890349799</v>
       </c>
       <c r="DX2" t="n">
-        <v>125.3773394031109</v>
+        <v>125.377340567974</v>
       </c>
       <c r="DY2" t="n">
-        <v>280.0579687872626</v>
+        <v>280.0579713892414</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>248.6139894802033</v>
+        <v>248.6139886066132</v>
       </c>
       <c r="EB2" t="n">
-        <v>72670.28946774009</v>
+        <v>72670.28853655186</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.019019580031772</v>
+        <v>1.019019570557618</v>
       </c>
       <c r="ED2" t="n">
-        <v>303394.5310326589</v>
+        <v>303394.530408686</v>
       </c>
       <c r="EE2" t="n">
-        <v>374708.4595299645</v>
+        <v>374708.4586552121</v>
       </c>
       <c r="EF2" t="n">
-        <v>3793.461869274337</v>
+        <v>3793.461869431432</v>
       </c>
       <c r="EG2" t="n">
-        <v>-568399.229731358</v>
+        <v>-568399.2273312353</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.266334338843</v>
+        <v>716.2663343196498</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.832375609374</v>
+        <v>1004.832375583466</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402875337617109</v>
+        <v>1.402875337618531</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.999292363280166</v>
+        <v>0.9992923632774533</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.1865760337177</v>
+        <v>316.1865754774978</v>
       </c>
       <c r="EM2" t="n">
-        <v>101875.4134234748</v>
+        <v>101875.4121178778</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.815911085859441e-06</v>
+        <v>9.81591121165647e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72619.00661573961</v>
+        <v>72619.00568500812</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.377049957859459e-05</v>
+        <v>1.377049975508609e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004035765672765889</v>
+        <v>0.004035765686911024</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.596159563136967e-05</v>
+        <v>1.596159558577428e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02244419801335963</v>
+        <v>0.02244419794411601</v>
       </c>
       <c r="ET2" t="n">
-        <v>72670.28946774009</v>
+        <v>72670.28853655186</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.019019580031772</v>
+        <v>1.019019570557618</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.019019580031772</v>
+        <v>1.019019570557618</v>
       </c>
       <c r="EW2" t="n">
-        <v>303394.5310326589</v>
+        <v>303394.530408686</v>
       </c>
       <c r="EX2" t="n">
-        <v>374708.4595299645</v>
+        <v>374708.4586552121</v>
       </c>
       <c r="EY2" t="n">
-        <v>3793.461869274337</v>
+        <v>3793.461869431432</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.266334338843</v>
+        <v>716.2663343196498</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.832375609374</v>
+        <v>1004.832375583466</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.1865760337177</v>
+        <v>316.1865754774978</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.999292363280166</v>
+        <v>0.9992923632774533</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.596159563136967e-05</v>
+        <v>1.596159558577428e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02244419801335963</v>
+        <v>0.02244419794411601</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5884537395513</v>
+        <v>295.588453739182</v>
       </c>
       <c r="FI2" t="n">
-        <v>133020.3589805529</v>
+        <v>133020.3589074055</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.568465981780052</v>
+        <v>1.568465980919131</v>
       </c>
       <c r="FK2" t="n">
-        <v>336975.2222656924</v>
+        <v>336975.2222655764</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FM2" t="n">
-        <v>3793.461869281769</v>
+        <v>3793.461869438864</v>
       </c>
       <c r="FN2" t="n">
-        <v>-699519.0971722556</v>
+        <v>-699519.0972174911</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8502656720228</v>
+        <v>717.8502656718239</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.739822664598</v>
+        <v>1006.739822663391</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402437069131859</v>
+        <v>1.402437069130567</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995380147658109</v>
+        <v>0.9995380147660576</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.7973817658094</v>
+        <v>344.7973817655193</v>
       </c>
       <c r="FT2" t="n">
-        <v>186467.4460061513</v>
+        <v>186467.4459034867</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.362866395279588e-06</v>
+        <v>5.362866398232256e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>132959.5816528003</v>
+        <v>132959.5815797184</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.521082629541642e-06</v>
+        <v>7.521082633675643e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00339547017853017</v>
+        <v>0.003395470178527661</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832867335241751e-05</v>
+        <v>1.832867335238905e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606617654997266</v>
+        <v>0.02606617654992168</v>
       </c>
       <c r="GA2" t="n">
-        <v>133020.3589805529</v>
+        <v>133020.3589074055</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.568465981780052</v>
+        <v>1.568465980919131</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.568465981780052</v>
+        <v>1.568465980919131</v>
       </c>
       <c r="GD2" t="n">
-        <v>336975.2222656924</v>
+        <v>336975.2222655764</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GF2" t="n">
-        <v>3793.461869281769</v>
+        <v>3793.461869438864</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8502656720228</v>
+        <v>717.8502656718239</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.739822664598</v>
+        <v>1006.739822663391</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.7973817658094</v>
+        <v>344.7973817655193</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995380147658109</v>
+        <v>0.9995380147660576</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832867335241751e-05</v>
+        <v>1.832867335238905e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606617654997266</v>
+        <v>0.02606617654992168</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5884537395513</v>
+        <v>295.588453739182</v>
       </c>
       <c r="GP2" t="n">
-        <v>133020.3589805529</v>
+        <v>133020.3589074055</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.568465981780052</v>
+        <v>1.568465980919131</v>
       </c>
       <c r="GR2" t="n">
-        <v>336975.2222656924</v>
+        <v>336975.2222655764</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GT2" t="n">
-        <v>3793.461869281769</v>
+        <v>3793.461869438864</v>
       </c>
       <c r="GU2" t="n">
-        <v>-699519.0971722556</v>
+        <v>-699519.0972174911</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8502656720228</v>
+        <v>717.8502656718239</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.739822664598</v>
+        <v>1006.739822663391</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402437069131859</v>
+        <v>1.402437069130567</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995380147658109</v>
+        <v>0.9995380147660576</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.7973817658094</v>
+        <v>344.7973817655193</v>
       </c>
       <c r="HA2" t="n">
-        <v>186467.4460061513</v>
+        <v>186467.4459034867</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.362866395279588e-06</v>
+        <v>5.362866398232256e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>132959.5816528003</v>
+        <v>132959.5815797184</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.521082629541642e-06</v>
+        <v>7.521082633675643e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.00339547017853017</v>
+        <v>0.003395470178527661</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832867335241751e-05</v>
+        <v>1.832867335238905e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606617654997266</v>
+        <v>0.02606617654992168</v>
       </c>
       <c r="HH2" t="n">
-        <v>133020.3589805529</v>
+        <v>133020.3589074055</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.568465981780052</v>
+        <v>1.568465980919131</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.568465981780052</v>
+        <v>1.568465980919131</v>
       </c>
       <c r="HK2" t="n">
-        <v>336975.2222656924</v>
+        <v>336975.2222655764</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HM2" t="n">
-        <v>3793.461869281769</v>
+        <v>3793.461869438864</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8502656720228</v>
+        <v>717.8502656718239</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.739822664598</v>
+        <v>1006.739822663391</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.7973817658094</v>
+        <v>344.7973817655193</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995380147658109</v>
+        <v>0.9995380147660576</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832867335241751e-05</v>
+        <v>1.832867335238905e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606617654997266</v>
+        <v>0.02606617654992168</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01795407855405201</v>
+        <v>0.0179540785626291</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -9394,28 +9394,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.04927004794569003</v>
+        <v>0.0492700479530033</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.08250419503898518</v>
+        <v>0.08250419505487554</v>
       </c>
       <c r="IB2" t="n">
-        <v>8.402786890363001e-06</v>
+        <v>8.402773693239052e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9704456464699319</v>
+        <v>0.9704456571933651</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9704456464699319</v>
+        <v>0.9704456571933651</v>
       </c>
       <c r="IE2" t="n">
-        <v>512458.3902005096</v>
+        <v>512458.3916610695</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.742849774790569</v>
+        <v>2.742849774772838</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885898</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>2102.618816489121</v>
+        <v>2102.618763912818</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006917638386714429</v>
+        <v>0.006917638179947575</v>
       </c>
       <c r="IL2" t="n">
         <v>0</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01930768757722011</v>
+        <v>0.01930768709008365</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.006003538070840037</v>
+        <v>0.006003537921922985</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02701446658309776</v>
+        <v>0.02701446561438488</v>
       </c>
       <c r="IQ2" t="n">
         <v>0</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01388396193703856</v>
+        <v>0.01388396196388864</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.07948209067921097</v>
+        <v>0.07948208886729358</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04125112786599939</v>
+        <v>0.0412511273381102</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1616316470653467</v>
+        <v>0.1616316437836773</v>
       </c>
       <c r="IV2" t="n">
-        <v>6.220773896004061e-12</v>
+        <v>4.620859250792364e-12</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>263.9934655546166</v>
+        <v>263.9934648019918</v>
       </c>
       <c r="IY2" t="n">
-        <v>108.9555784007568</v>
+        <v>108.9555784535991</v>
       </c>
       <c r="IZ2" t="n">
-        <v>240.4604578530389</v>
+        <v>240.4604570028139</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.62413760280089</v>
+        <v>65.6241375161959</v>
       </c>
       <c r="JB2" t="n">
-        <v>132.362878000713</v>
+        <v>132.3628775614424</v>
       </c>
       <c r="JC2" t="n">
-        <v>108.9555784007568</v>
+        <v>108.9555784535991</v>
       </c>
       <c r="JD2" t="n">
-        <v>75.15725785303886</v>
+        <v>75.15725700281388</v>
       </c>
       <c r="JE2" t="n">
-        <v>34.59780475476499</v>
+        <v>34.59780443882517</v>
       </c>
       <c r="JF2" t="n">
-        <v>260.8261689293</v>
+        <v>260.8261691278581</v>
       </c>
       <c r="JG2" t="n">
-        <v>86657.47144018231</v>
+        <v>86657.47174318833</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.158210344808552</v>
+        <v>1.158210347976259</v>
       </c>
       <c r="JI2" t="n">
-        <v>312118.0064110601</v>
+        <v>312118.0065527662</v>
       </c>
       <c r="JJ2" t="n">
-        <v>386938.1561607211</v>
+        <v>386938.1563594097</v>
       </c>
       <c r="JK2" t="n">
-        <v>3790.988615978378</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="JL2" t="n">
-        <v>-601850.8809995083</v>
+        <v>-601850.8814906244</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5688793670388</v>
+        <v>716.5688793727453</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.231555298598</v>
+        <v>1005.231555307025</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402840095688416</v>
+        <v>1.402840095689005</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.999335189857862</v>
+        <v>0.9993351898581883</v>
       </c>
       <c r="JQ2" t="n">
-        <v>323.8691149481627</v>
+        <v>323.8691150716144</v>
       </c>
       <c r="JR2" t="n">
-        <v>121486.0771089843</v>
+        <v>121486.0775338645</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.231395924513284e-06</v>
+        <v>8.231395895725155e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>86600.08897832896</v>
+        <v>86600.08928116399</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.154733224639345e-05</v>
+        <v>1.154733220601316e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003847284352000551</v>
+        <v>0.00384728434908859</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659305183843477e-05</v>
+        <v>1.659305184861587e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02340512758423255</v>
+        <v>0.02340512759976528</v>
       </c>
       <c r="JY2" t="n">
-        <v>86657.47144018231</v>
+        <v>86657.47174318833</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.158210344808552</v>
+        <v>1.158210347976259</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.158210344808552</v>
+        <v>1.158210347976259</v>
       </c>
       <c r="KB2" t="n">
-        <v>312118.0064110601</v>
+        <v>312118.0065527662</v>
       </c>
       <c r="KC2" t="n">
-        <v>386938.1561607211</v>
+        <v>386938.1563594097</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.988615978378</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5688793670388</v>
+        <v>716.5688793727453</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.231555298598</v>
+        <v>1005.231555307025</v>
       </c>
       <c r="KG2" t="n">
-        <v>323.8691149481627</v>
+        <v>323.8691150716144</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.999335189857862</v>
+        <v>0.9993351898581883</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.659305183843477e-05</v>
+        <v>1.659305184861587e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02340512758423255</v>
+        <v>0.02340512759976528</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5911242359261</v>
+        <v>295.591124236088</v>
       </c>
       <c r="KN2" t="n">
-        <v>134171.9683765247</v>
+        <v>134171.9684891881</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.582036721155331</v>
+        <v>1.582036722483501</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.7888203733</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.43108859</v>
       </c>
       <c r="KR2" t="n">
-        <v>3790.988615983603</v>
+        <v>3790.988615742342</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698798.1558755006</v>
+        <v>-698798.1558048998</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8532654820797</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.758731672591</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402457549589184</v>
+        <v>1.402457549591192</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995340929339731</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8001192149976</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="KY2" t="n">
-        <v>188083.7930097718</v>
+        <v>188083.7931679032</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.316779207807901e-06</v>
+        <v>5.316779203337823e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>134110.150474691</v>
+        <v>134110.150587252</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.456557139488992e-06</v>
+        <v>7.456557133230571e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395546168350186</v>
+        <v>0.003395546168358774</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832896897519363e-05</v>
+        <v>1.832896897521773e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606674484500232</v>
+        <v>0.02606674484505051</v>
       </c>
       <c r="LF2" t="n">
-        <v>134171.9683765247</v>
+        <v>134171.9684891881</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.582036721155331</v>
+        <v>1.582036722483501</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.582036721155331</v>
+        <v>1.582036722483501</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.7888203733</v>
+        <v>336974.7888202593</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.43108859</v>
       </c>
       <c r="LK2" t="n">
-        <v>3790.988615983603</v>
+        <v>3790.988615742342</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8532654820797</v>
+        <v>717.8532654823688</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.758731672591</v>
+        <v>1006.758731674438</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8001192149976</v>
+        <v>344.8001192152075</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995340929339731</v>
+        <v>0.9995340929335882</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832896897519363e-05</v>
+        <v>1.832896897521773e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606674484500232</v>
+        <v>0.02606674484505051</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>269.5697205308508</v>
+        <v>269.5697206711426</v>
       </c>
       <c r="LU2" t="n">
-        <v>97234.10258444231</v>
+        <v>97234.10284268224</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.257366906382044</v>
+        <v>1.25736690906682</v>
       </c>
       <c r="LW2" t="n">
-        <v>318366.5951241778</v>
+        <v>318366.5952242622</v>
       </c>
       <c r="LX2" t="n">
-        <v>395698.1218972375</v>
+        <v>395698.1220375823</v>
       </c>
       <c r="LY2" t="n">
-        <v>3790.988615978378</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-626237.6198476905</v>
+        <v>-626237.6201741541</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.8283699323572</v>
+        <v>716.8283699370996</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.551463571392</v>
+        <v>1005.551463578513</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402778553067423</v>
+        <v>1.402778553068077</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993767605621823</v>
+        <v>0.9993767605623742</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2593859338319</v>
+        <v>329.2593860196522</v>
       </c>
       <c r="MF2" t="n">
-        <v>136313.3381949617</v>
+        <v>136313.3385570821</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.336039255158972e-06</v>
+        <v>7.336039235670566e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>97173.81114566406</v>
+        <v>97173.81140376395</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.029083853159772e-05</v>
+        <v>1.029083850426459e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003722730537826505</v>
+        <v>0.003722730535903677</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.703796105749481e-05</v>
+        <v>1.703796106459945e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02408445693540396</v>
+        <v>0.02408445694627749</v>
       </c>
       <c r="MM2" t="n">
-        <v>97234.10258444231</v>
+        <v>97234.10284268224</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.257366906382044</v>
+        <v>1.25736690906682</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.257366906382044</v>
+        <v>1.25736690906682</v>
       </c>
       <c r="MP2" t="n">
-        <v>318366.5951241778</v>
+        <v>318366.5952242622</v>
       </c>
       <c r="MQ2" t="n">
-        <v>395698.1218972375</v>
+        <v>395698.1220375823</v>
       </c>
       <c r="MR2" t="n">
-        <v>3790.988615978378</v>
+        <v>3790.988615737117</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.8283699323572</v>
+        <v>716.8283699370996</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.551463571392</v>
+        <v>1005.551463578513</v>
       </c>
       <c r="MU2" t="n">
-        <v>329.2593859338319</v>
+        <v>329.2593860196522</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993767605621823</v>
+        <v>0.9993767605623742</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.703796105749481e-05</v>
+        <v>1.703796106459945e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02408445693540396</v>
+        <v>0.02408445694627749</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8151239292973965</v>
+        <v>0.8151239266628347</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.4086924991964686</v>
+        <v>0.4086924976843628</v>
       </c>
       <c r="NC2" t="n">
-        <v>240769.6728106235</v>
+        <v>240769.6725223599</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.709176836726646</v>
+        <v>2.709176845450169</v>
       </c>
       <c r="NE2" t="n">
-        <v>382035.5479320172</v>
+        <v>382035.5480725624</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>162.4251614613126</v>
+        <v>162.4251334729865</v>
       </c>
       <c r="NH2" t="n">
-        <v>138.1173065321121</v>
+        <v>138.117291032977</v>
       </c>
       <c r="NI2" t="n">
-        <v>-85.47246756732864</v>
+        <v>-85.47243942598939</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-31.7508653628629</v>
+        <v>-31.75085979863614</v>
       </c>
       <c r="NK2" t="n">
-        <v>286.2949978737399</v>
+        <v>286.2949657465215</v>
       </c>
       <c r="NL2" t="n">
-        <v>138.1173065321121</v>
+        <v>138.117291032977</v>
       </c>
       <c r="NM2" t="n">
-        <v>-250.7756675673286</v>
+        <v>-250.7756394259894</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO2" t="n">
-        <v>228.6352263965616</v>
+        <v>228.6352357259443</v>
       </c>
       <c r="NP2" t="n">
-        <v>51079.99233675982</v>
+        <v>51080.00028304931</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.778869066780578</v>
+        <v>0.7788691561565499</v>
       </c>
       <c r="NR2" t="n">
-        <v>289133.4506710938</v>
+        <v>289133.4573328848</v>
       </c>
       <c r="NS2" t="n">
-        <v>354715.7089932748</v>
+        <v>354715.7183317815</v>
       </c>
       <c r="NT2" t="n">
-        <v>3810.753365497002</v>
+        <v>3810.753361718774</v>
       </c>
       <c r="NU2" t="n">
-        <v>-516556.7494685912</v>
+        <v>-516556.7748182251</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8948539547744</v>
+        <v>715.8948540894926</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.247083825491</v>
+        <v>1004.247084035028</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402785727928885</v>
+        <v>1.4027857279576</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992795353079962</v>
+        <v>0.9992795353179623</v>
       </c>
       <c r="NZ2" t="n">
-        <v>303.2023500854584</v>
+        <v>303.2023562776687</v>
       </c>
       <c r="OA2" t="n">
-        <v>71602.73020195361</v>
+        <v>71602.74134307791</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.396594790700755e-05</v>
+        <v>1.39659457339572e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>51043.24115677313</v>
+        <v>51043.24909787089</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.959123240094846e-05</v>
+        <v>1.959122935302549e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004386854106179188</v>
+        <v>0.00438685392769978</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.490180034367715e-05</v>
+        <v>1.490180084636367e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02083979080283039</v>
+        <v>0.02083979156107284</v>
       </c>
       <c r="OH2" t="n">
-        <v>51079.99233675982</v>
+        <v>51080.00028304931</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.778869066780578</v>
+        <v>0.7788691561565499</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.778869066780578</v>
+        <v>0.7788691561565499</v>
       </c>
       <c r="OK2" t="n">
-        <v>289133.4506710938</v>
+        <v>289133.4573328848</v>
       </c>
       <c r="OL2" t="n">
-        <v>354715.7089932748</v>
+        <v>354715.7183317815</v>
       </c>
       <c r="OM2" t="n">
-        <v>3810.753365497002</v>
+        <v>3810.753361718774</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8948539547744</v>
+        <v>715.8948540894926</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.247083825491</v>
+        <v>1004.247084035028</v>
       </c>
       <c r="OP2" t="n">
-        <v>303.2023500854584</v>
+        <v>303.2023562776687</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992795353079962</v>
+        <v>0.9992795353179623</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.490180034367715e-05</v>
+        <v>1.490180084636367e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02083979080283039</v>
+        <v>0.02083979156107284</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>241.8085167360379</v>
+        <v>241.808521524555</v>
       </c>
       <c r="OW2" t="n">
-        <v>62112.35067266641</v>
+        <v>62112.35578237766</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.8954655996217975</v>
+        <v>0.89546565555062</v>
       </c>
       <c r="OY2" t="n">
-        <v>298543.4853662711</v>
+        <v>298543.488784937</v>
       </c>
       <c r="OZ2" t="n">
-        <v>367906.6755311415</v>
+        <v>367906.6803237401</v>
       </c>
       <c r="PA2" t="n">
-        <v>3810.753365489536</v>
+        <v>3810.75336171131</v>
       </c>
       <c r="PB2" t="n">
-        <v>-553565.9434247479</v>
+        <v>-553565.9559663995</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.1111450717189</v>
+        <v>716.1111451658173</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.545565080785</v>
+        <v>1004.545565223244</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402778845147257</v>
+        <v>1.402778845161862</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9993123068885522</v>
+        <v>0.9993123068934285</v>
       </c>
       <c r="PG2" t="n">
-        <v>311.8243786696795</v>
+        <v>311.8243817603775</v>
       </c>
       <c r="PH2" t="n">
-        <v>87070.09892374313</v>
+        <v>87070.10608797002</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.148499901069149e-05</v>
+        <v>1.148499806569277e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62069.72626152127</v>
+        <v>62069.73136804278</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.611091364873519e-05</v>
+        <v>1.611091232327872e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004148320324471373</v>
+        <v>0.004148320242649532</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.560393109327824e-05</v>
+        <v>1.560393134595004e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02190110351077172</v>
+        <v>0.02190110389368998</v>
       </c>
       <c r="PO2" t="n">
-        <v>62112.35067266641</v>
+        <v>62112.35578237766</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.8954655996217975</v>
+        <v>0.89546565555062</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.8954655996217975</v>
+        <v>0.89546565555062</v>
       </c>
       <c r="PR2" t="n">
-        <v>298543.4853662711</v>
+        <v>298543.488784937</v>
       </c>
       <c r="PS2" t="n">
-        <v>367906.6755311415</v>
+        <v>367906.6803237401</v>
       </c>
       <c r="PT2" t="n">
-        <v>3810.753365489536</v>
+        <v>3810.75336171131</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.1111450717189</v>
+        <v>716.1111451658173</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.545565080785</v>
+        <v>1004.545565223244</v>
       </c>
       <c r="PW2" t="n">
-        <v>311.8243786696795</v>
+        <v>311.8243817603775</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9993123068885522</v>
+        <v>0.9993123068934285</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.560393109327824e-05</v>
+        <v>1.560393134595004e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02190110351077172</v>
+        <v>0.02190110389368998</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>269.5516157896919</v>
+        <v>269.5516159330845</v>
       </c>
       <c r="QD2" t="n">
-        <v>90760.58037815191</v>
+        <v>90760.58173818694</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.17368620357257</v>
+        <v>1.173686220543872</v>
       </c>
       <c r="QF2" t="n">
-        <v>318368.6107366846</v>
+        <v>318368.6108364288</v>
       </c>
       <c r="QG2" t="n">
-        <v>395698.1218972375</v>
+        <v>395698.1220375823</v>
       </c>
       <c r="QH2" t="n">
-        <v>3810.753365486328</v>
+        <v>3810.753361708102</v>
       </c>
       <c r="QI2" t="n">
-        <v>-631496.6051456088</v>
+        <v>-631496.6045332707</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.8072235397287</v>
+        <v>716.8072235480995</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.418959896626</v>
+        <v>1005.418959926467</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402635083574742</v>
+        <v>1.402635083599993</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9994178347712769</v>
+        <v>0.9994178347643496</v>
       </c>
       <c r="QN2" t="n">
-        <v>329.2449557938156</v>
+        <v>329.2449558820841</v>
       </c>
       <c r="QO2" t="n">
-        <v>127230.2145990737</v>
+        <v>127230.2165070201</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.859768240988886e-06</v>
+        <v>7.859768123123672e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>90707.99389590061</v>
+        <v>90707.99525452622</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.102438668357755e-05</v>
+        <v>1.102438651845413e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.00372211033455785</v>
+        <v>0.003722110332741907</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.703606689469475e-05</v>
+        <v>1.703606690212312e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02408077843246756</v>
+        <v>0.02408077844396994</v>
       </c>
       <c r="QV2" t="n">
-        <v>90760.58037815191</v>
+        <v>90760.58173818694</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.17368620357257</v>
+        <v>1.173686220543872</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.17368620357257</v>
+        <v>1.173686220543872</v>
       </c>
       <c r="QY2" t="n">
-        <v>318368.6107366846</v>
+        <v>318368.6108364288</v>
       </c>
       <c r="QZ2" t="n">
-        <v>395698.1218972375</v>
+        <v>395698.1220375823</v>
       </c>
       <c r="RA2" t="n">
-        <v>3810.753365486328</v>
+        <v>3810.753361708102</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.8072235397287</v>
+        <v>716.8072235480995</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.418959896626</v>
+        <v>1005.418959926467</v>
       </c>
       <c r="RD2" t="n">
-        <v>329.2449557938156</v>
+        <v>329.2449558820841</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9994178347712769</v>
+        <v>0.9994178347643496</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.703606689469475e-05</v>
+        <v>1.703606690212312e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02408077843246756</v>
+        <v>0.02408077844396994</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02720806897562778</v>
+        <v>0.0272080690860697</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
@@ -10150,55 +10150,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.08021887447590444</v>
+        <v>0.08021887359414714</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04179126288988892</v>
+        <v>0.04179126269109715</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1631170485699978</v>
+        <v>0.1631170475998906</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.373451360146439e-05</v>
+        <v>2.373485210438453e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5356988869496977</v>
+        <v>0.5356987837002155</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9442373972135999</v>
+        <v>0.9442372719700647</v>
       </c>
       <c r="RS2" t="n">
-        <v>389954.455724489</v>
+        <v>389954.4435581001</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.709150552412131</v>
+        <v>2.709150559276472</v>
       </c>
       <c r="RU2" t="n">
-        <v>382035.5479320172</v>
+        <v>382035.5480725624</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>3749.90072602022</v>
+        <v>3749.900722506049</v>
       </c>
       <c r="RX2" t="n">
-        <v>4.36716561705429</v>
+        <v>4.367164355270525</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.009606699811552624</v>
+        <v>0.009606699642102472</v>
       </c>
       <c r="RZ2" t="n">
         <v>0</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.02826487738342108</v>
+        <v>0.02826487725407381</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01466944390990033</v>
+        <v>0.01466944398945758</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004937319569641396</v>
+        <v>0.004937319669149056</v>
       </c>
     </row>
     <row r="3">
@@ -10206,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01762361550009564</v>
+        <v>0.01762361550703731</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10215,25 +10215,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914564471554182</v>
+        <v>0.04914564471719297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204932875488058</v>
+        <v>0.0820493287634734</v>
       </c>
       <c r="H3" t="n">
-        <v>7.225803289045984e-12</v>
+        <v>1.623812195816754e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350682647</v>
+        <v>80.71248350570191</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350682647</v>
+        <v>80.71248350570191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350682647</v>
+        <v>80.71248350570191</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350682647</v>
+        <v>80.71248350570191</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750146688</v>
+        <v>292.3522750145589</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.17968432</v>
+        <v>132772.1796841455</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747001923</v>
+        <v>1.582932747000439</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439824571</v>
+        <v>334649.8439823784</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785917706</v>
+        <v>418527.1785916602</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723462</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142076406</v>
+        <v>-687417.3142073355</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517483</v>
+        <v>717.7129007517434</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845952</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602405</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994979633405111</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100795522</v>
+        <v>342.9081100794877</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856008909</v>
+        <v>186130.6856006463</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261063388e-06</v>
+        <v>5.372569261070446e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094704653</v>
+        <v>132706.2094702908</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418182829e-06</v>
+        <v>7.535442418192738e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124706222</v>
+        <v>0.003433462124707511</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103498908e-05</v>
+        <v>1.817140103498371e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250874364</v>
+        <v>0.02582429250873535</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.17968432</v>
+        <v>132772.1796841455</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747001923</v>
+        <v>1.582932747000439</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747001923</v>
+        <v>1.582932747000439</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439824571</v>
+        <v>334649.8439823784</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785917706</v>
+        <v>418527.1785916602</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723462</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517483</v>
+        <v>717.7129007517434</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845952</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100795522</v>
+        <v>342.9081100794877</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994979633405111</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103498908e-05</v>
+        <v>1.817140103498371e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250874364</v>
+        <v>0.02582429250873535</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10355,97 +10355,97 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BD3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BE3" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="BF3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BG3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372415</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296864e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.66174619</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979613e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BW3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BX3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BY3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -10456,97 +10456,97 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CK3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="CL3" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="CM3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CN3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372415</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296864e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.66174619</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979613e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.9999953529</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.62714581975644</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="DD3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="DE3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DF3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DI3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2353764204879895</v>
+        <v>0.2353764204847543</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2353764204879895</v>
+        <v>0.2353764204847543</v>
       </c>
       <c r="DO3" t="n">
-        <v>183929.9703411445</v>
+        <v>183929.9703384637</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.742859854023528</v>
+        <v>2.742859853982739</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>306.8418863320468</v>
+        <v>306.8418860063711</v>
       </c>
       <c r="DT3" t="n">
-        <v>125.3773394635402</v>
+        <v>125.3773393304672</v>
       </c>
       <c r="DU3" t="n">
-        <v>280.0579689222446</v>
+        <v>280.0579686249968</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.8418863320468</v>
+        <v>306.8418860063711</v>
       </c>
       <c r="DX3" t="n">
-        <v>125.3773394635402</v>
+        <v>125.3773393304672</v>
       </c>
       <c r="DY3" t="n">
-        <v>280.0579689222446</v>
+        <v>280.0579686249968</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>248.6139894350839</v>
+        <v>248.6139895346783</v>
       </c>
       <c r="EB3" t="n">
-        <v>72670.28941949728</v>
+        <v>72670.28952451245</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.019019579540363</v>
+        <v>1.019019580604395</v>
       </c>
       <c r="ED3" t="n">
-        <v>303394.5310004323</v>
+        <v>303394.5310715717</v>
       </c>
       <c r="EE3" t="n">
-        <v>374708.4594847857</v>
+        <v>374708.4595845162</v>
       </c>
       <c r="EF3" t="n">
-        <v>3793.46186928304</v>
+        <v>3793.461869269668</v>
       </c>
       <c r="EG3" t="n">
-        <v>-568399.2296075418</v>
+        <v>-568399.229882294</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2663343378512</v>
+        <v>716.2663343400346</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.832375608032</v>
+        <v>1004.832375610957</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402875337617178</v>
+        <v>1.402875337616986</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992923632800274</v>
+        <v>0.9992923632803478</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.1865760049899</v>
+        <v>316.1865760684022</v>
       </c>
       <c r="EM3" t="n">
-        <v>101875.4133558345</v>
+        <v>101875.4135030729</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.815911092376724e-06</v>
+        <v>9.815911078189996e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72619.0065675206</v>
+        <v>72619.00667248528</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.37704995877382e-05</v>
+        <v>1.37704995678341e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004035765673496432</v>
+        <v>0.004035765671883592</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.596159562901473e-05</v>
+        <v>1.596159563421269e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02244419800978327</v>
+        <v>0.02244419801767701</v>
       </c>
       <c r="ET3" t="n">
-        <v>72670.28941949728</v>
+        <v>72670.28952451245</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.019019579540363</v>
+        <v>1.019019580604395</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.019019579540363</v>
+        <v>1.019019580604395</v>
       </c>
       <c r="EW3" t="n">
-        <v>303394.5310004323</v>
+        <v>303394.5310715717</v>
       </c>
       <c r="EX3" t="n">
-        <v>374708.4594847857</v>
+        <v>374708.4595845162</v>
       </c>
       <c r="EY3" t="n">
-        <v>3793.46186928304</v>
+        <v>3793.461869269668</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2663343378512</v>
+        <v>716.2663343400346</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.832375608032</v>
+        <v>1004.832375610957</v>
       </c>
       <c r="FB3" t="n">
-        <v>316.1865760049899</v>
+        <v>316.1865760684022</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992923632800274</v>
+        <v>0.9992923632803478</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.596159562901473e-05</v>
+        <v>1.596159563421269e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02244419800978327</v>
+        <v>0.02244419801767701</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5884537395417</v>
+        <v>295.5884537395561</v>
       </c>
       <c r="FI3" t="n">
-        <v>133020.3589765182</v>
+        <v>133020.3589827177</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.568465981732507</v>
+        <v>1.568465981805563</v>
       </c>
       <c r="FK3" t="n">
-        <v>336975.2222656938</v>
+        <v>336975.2222656915</v>
       </c>
       <c r="FL3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="FM3" t="n">
-        <v>3793.461869290471</v>
+        <v>3793.461869277099</v>
       </c>
       <c r="FN3" t="n">
-        <v>-699519.0971747917</v>
+        <v>-699519.0971708938</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8502656720127</v>
+        <v>717.8502656720286</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.739822664532</v>
+        <v>1006.739822664633</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402437069131787</v>
+        <v>1.402437069131897</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995380147658247</v>
+        <v>0.9995380147658036</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.7973817657997</v>
+        <v>344.7973817658145</v>
       </c>
       <c r="FT3" t="n">
-        <v>186467.4460004884</v>
+        <v>186467.4460091897</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.362866395442455e-06</v>
+        <v>5.362866395192205e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>132959.5816487692</v>
+        <v>132959.5816549631</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.521082629769666e-06</v>
+        <v>7.521082629419299e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395470178529905</v>
+        <v>0.003395470178530313</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832867335241647e-05</v>
+        <v>1.832867335241806e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606617654997067</v>
+        <v>0.02606617654997372</v>
       </c>
       <c r="GA3" t="n">
-        <v>133020.3589765182</v>
+        <v>133020.3589827177</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.568465981732507</v>
+        <v>1.568465981805563</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.568465981732507</v>
+        <v>1.568465981805563</v>
       </c>
       <c r="GD3" t="n">
-        <v>336975.2222656938</v>
+        <v>336975.2222656915</v>
       </c>
       <c r="GE3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GF3" t="n">
-        <v>3793.461869290471</v>
+        <v>3793.461869277099</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8502656720127</v>
+        <v>717.8502656720286</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.739822664532</v>
+        <v>1006.739822664633</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.7973817657997</v>
+        <v>344.7973817658145</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995380147658247</v>
+        <v>0.9995380147658036</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832867335241647e-05</v>
+        <v>1.832867335241806e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606617654997067</v>
+        <v>0.02606617654997372</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5884537395417</v>
+        <v>295.5884537395561</v>
       </c>
       <c r="GP3" t="n">
-        <v>133020.3589765182</v>
+        <v>133020.3589827177</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568465981732507</v>
+        <v>1.568465981805563</v>
       </c>
       <c r="GR3" t="n">
-        <v>336975.2222656938</v>
+        <v>336975.2222656915</v>
       </c>
       <c r="GS3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="GT3" t="n">
-        <v>3793.461869290471</v>
+        <v>3793.461869277099</v>
       </c>
       <c r="GU3" t="n">
-        <v>-699519.0971747917</v>
+        <v>-699519.0971708938</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8502656720127</v>
+        <v>717.8502656720286</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.739822664532</v>
+        <v>1006.739822664633</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402437069131787</v>
+        <v>1.402437069131897</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995380147658247</v>
+        <v>0.9995380147658036</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.7973817657997</v>
+        <v>344.7973817658145</v>
       </c>
       <c r="HA3" t="n">
-        <v>186467.4460004884</v>
+        <v>186467.4460091897</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.362866395442455e-06</v>
+        <v>5.362866395192205e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>132959.5816487692</v>
+        <v>132959.5816549631</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.521082629769666e-06</v>
+        <v>7.521082629419299e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395470178529905</v>
+        <v>0.003395470178530313</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832867335241647e-05</v>
+        <v>1.832867335241806e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606617654997067</v>
+        <v>0.02606617654997372</v>
       </c>
       <c r="HH3" t="n">
-        <v>133020.3589765182</v>
+        <v>133020.3589827177</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568465981732507</v>
+        <v>1.568465981805563</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.568465981732507</v>
+        <v>1.568465981805563</v>
       </c>
       <c r="HK3" t="n">
-        <v>336975.2222656938</v>
+        <v>336975.2222656915</v>
       </c>
       <c r="HL3" t="n">
         <v>421784.4310886901</v>
       </c>
       <c r="HM3" t="n">
-        <v>3793.461869290471</v>
+        <v>3793.461869277099</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8502656720127</v>
+        <v>717.8502656720286</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.739822664532</v>
+        <v>1006.739822664633</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.7973817657997</v>
+        <v>344.7973817658145</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995380147658247</v>
+        <v>0.9995380147658036</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832867335241647e-05</v>
+        <v>1.832867335241806e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606617654997067</v>
+        <v>0.02606617654997372</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01795407855452004</v>
+        <v>0.01795407855354221</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -10911,28 +10911,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.04927004794608909</v>
+        <v>0.04927004794525532</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.08250419503985226</v>
+        <v>0.08250419503804066</v>
       </c>
       <c r="IB3" t="n">
-        <v>8.402792435316386e-06</v>
+        <v>8.40278768664271e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9704456470258384</v>
+        <v>0.9704456458012007</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9704456470258382</v>
+        <v>0.9704456458012007</v>
       </c>
       <c r="IE3" t="n">
-        <v>512458.3902759846</v>
+        <v>512458.3901002822</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.742849774789862</v>
+        <v>2.742849774742664</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>2117.884088706342</v>
+        <v>2117.884093653818</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006656965187386473</v>
+        <v>0.006656965200802324</v>
       </c>
       <c r="IL3" t="n">
         <v>0</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.01856377574631326</v>
+        <v>0.01856377577703674</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005771737605491268</v>
+        <v>0.005771737614849714</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02714521512729258</v>
+        <v>0.02714521518889738</v>
       </c>
       <c r="IQ3" t="n">
         <v>0</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01389203144512741</v>
+        <v>0.01389203144372897</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.0797179277083543</v>
+        <v>0.07971792781845342</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04153273187854656</v>
+        <v>0.04153273191622209</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1622879061593208</v>
+        <v>0.1622879063673019</v>
       </c>
       <c r="IV3" t="n">
-        <v>-2.899777640230639e-11</v>
+        <v>4.211100912421273e-11</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>264.1672632716003</v>
+        <v>264.1672633277672</v>
       </c>
       <c r="IY3" t="n">
-        <v>108.9595187406558</v>
+        <v>108.9595187358626</v>
       </c>
       <c r="IZ3" t="n">
-        <v>240.649467608411</v>
+        <v>240.6494676722371</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.64027852670438</v>
+        <v>65.64027853336133</v>
       </c>
       <c r="JB3" t="n">
-        <v>132.4735323251917</v>
+        <v>132.4735323575513</v>
       </c>
       <c r="JC3" t="n">
-        <v>108.9595187406558</v>
+        <v>108.9595187358626</v>
       </c>
       <c r="JD3" t="n">
-        <v>75.34626760841101</v>
+        <v>75.3462676722371</v>
       </c>
       <c r="JE3" t="n">
-        <v>34.66412871246394</v>
+        <v>34.66412873634837</v>
       </c>
       <c r="JF3" t="n">
-        <v>260.7802901324069</v>
+        <v>260.7802901177696</v>
       </c>
       <c r="JG3" t="n">
-        <v>86583.36952855735</v>
+        <v>86583.36950292219</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.157423583579293</v>
+        <v>1.157423583301572</v>
       </c>
       <c r="JI3" t="n">
-        <v>312085.2738419424</v>
+        <v>312085.2738315044</v>
       </c>
       <c r="JJ3" t="n">
-        <v>386892.2595962859</v>
+        <v>386892.2595816492</v>
       </c>
       <c r="JK3" t="n">
-        <v>3791.058035524151</v>
+        <v>3791.058035552957</v>
       </c>
       <c r="JL3" t="n">
-        <v>-601740.954816495</v>
+        <v>-601740.9547831527</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.567547021409</v>
+        <v>716.5675470209773</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.229517572984</v>
+        <v>1005.229517572289</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402839860319477</v>
+        <v>1.402839860319353</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993351460150911</v>
+        <v>0.9993351460150924</v>
       </c>
       <c r="JQ3" t="n">
-        <v>323.8405877204999</v>
+        <v>323.8405877113974</v>
       </c>
       <c r="JR3" t="n">
-        <v>121382.1666419761</v>
+        <v>121382.1666060272</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.238442496660646e-06</v>
+        <v>8.23844249910057e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>86526.03199793099</v>
+        <v>86526.03197231279</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.155721552126546e-05</v>
+        <v>1.155721552468726e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003847956675548591</v>
+        <v>0.003847956675762821</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659069868074322e-05</v>
+        <v>1.659069867999213e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02340153699196183</v>
+        <v>0.0234015369908155</v>
       </c>
       <c r="JY3" t="n">
-        <v>86583.36952855735</v>
+        <v>86583.36950292219</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.157423583579293</v>
+        <v>1.157423583301572</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.157423583579293</v>
+        <v>1.157423583301572</v>
       </c>
       <c r="KB3" t="n">
-        <v>312085.2738419424</v>
+        <v>312085.2738315044</v>
       </c>
       <c r="KC3" t="n">
-        <v>386892.2595962859</v>
+        <v>386892.2595816492</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.058035524151</v>
+        <v>3791.058035552957</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.567547021409</v>
+        <v>716.5675470209773</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.229517572984</v>
+        <v>1005.229517572289</v>
       </c>
       <c r="KG3" t="n">
-        <v>323.8405877204999</v>
+        <v>323.8405877113974</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993351460150911</v>
+        <v>0.9993351460150924</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.659069868074322e-05</v>
+        <v>1.659069867999213e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02340153699196183</v>
+        <v>0.0234015369908155</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5910489677767</v>
+        <v>295.5910489677455</v>
       </c>
       <c r="KN3" t="n">
-        <v>134139.5092256341</v>
+        <v>134139.5092121677</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.581654219524992</v>
+        <v>1.581654219366302</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.8010382487</v>
+        <v>336974.8010382537</v>
       </c>
       <c r="KQ3" t="n">
         <v>421784.43108869</v>
       </c>
       <c r="KR3" t="n">
-        <v>3791.058035529378</v>
+        <v>3791.058035558181</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698818.3903311576</v>
+        <v>-698818.3903395535</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.853180931683</v>
+        <v>717.8531809316479</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.758198712767</v>
+        <v>1006.758198712546</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402456972338162</v>
+        <v>1.402456972337922</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995342034561701</v>
+        <v>0.9995342034562159</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8000420523675</v>
+        <v>344.8000420523354</v>
       </c>
       <c r="KY3" t="n">
-        <v>188038.2343297245</v>
+        <v>188038.2343108233</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.318067379033686e-06</v>
+        <v>5.318067379568247e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>134077.7207704483</v>
+        <v>134077.7207569941</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.458360675089929e-06</v>
+        <v>7.458360675838351e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.00339554402663842</v>
+        <v>0.00339554402663753</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832896064261994e-05</v>
+        <v>1.832896064261649e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606672882652387</v>
+        <v>0.02606672882651723</v>
       </c>
       <c r="LF3" t="n">
-        <v>134139.5092256341</v>
+        <v>134139.5092121677</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.581654219524992</v>
+        <v>1.581654219366302</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.581654219524992</v>
+        <v>1.581654219366302</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.8010382487</v>
+        <v>336974.8010382537</v>
       </c>
       <c r="LJ3" t="n">
         <v>421784.43108869</v>
       </c>
       <c r="LK3" t="n">
-        <v>3791.058035529378</v>
+        <v>3791.058035558181</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.853180931683</v>
+        <v>717.8531809316479</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.758198712767</v>
+        <v>1006.758198712546</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8000420523675</v>
+        <v>344.8000420523354</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995342034561701</v>
+        <v>0.9995342034562159</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832896064261994e-05</v>
+        <v>1.832896064261649e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606672882652387</v>
+        <v>0.02606672882651723</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>269.5384734635998</v>
+        <v>269.5384734532432</v>
       </c>
       <c r="LU3" t="n">
-        <v>97171.30590422715</v>
+        <v>97171.30588146336</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.256700542542943</v>
+        <v>1.256700542296818</v>
       </c>
       <c r="LW3" t="n">
-        <v>318344.3157504578</v>
+        <v>318344.3157430781</v>
       </c>
       <c r="LX3" t="n">
-        <v>395666.8779796427</v>
+        <v>395666.8779692927</v>
       </c>
       <c r="LY3" t="n">
-        <v>3791.058035530781</v>
+        <v>3791.058035559585</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-626169.1177292371</v>
+        <v>-626169.1177080885</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.8272970273746</v>
+        <v>716.8272970270126</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.549769724874</v>
+        <v>1005.549769724273</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402778289686802</v>
+        <v>1.402778289686672</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993767516361178</v>
+        <v>0.9993767516361274</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2402679588112</v>
+        <v>329.2402679524735</v>
       </c>
       <c r="MF3" t="n">
-        <v>136225.2757002888</v>
+        <v>136225.2756683644</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.340781619705543e-06</v>
+        <v>7.340781621425855e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>97111.05218965407</v>
+        <v>97111.05216690517</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.029748908545486e-05</v>
+        <v>1.029748908786711e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003723158142974243</v>
+        <v>0.003723158143115723</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.703637780864312e-05</v>
+        <v>1.703637780811805e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02408203317267958</v>
+        <v>0.02408203317187554</v>
       </c>
       <c r="MM3" t="n">
-        <v>97171.30590422715</v>
+        <v>97171.30588146336</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.256700542542943</v>
+        <v>1.256700542296818</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.256700542542943</v>
+        <v>1.256700542296818</v>
       </c>
       <c r="MP3" t="n">
-        <v>318344.3157504578</v>
+        <v>318344.3157430781</v>
       </c>
       <c r="MQ3" t="n">
-        <v>395666.8779796427</v>
+        <v>395666.8779692927</v>
       </c>
       <c r="MR3" t="n">
-        <v>3791.058035530781</v>
+        <v>3791.058035559585</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.8272970273746</v>
+        <v>716.8272970270126</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.549769724874</v>
+        <v>1005.549769724273</v>
       </c>
       <c r="MU3" t="n">
-        <v>329.2402679588112</v>
+        <v>329.2402679524735</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993767516361178</v>
+        <v>0.9993767516361274</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.703637780864312e-05</v>
+        <v>1.703637780811805e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02408203317267958</v>
+        <v>0.02408203317187554</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8157324106007292</v>
+        <v>0.8157324107970978</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4090701948686149</v>
+        <v>0.4090701949800377</v>
       </c>
       <c r="NC3" t="n">
-        <v>240841.4202237679</v>
+        <v>240841.420235713</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.707434428633437</v>
+        <v>2.707434427864695</v>
       </c>
       <c r="NE3" t="n">
-        <v>382004.304014623</v>
+        <v>382004.3040040724</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>162.4026131056429</v>
+        <v>162.4026151127412</v>
       </c>
       <c r="NH3" t="n">
-        <v>138.1048196220877</v>
+        <v>138.1048207336104</v>
       </c>
       <c r="NI3" t="n">
-        <v>-85.44979543973031</v>
+        <v>-85.44979745789047</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-31.74638191053741</v>
+        <v>-31.74638230968747</v>
       </c>
       <c r="NK3" t="n">
-        <v>286.2691145143793</v>
+        <v>286.2691168183873</v>
       </c>
       <c r="NL3" t="n">
-        <v>138.1048196220877</v>
+        <v>138.1048207336104</v>
       </c>
       <c r="NM3" t="n">
-        <v>-250.7529954397303</v>
+        <v>-250.7529974578905</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NO3" t="n">
-        <v>228.6113649400014</v>
+        <v>228.6113642704212</v>
       </c>
       <c r="NP3" t="n">
-        <v>51046.43443315454</v>
+        <v>51046.43385846563</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7784384910652216</v>
+        <v>0.7784384845819109</v>
       </c>
       <c r="NR3" t="n">
-        <v>289116.4506016742</v>
+        <v>289116.4501235634</v>
       </c>
       <c r="NS3" t="n">
-        <v>354691.8750174199</v>
+        <v>354691.8743472027</v>
       </c>
       <c r="NT3" t="n">
-        <v>3810.837623582268</v>
+        <v>3810.837623879897</v>
       </c>
       <c r="NU3" t="n">
-        <v>-516508.9156744337</v>
+        <v>-516508.9138610308</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8944413304311</v>
+        <v>715.8944413207437</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.246141409127</v>
+        <v>1004.246141393951</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402785220042801</v>
+        <v>1.402785220040585</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992796963662457</v>
+        <v>0.9992796963655979</v>
       </c>
       <c r="NZ3" t="n">
-        <v>303.1865216340059</v>
+        <v>303.1865211895646</v>
       </c>
       <c r="OA3" t="n">
-        <v>71555.67505364299</v>
+        <v>71555.67424789669</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.397513194097229e-05</v>
+        <v>1.397513209833801e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>51009.71555108039</v>
+        <v>51009.71497677059</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.960410853494398e-05</v>
+        <v>1.960410875566334e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004387307252238528</v>
+        <v>0.004387307265049664</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.490051244806638e-05</v>
+        <v>1.490051241198586e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02083784586010247</v>
+        <v>0.02083784580567897</v>
       </c>
       <c r="OH3" t="n">
-        <v>51046.43443315454</v>
+        <v>51046.43385846563</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7784384910652216</v>
+        <v>0.7784384845819109</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7784384910652216</v>
+        <v>0.7784384845819109</v>
       </c>
       <c r="OK3" t="n">
-        <v>289116.4506016742</v>
+        <v>289116.4501235634</v>
       </c>
       <c r="OL3" t="n">
-        <v>354691.8750174199</v>
+        <v>354691.8743472027</v>
       </c>
       <c r="OM3" t="n">
-        <v>3810.837623582268</v>
+        <v>3810.837623879897</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8944413304311</v>
+        <v>715.8944413207437</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.246141409127</v>
+        <v>1004.246141393951</v>
       </c>
       <c r="OP3" t="n">
-        <v>303.1865216340059</v>
+        <v>303.1865211895646</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992796963662457</v>
+        <v>0.9992796963655979</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.490051244806638e-05</v>
+        <v>1.490051241198586e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02083784586010247</v>
+        <v>0.02083784580567897</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>241.780997340164</v>
+        <v>241.7809969962786</v>
       </c>
       <c r="OW3" t="n">
-        <v>62069.49770929171</v>
+        <v>62069.49733688548</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.8949495367133108</v>
+        <v>0.894949532616913</v>
       </c>
       <c r="OY3" t="n">
-        <v>298523.8748014806</v>
+        <v>298523.8745559857</v>
       </c>
       <c r="OZ3" t="n">
-        <v>367879.1793890902</v>
+        <v>367879.1790449313</v>
       </c>
       <c r="PA3" t="n">
-        <v>3810.837623574586</v>
+        <v>3810.837623872215</v>
       </c>
       <c r="PB3" t="n">
-        <v>-553508.9419401938</v>
+        <v>-553508.9410458222</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.1105458318215</v>
+        <v>716.110545825043</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.5443863675</v>
+        <v>1004.544386357123</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402778372996363</v>
+        <v>1.40277837299515</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9993124280492491</v>
+        <v>0.9993124280489625</v>
       </c>
       <c r="PG3" t="n">
-        <v>311.80661936608</v>
+        <v>311.8066191441118</v>
       </c>
       <c r="PH3" t="n">
-        <v>87010.0080423644</v>
+        <v>87010.00752021783</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.149293078461858e-05</v>
+        <v>1.149293085358759e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62026.91010733884</v>
+        <v>62026.90973516931</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.612203474700706e-05</v>
+        <v>1.612203484374136e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.00414878781771392</v>
+        <v>0.004148787823590089</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.560247681139713e-05</v>
+        <v>1.560247679324993e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02189889750341304</v>
+        <v>0.02189889747591077</v>
       </c>
       <c r="PO3" t="n">
-        <v>62069.49770929171</v>
+        <v>62069.49733688548</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.8949495367133108</v>
+        <v>0.894949532616913</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.8949495367133108</v>
+        <v>0.894949532616913</v>
       </c>
       <c r="PR3" t="n">
-        <v>298523.8748014806</v>
+        <v>298523.8745559857</v>
       </c>
       <c r="PS3" t="n">
-        <v>367879.1793890902</v>
+        <v>367879.1790449313</v>
       </c>
       <c r="PT3" t="n">
-        <v>3810.837623574586</v>
+        <v>3810.837623872215</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.1105458318215</v>
+        <v>716.110545825043</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.5443863675</v>
+        <v>1004.544386357123</v>
       </c>
       <c r="PW3" t="n">
-        <v>311.80661936608</v>
+        <v>311.8066191441118</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9993124280492491</v>
+        <v>0.9993124280489625</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.560247681139713e-05</v>
+        <v>1.560247679324993e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02189889750341304</v>
+        <v>0.02189889747591077</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>269.5203631373849</v>
+        <v>269.5203631264931</v>
       </c>
       <c r="QD3" t="n">
-        <v>90697.27313995882</v>
+        <v>90697.27303337069</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.17300351108343</v>
+        <v>1.173003509751668</v>
       </c>
       <c r="QF3" t="n">
-        <v>318346.3309541101</v>
+        <v>318346.3309465417</v>
       </c>
       <c r="QG3" t="n">
-        <v>395666.8779797429</v>
+        <v>395666.8779690923</v>
       </c>
       <c r="QH3" t="n">
-        <v>3810.837623571591</v>
+        <v>3810.837623869219</v>
       </c>
       <c r="QI3" t="n">
-        <v>-631431.4621828811</v>
+        <v>-631431.4622322419</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.8061426300312</v>
+        <v>716.806142629385</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.417218530196</v>
+        <v>1005.417218527862</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402634769341154</v>
+        <v>1.402634769339163</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9994178566027315</v>
+        <v>0.9994178566032791</v>
       </c>
       <c r="QN3" t="n">
-        <v>329.2258381529682</v>
+        <v>329.2258381462614</v>
       </c>
       <c r="QO3" t="n">
-        <v>127141.442956439</v>
+        <v>127141.4428069097</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.865256023109778e-06</v>
+        <v>7.865256032359995e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>90644.72501003226</v>
+        <v>90644.72490355496</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.103208156778371e-05</v>
+        <v>1.103208158074272e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003722537603327654</v>
+        <v>0.003722537603465175</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.703448318814616e-05</v>
+        <v>1.703448318758138e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.0240783537344013</v>
+        <v>0.0240783537335264</v>
       </c>
       <c r="QV3" t="n">
-        <v>90697.27313995882</v>
+        <v>90697.27303337069</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.17300351108343</v>
+        <v>1.173003509751668</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.17300351108343</v>
+        <v>1.173003509751668</v>
       </c>
       <c r="QY3" t="n">
-        <v>318346.3309541101</v>
+        <v>318346.3309465417</v>
       </c>
       <c r="QZ3" t="n">
-        <v>395666.8779797429</v>
+        <v>395666.8779690923</v>
       </c>
       <c r="RA3" t="n">
-        <v>3810.837623571591</v>
+        <v>3810.837623869219</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.8061426300312</v>
+        <v>716.806142629385</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.417218530196</v>
+        <v>1005.417218527862</v>
       </c>
       <c r="RD3" t="n">
-        <v>329.2258381529682</v>
+        <v>329.2258381462614</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9994178566027315</v>
+        <v>0.9994178566032791</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.703448318814616e-05</v>
+        <v>1.703448318758138e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.0240783537344013</v>
+        <v>0.0240783537335264</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.027231808064896</v>
+        <v>0.02723180805715269</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
@@ -11667,55 +11667,55 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.08028856720565171</v>
+        <v>0.08028856727045328</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04183303523611642</v>
+        <v>0.04183303525117409</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1632522527352407</v>
+        <v>0.1632522528073567</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.380838770721372e-05</v>
+        <v>2.380850208499874e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5356524829348732</v>
+        <v>0.5356524903400982</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9442013219174413</v>
+        <v>0.9442013309008553</v>
       </c>
       <c r="RS3" t="n">
-        <v>389737.3281732997</v>
+        <v>389737.3290078118</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.707408081727396</v>
+        <v>2.70740808096875</v>
       </c>
       <c r="RU3" t="n">
-        <v>382004.3040146229</v>
+        <v>382004.3040040724</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>3957.189601036604</v>
+        <v>3957.189604162355</v>
       </c>
       <c r="RX3" t="n">
-        <v>4.691883685105317</v>
+        <v>4.691883766937266</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.009686081333996687</v>
+        <v>0.009686081345309024</v>
       </c>
       <c r="RZ3" t="n">
         <v>0</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.02844532002932781</v>
+        <v>0.02844532003727973</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01481990167004444</v>
+        <v>0.01481990166716303</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004957018975202511</v>
+        <v>0.004957018969243073</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427073153162769</v>
+        <v>0.427073176943328</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.447668438032037</v>
+        <v>0.4476684365604511</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799674</v>
       </c>
     </row>
   </sheetData>
@@ -12543,16 +12859,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>5.259176884258012e-08</v>
+        <v>2.060622023936297e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12577,13 +12893,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H3" t="n">
-        <v>4.730954283498989e-08</v>
+        <v>4.48147318772815e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_windows/performance_analysis_kacker_okapuu_windows.xlsx
+++ b/tests/regression_data_windows/performance_analysis_kacker_okapuu_windows.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023341590827771</v>
+        <v>2.023341587948948</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000002354956</v>
+        <v>2.299999999968236</v>
       </c>
       <c r="D2" t="n">
-        <v>2.699358797683121</v>
+        <v>2.699358781136189</v>
       </c>
       <c r="E2" t="n">
-        <v>89.54319869062888</v>
+        <v>89.54319867469486</v>
       </c>
       <c r="F2" t="n">
-        <v>76.81765928379275</v>
+        <v>76.81765923405793</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421162030496898</v>
+        <v>0.1421162034524593</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.95977548684245</v>
+        <v>-75.95977543751039</v>
       </c>
       <c r="I2" t="n">
-        <v>130301.9360537804</v>
+        <v>130301.9351706735</v>
       </c>
       <c r="J2" t="n">
-        <v>80.08723789414897</v>
+        <v>80.0872373513666</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.87211831426622</v>
+        <v>-23.87211942238546</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6445915169794</v>
+        <v>133.6445917063595</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373512.9911578849</v>
+        <v>373512.9911891378</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7106315412235232</v>
+        <v>0.7106315390454556</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078552333608569</v>
+        <v>2.078552334183986</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000858195</v>
+        <v>2.400000000031415</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701669623084664</v>
+        <v>2.701669618645338</v>
       </c>
       <c r="E3" t="n">
-        <v>89.52557296218052</v>
+        <v>89.52557291419305</v>
       </c>
       <c r="F3" t="n">
-        <v>75.98406127412663</v>
+        <v>75.98406129432853</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512585872393625</v>
+        <v>0.1512585865587655</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.135319861366</v>
+        <v>-75.13531988088729</v>
       </c>
       <c r="I3" t="n">
-        <v>134798.6312491231</v>
+        <v>134798.6310634638</v>
       </c>
       <c r="J3" t="n">
-        <v>82.85103334303815</v>
+        <v>82.85103322892672</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41202586999218</v>
+        <v>-26.41202582430432</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9419863269743</v>
+        <v>140.9419860098859</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371889.8658548085</v>
+        <v>371889.865841543</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983877190925044</v>
+        <v>0.6983877185187166</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.35928911096785</v>
+        <v>79.3592885552945</v>
       </c>
       <c r="D2" t="n">
-        <v>79.35928911096785</v>
+        <v>79.3592885552945</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.35928911096785</v>
+        <v>79.3592885552945</v>
       </c>
       <c r="H2" t="n">
-        <v>79.35928911096785</v>
+        <v>79.3592885552945</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.460270377472</v>
+        <v>292.4602704213439</v>
       </c>
       <c r="L2" t="n">
-        <v>132943.6967805864</v>
+        <v>132943.6968502956</v>
       </c>
       <c r="M2" t="n">
-        <v>1.584391130077638</v>
+        <v>1.584391130670256</v>
       </c>
       <c r="N2" t="n">
-        <v>334727.1003254048</v>
+        <v>334727.1003567894</v>
       </c>
       <c r="O2" t="n">
-        <v>418635.4827044907</v>
+        <v>418635.4827484881</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718236</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687717.5476248143</v>
+        <v>-687717.5477467801</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7177923733275</v>
+        <v>717.717792375316</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653328246814</v>
+        <v>1006.653328249121</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402575411873298</v>
+        <v>1.402575411872626</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987180511153</v>
+        <v>0.9994987180514221</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9714983170292</v>
+        <v>342.9714983427775</v>
       </c>
       <c r="W2" t="n">
-        <v>186371.0550893856</v>
+        <v>186371.0551870781</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365640064227727e-06</v>
+        <v>5.365640061415149e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132877.7429802979</v>
+        <v>132877.7430500138</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525714823048074e-06</v>
+        <v>7.525714819099615e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432196313827942</v>
+        <v>0.003432196313313909</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817668480507697e-05</v>
+        <v>1.817668480722328e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583243128777254</v>
+        <v>0.02583243129107864</v>
       </c>
       <c r="AD2" t="n">
-        <v>132943.6967805864</v>
+        <v>132943.6968502956</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.584391130077638</v>
+        <v>1.584391130670256</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.584391130077638</v>
+        <v>1.584391130670256</v>
       </c>
       <c r="AG2" t="n">
-        <v>334727.1003254048</v>
+        <v>334727.1003567894</v>
       </c>
       <c r="AH2" t="n">
-        <v>418635.4827044907</v>
+        <v>418635.4827484881</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718236</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7177923733275</v>
+        <v>717.717792375316</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653328246814</v>
+        <v>1006.653328249121</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9714983170292</v>
+        <v>342.9714983427775</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987180511153</v>
+        <v>0.9994987180514221</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817668480507697e-05</v>
+        <v>1.817668480722328e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583243128777254</v>
+        <v>0.02583243129107864</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2313874170314038</v>
+        <v>0.231387415393859</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2313874170314038</v>
+        <v>0.231387415393859</v>
       </c>
       <c r="DH2" t="n">
-        <v>180960.2695732575</v>
+        <v>180960.2683524922</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.699358799035295</v>
+        <v>2.699358781144052</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>261.2176227229652</v>
+        <v>261.2176196179265</v>
       </c>
       <c r="DV2" t="n">
-        <v>107.8099308689846</v>
+        <v>107.8099291511096</v>
       </c>
       <c r="DW2" t="n">
-        <v>237.9320601076328</v>
+        <v>237.9320574771052</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.62413751244526</v>
+        <v>65.6241376175242</v>
       </c>
       <c r="DY2" t="n">
-        <v>261.2176227229652</v>
+        <v>261.2176196179265</v>
       </c>
       <c r="DZ2" t="n">
-        <v>107.8099308689846</v>
+        <v>107.8099291511096</v>
       </c>
       <c r="EA2" t="n">
-        <v>237.9320601076328</v>
+        <v>237.9320574771052</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.62413751244526</v>
+        <v>65.62413761752418</v>
       </c>
       <c r="EC2" t="n">
-        <v>261.5538378999705</v>
+        <v>261.5538387097781</v>
       </c>
       <c r="ED2" t="n">
-        <v>87504.68861515178</v>
+        <v>87504.68961241517</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.166276175768975</v>
+        <v>1.166276185445906</v>
       </c>
       <c r="EF2" t="n">
-        <v>312637.976328285</v>
+        <v>312637.9769068306</v>
       </c>
       <c r="EG2" t="n">
-        <v>387667.1078780709</v>
+        <v>387667.1086891616</v>
       </c>
       <c r="EH2" t="n">
-        <v>3790.988616017936</v>
+        <v>3790.988615849739</v>
       </c>
       <c r="EI2" t="n">
-        <v>-603880.5140765177</v>
+        <v>-603880.5162914055</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5889934282028</v>
+        <v>716.5889934509105</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.25667875086</v>
+        <v>1005.256678780092</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402835778905359</v>
+        <v>1.402835778901698</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993384387227632</v>
+        <v>0.9993384387260149</v>
       </c>
       <c r="EN2" t="n">
-        <v>324.3211376245449</v>
+        <v>324.3211381272572</v>
       </c>
       <c r="EO2" t="n">
-        <v>122673.8268889567</v>
+        <v>122673.8282871169</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.151698087198271e-06</v>
+        <v>8.151697994290273e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>87447.03316925649</v>
+        <v>87447.03416615177</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.143549373555611e-05</v>
+        <v>1.14354936051916e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003836601556369786</v>
+        <v>0.003836601544521901</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.663030162107631e-05</v>
+        <v>1.663030166251594e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02346192954248917</v>
+        <v>0.02346192960569438</v>
       </c>
       <c r="EV2" t="n">
-        <v>87504.68861515178</v>
+        <v>87504.68961241517</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.166276175768975</v>
+        <v>1.166276185445906</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.166276175768975</v>
+        <v>1.166276185445906</v>
       </c>
       <c r="EY2" t="n">
-        <v>312637.976328285</v>
+        <v>312637.9769068306</v>
       </c>
       <c r="EZ2" t="n">
-        <v>387667.1078780709</v>
+        <v>387667.1086891616</v>
       </c>
       <c r="FA2" t="n">
-        <v>3790.988616017936</v>
+        <v>3790.988615849739</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5889934282028</v>
+        <v>716.5889934509105</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.25667875086</v>
+        <v>1005.256678780092</v>
       </c>
       <c r="FD2" t="n">
-        <v>324.3211376245449</v>
+        <v>324.3211381272572</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993384387227632</v>
+        <v>0.9993384387260149</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.663030162107631e-05</v>
+        <v>1.663030166251594e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02346192954248917</v>
+        <v>0.02346192960569438</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.591124235683</v>
+        <v>295.5911242357654</v>
       </c>
       <c r="FK2" t="n">
-        <v>134171.9683577074</v>
+        <v>134171.9684362043</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.582036720934658</v>
+        <v>1.582036721860207</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201357</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FO2" t="n">
-        <v>3790.988616023161</v>
+        <v>3790.988615854963</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698798.155886473</v>
+        <v>-698798.1558371679</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8532654820219</v>
+        <v>717.8532654822221</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.758731672276</v>
+        <v>1006.758731673562</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402457549588858</v>
+        <v>1.402457549590258</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995340929340346</v>
+        <v>0.9995340929337662</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8001192148367</v>
+        <v>344.8001192149654</v>
       </c>
       <c r="FV2" t="n">
-        <v>188083.7929833612</v>
+        <v>188083.7930935374</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.316779208554482e-06</v>
+        <v>5.316779205440005e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>134110.1504558905</v>
+        <v>134110.1505343159</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.456557140534305e-06</v>
+        <v>7.456557136173831e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395546168351261</v>
+        <v>0.003395546168357599</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832896897517913e-05</v>
+        <v>1.832896897519445e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606674484497816</v>
+        <v>0.02606674484500946</v>
       </c>
       <c r="GC2" t="n">
-        <v>134171.9683577074</v>
+        <v>134171.9684362043</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.582036720934658</v>
+        <v>1.582036721860207</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.582036720934658</v>
+        <v>1.582036721860207</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201357</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GH2" t="n">
-        <v>3790.988616023161</v>
+        <v>3790.988615854963</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8532654820219</v>
+        <v>717.8532654822221</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.758731672276</v>
+        <v>1006.758731673562</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8001192148367</v>
+        <v>344.8001192149654</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995340929340346</v>
+        <v>0.9995340929337662</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832896897517913e-05</v>
+        <v>1.832896897519445e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606674484497816</v>
+        <v>0.02606674484500946</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.591124235683</v>
+        <v>295.5911242357654</v>
       </c>
       <c r="GR2" t="n">
-        <v>134171.9683577074</v>
+        <v>134171.9684362043</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.582036720934658</v>
+        <v>1.582036721860207</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201357</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GV2" t="n">
-        <v>3790.988616023161</v>
+        <v>3790.988615854963</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698798.155886473</v>
+        <v>-698798.1558371679</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8532654820219</v>
+        <v>717.8532654822221</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.758731672276</v>
+        <v>1006.758731673562</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402457549588858</v>
+        <v>1.402457549590258</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995340929340346</v>
+        <v>0.9995340929337662</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8001192148367</v>
+        <v>344.8001192149654</v>
       </c>
       <c r="HC2" t="n">
-        <v>188083.7929833612</v>
+        <v>188083.7930935374</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.316779208554482e-06</v>
+        <v>5.316779205440005e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>134110.1504558905</v>
+        <v>134110.1505343159</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.456557140534305e-06</v>
+        <v>7.456557136173831e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395546168351261</v>
+        <v>0.003395546168357599</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832896897517913e-05</v>
+        <v>1.832896897519445e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606674484497816</v>
+        <v>0.02606674484500946</v>
       </c>
       <c r="HJ2" t="n">
-        <v>134171.9683577074</v>
+        <v>134171.9684362043</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.582036720934658</v>
+        <v>1.582036721860207</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.582036720934658</v>
+        <v>1.582036721860207</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201357</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HO2" t="n">
-        <v>3790.988616023161</v>
+        <v>3790.988615854963</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8532654820219</v>
+        <v>717.8532654822221</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.758731672276</v>
+        <v>1006.758731673562</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8001192148367</v>
+        <v>344.8001192149654</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995340929340346</v>
+        <v>0.9995340929337662</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832896897517913e-05</v>
+        <v>1.832896897519445e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606674484497816</v>
+        <v>0.02606674484500946</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,22 +3972,22 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8054289172646146</v>
+        <v>0.8054289064422002</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8054289172646146</v>
+        <v>0.8054289064422002</v>
       </c>
       <c r="HZ2" t="n">
-        <v>479227.2338707422</v>
+        <v>479227.2309564112</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.699358801764201</v>
+        <v>2.699358781149192</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01760661578241667</v>
+        <v>0.01760661588440731</v>
       </c>
       <c r="ID2" t="n">
         <v>0</v>
@@ -3996,142 +3996,142 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.04914148722443781</v>
+        <v>0.04914148724406629</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.08202817154609759</v>
+        <v>0.08202817166771673</v>
       </c>
       <c r="II2" t="n">
-        <v>1.965006629633947e-10</v>
+        <v>7.782691158197963e-12</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>385564.4890524142</v>
+        <v>385564.4899006349</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>261.2176227229652</v>
+        <v>261.2176196179265</v>
       </c>
       <c r="IN2" t="n">
-        <v>107.8099308689846</v>
+        <v>107.8099291511096</v>
       </c>
       <c r="IO2" t="n">
-        <v>237.9320601076328</v>
+        <v>237.9320574771052</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.62413751244526</v>
+        <v>65.6241376175242</v>
       </c>
       <c r="IQ2" t="n">
-        <v>129.9920478895125</v>
+        <v>129.992044995057</v>
       </c>
       <c r="IR2" t="n">
-        <v>107.8099308689846</v>
+        <v>107.8099291511096</v>
       </c>
       <c r="IS2" t="n">
-        <v>72.62886010763279</v>
+        <v>72.62885747710516</v>
       </c>
       <c r="IT2" t="n">
-        <v>33.96716557563117</v>
+        <v>33.96716503708765</v>
       </c>
       <c r="IU2" t="n">
-        <v>261.5538378999706</v>
+        <v>261.5538387096786</v>
       </c>
       <c r="IV2" t="n">
-        <v>87504.6886152345</v>
+        <v>87504.68961246476</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.166276175770077</v>
+        <v>1.166276185447013</v>
       </c>
       <c r="IX2" t="n">
-        <v>312637.9763282847</v>
+        <v>312637.9769067591</v>
       </c>
       <c r="IY2" t="n">
-        <v>387667.1078780708</v>
+        <v>387667.1086890614</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3790.988616017663</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="JA2" t="n">
-        <v>-603880.514076447</v>
+        <v>-603880.516290986</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.588993428203</v>
+        <v>716.5889934509083</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.256678750862</v>
+        <v>1005.256678780092</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402835778905361</v>
+        <v>1.402835778901702</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993384387227625</v>
+        <v>0.9993384387260132</v>
       </c>
       <c r="JF2" t="n">
-        <v>324.321137624545</v>
+        <v>324.3211381271955</v>
       </c>
       <c r="JG2" t="n">
-        <v>122673.8268890728</v>
+        <v>122673.8282871866</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.151698087190558e-06</v>
+        <v>8.151697994285638e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>87447.03316933911</v>
+        <v>87447.03416620119</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.143549373554531e-05</v>
+        <v>1.143549360518514e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003836601556369796</v>
+        <v>0.003836601544523381</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.663030162107632e-05</v>
+        <v>1.663030166251087e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.0234619295424892</v>
+        <v>0.02346192960568669</v>
       </c>
       <c r="JN2" t="n">
-        <v>87504.6886152345</v>
+        <v>87504.68961246476</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.166276175770077</v>
+        <v>1.166276185447013</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.166276175770077</v>
+        <v>1.166276185447013</v>
       </c>
       <c r="JQ2" t="n">
-        <v>312637.9763282847</v>
+        <v>312637.9769067591</v>
       </c>
       <c r="JR2" t="n">
-        <v>387667.1078780708</v>
+        <v>387667.1086890614</v>
       </c>
       <c r="JS2" t="n">
-        <v>3790.988616017663</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.588993428203</v>
+        <v>716.5889934509083</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.256678750862</v>
+        <v>1005.256678780092</v>
       </c>
       <c r="JV2" t="n">
-        <v>324.321137624545</v>
+        <v>324.3211381271955</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993384387227625</v>
+        <v>0.9993384387260132</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.663030162107632e-05</v>
+        <v>1.663030166251087e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.0234619295424892</v>
+        <v>0.02346192960568669</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5911242356835</v>
+        <v>295.591124235766</v>
       </c>
       <c r="KC2" t="n">
-        <v>134171.9683578352</v>
+        <v>134171.9684364599</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.582036720936162</v>
+        <v>1.58203672186322</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201356</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KG2" t="n">
-        <v>3790.988616022888</v>
+        <v>3790.988615854416</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698798.1558863939</v>
+        <v>-698798.1558370084</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8532654820223</v>
+        <v>717.8532654822227</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.758731672278</v>
+        <v>1006.758731673566</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.40245754958886</v>
+        <v>1.402457549590263</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995340929340343</v>
+        <v>0.9995340929337653</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8001192148371</v>
+        <v>344.8001192149659</v>
       </c>
       <c r="KN2" t="n">
-        <v>188083.7929835405</v>
+        <v>188083.7930938962</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.316779208549414e-06</v>
+        <v>5.316779205429862e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>134110.150456018</v>
+        <v>134110.1505345713</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.456557140527211e-06</v>
+        <v>7.45655713615963e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395546168351268</v>
+        <v>0.003395546168357615</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832896897517917e-05</v>
+        <v>1.832896897519451e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606674484497824</v>
+        <v>0.02606674484500959</v>
       </c>
       <c r="KU2" t="n">
-        <v>134171.9683578352</v>
+        <v>134171.9684364599</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.582036720936162</v>
+        <v>1.58203672186322</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.582036720936162</v>
+        <v>1.58203672186322</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201356</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3790.988616022888</v>
+        <v>3790.988615854416</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8532654820223</v>
+        <v>717.8532654822227</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.758731672278</v>
+        <v>1006.758731673566</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8001192148371</v>
+        <v>344.8001192149659</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995340929340343</v>
+        <v>0.9995340929337653</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832896897517917e-05</v>
+        <v>1.832896897519451e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606674484497824</v>
+        <v>0.02606674484500959</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>269.9868320441371</v>
+        <v>269.986832478154</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97760.63566125231</v>
+        <v>97760.63626739448</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.262219935971754</v>
+        <v>1.262219941766436</v>
       </c>
       <c r="LL2" t="n">
-        <v>318664.7260180563</v>
+        <v>318664.7263281402</v>
       </c>
       <c r="LM2" t="n">
-        <v>396116.074135125</v>
+        <v>396116.0745698592</v>
       </c>
       <c r="LN2" t="n">
-        <v>3790.988616017663</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="LO2" t="n">
-        <v>-627400.9326188716</v>
+        <v>-627400.9337840057</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8417443435749</v>
+        <v>716.8417443577214</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.567732122578</v>
+        <v>1005.56773214072</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402775075610859</v>
+        <v>1.402775075608483</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993788827664566</v>
+        <v>0.9993788827683098</v>
       </c>
       <c r="LT2" t="n">
-        <v>329.5143186359932</v>
+        <v>329.5143189011856</v>
       </c>
       <c r="LU2" t="n">
-        <v>137051.4445457063</v>
+        <v>137051.4453954886</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.29653017022015e-06</v>
+        <v>7.296530124978294e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97700.2278758234</v>
+        <v>97700.22848177537</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.023539066122748e-05</v>
+        <v>1.0235390597746e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.0037169898547161</v>
+        <v>0.003716989848759619</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.705904108244726e-05</v>
+        <v>1.705904110438357e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02411669239691072</v>
+        <v>0.0241166924304648</v>
       </c>
       <c r="MB2" t="n">
-        <v>97760.63566125231</v>
+        <v>97760.63626739448</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.262219935971754</v>
+        <v>1.262219941766436</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.262219935971754</v>
+        <v>1.262219941766436</v>
       </c>
       <c r="ME2" t="n">
-        <v>318664.7260180563</v>
+        <v>318664.7263281402</v>
       </c>
       <c r="MF2" t="n">
-        <v>396116.074135125</v>
+        <v>396116.0745698592</v>
       </c>
       <c r="MG2" t="n">
-        <v>3790.988616017663</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8417443435749</v>
+        <v>716.8417443577214</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.567732122578</v>
+        <v>1005.56773214072</v>
       </c>
       <c r="MJ2" t="n">
-        <v>329.5143186359932</v>
+        <v>329.5143189011856</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993788827664566</v>
+        <v>0.9993788827683098</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.705904108244726e-05</v>
+        <v>1.705904110438357e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02411669239691072</v>
+        <v>0.0241166924304648</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8054289172646144</v>
+        <v>0.8054289064423533</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4008127525748868</v>
+        <v>0.4008127430290265</v>
       </c>
       <c r="MR2" t="n">
-        <v>237570.479991963</v>
+        <v>237570.4760814055</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.699358801766753</v>
+        <v>2.699358781151753</v>
       </c>
       <c r="MT2" t="n">
-        <v>382453.5001701053</v>
+        <v>382453.5006048396</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>133.6445915169794</v>
+        <v>133.6445917063595</v>
       </c>
       <c r="MW2" t="n">
-        <v>122.2114303437875</v>
+        <v>122.2114294709346</v>
       </c>
       <c r="MX2" t="n">
-        <v>-54.08551686973021</v>
+        <v>-54.08551930998101</v>
       </c>
       <c r="MY2" t="n">
-        <v>-23.87211831426622</v>
+        <v>-23.87211942238546</v>
       </c>
       <c r="MZ2" t="n">
-        <v>251.1315248956631</v>
+        <v>251.1315266027005</v>
       </c>
       <c r="NA2" t="n">
-        <v>122.2114303437875</v>
+        <v>122.2114294709346</v>
       </c>
       <c r="NB2" t="n">
-        <v>-219.3887168697302</v>
+        <v>-219.388719309981</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.87981824279655</v>
+        <v>-60.87981868770284</v>
       </c>
       <c r="ND2" t="n">
-        <v>238.4919654926361</v>
+        <v>238.4919654988726</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99993756727</v>
+        <v>59999.99999982954</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8770577767611305</v>
+        <v>0.877057777648893</v>
       </c>
       <c r="NG2" t="n">
-        <v>296172.0083835722</v>
+        <v>296172.0083878713</v>
       </c>
       <c r="NH2" t="n">
-        <v>364582.5527369215</v>
+        <v>364582.5527429651</v>
       </c>
       <c r="NI2" t="n">
-        <v>3806.836359594924</v>
+        <v>3806.836359322603</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-543317.3329717036</v>
+        <v>-543317.3329244552</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0542669151084</v>
+        <v>716.0542669154753</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.486594900744</v>
+        <v>1004.486594902463</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402807917377903</v>
+        <v>1.402807917379584</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992935019437271</v>
+        <v>0.9992935019430768</v>
       </c>
       <c r="NO2" t="n">
-        <v>309.6759322905067</v>
+        <v>309.6759322945401</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.12427026627</v>
+        <v>84109.12435759294</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188931651204355e-05</v>
+        <v>1.188931649969942e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59957.69144750848</v>
+        <v>59957.69150968799</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667842733530653e-05</v>
+        <v>1.667842731801006e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004206072377439447</v>
+        <v>0.004206072377342041</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.542868822237368e-05</v>
+        <v>1.542868822271347e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02163589355836408</v>
+        <v>0.02163589355888733</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99993756727</v>
+        <v>59999.99999982954</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8770577767611305</v>
+        <v>0.877057777648893</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8770577767611305</v>
+        <v>0.877057777648893</v>
       </c>
       <c r="NZ2" t="n">
-        <v>296172.0083835722</v>
+        <v>296172.0083878713</v>
       </c>
       <c r="OA2" t="n">
-        <v>364582.5527369215</v>
+        <v>364582.5527429651</v>
       </c>
       <c r="OB2" t="n">
-        <v>3806.836359594924</v>
+        <v>3806.836359322603</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0542669151084</v>
+        <v>716.0542669154753</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.486594900744</v>
+        <v>1004.486594902463</v>
       </c>
       <c r="OE2" t="n">
-        <v>309.6759322905067</v>
+        <v>309.6759322945401</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992935019437271</v>
+        <v>0.9992935019430768</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.542868822237368e-05</v>
+        <v>1.542868822271347e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02163589355836408</v>
+        <v>0.02163589355888733</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>247.4095312561355</v>
+        <v>247.4095312875618</v>
       </c>
       <c r="OL2" t="n">
-        <v>68204.00500997207</v>
+        <v>68204.00510701314</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.961020106491993</v>
+        <v>0.961020107737807</v>
       </c>
       <c r="ON2" t="n">
-        <v>302542.5665546612</v>
+        <v>302542.5665769391</v>
       </c>
       <c r="OO2" t="n">
-        <v>373512.9911578849</v>
+        <v>373512.9911891378</v>
       </c>
       <c r="OP2" t="n">
-        <v>3806.836359603558</v>
+        <v>3806.836359321741</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-568334.6081404447</v>
+        <v>-568334.6081591023</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2272327125413</v>
+        <v>716.22723271348</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.716528031149</v>
+        <v>1004.716528033702</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402790179069319</v>
+        <v>1.402790179071046</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9993203859035785</v>
+        <v>0.9993203859030185</v>
       </c>
       <c r="OV2" t="n">
-        <v>315.4189686048703</v>
+        <v>315.4189686249209</v>
       </c>
       <c r="OW2" t="n">
-        <v>95611.05022859591</v>
+        <v>95611.05036469648</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.045904210453819e-05</v>
+        <v>1.045904208964993e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68157.76988974151</v>
+        <v>68157.76998667892</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.467184154671867e-05</v>
+        <v>1.467184152585163e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004054760333448677</v>
+        <v>0.004054760332947248</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.589816726469739e-05</v>
+        <v>1.589816726635085e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02234742246705377</v>
+        <v>0.02234742246957333</v>
       </c>
       <c r="PD2" t="n">
-        <v>68204.00500997207</v>
+        <v>68204.00510701314</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.961020106491993</v>
+        <v>0.961020107737807</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.961020106491993</v>
+        <v>0.961020107737807</v>
       </c>
       <c r="PG2" t="n">
-        <v>302542.5665546612</v>
+        <v>302542.5665769391</v>
       </c>
       <c r="PH2" t="n">
-        <v>373512.9911578849</v>
+        <v>373512.9911891378</v>
       </c>
       <c r="PI2" t="n">
-        <v>3806.836359603558</v>
+        <v>3806.836359321741</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2272327125413</v>
+        <v>716.22723271348</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.716528031149</v>
+        <v>1004.716528033702</v>
       </c>
       <c r="PL2" t="n">
-        <v>315.4189686048703</v>
+        <v>315.4189686249209</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9993203859035785</v>
+        <v>0.9993203859030185</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.589816726469739e-05</v>
+        <v>1.589816726635085e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02234742246705377</v>
+        <v>0.02234742246957333</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>269.9721830146307</v>
+        <v>269.9721834487055</v>
       </c>
       <c r="PS2" t="n">
-        <v>92506.54862102517</v>
+        <v>92506.54923114939</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.194408003036838</v>
+        <v>1.194408008992274</v>
       </c>
       <c r="PU2" t="n">
-        <v>318666.368183873</v>
+        <v>318666.368493962</v>
       </c>
       <c r="PV2" t="n">
-        <v>396116.074135125</v>
+        <v>396116.0745698594</v>
       </c>
       <c r="PW2" t="n">
-        <v>3806.836359594925</v>
+        <v>3806.836359313107</v>
       </c>
       <c r="PX2" t="n">
-        <v>-631623.8482441865</v>
+        <v>-631623.849385821</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.8246501472742</v>
+        <v>716.8246501615041</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.460590491164</v>
+        <v>1005.460590509802</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402659060740432</v>
+        <v>1.402659060738588</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.999411919791926</v>
+        <v>0.9994119197934476</v>
       </c>
       <c r="QC2" t="n">
-        <v>329.5025902614561</v>
+        <v>329.5025905266416</v>
       </c>
       <c r="QD2" t="n">
-        <v>129679.2143330438</v>
+        <v>129679.2151883702</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.711336046745219e-06</v>
+        <v>7.711335995883491e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>92452.41268009138</v>
+        <v>92452.41329000221</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.081637537638149e-05</v>
+        <v>1.08163753050256e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003716489604700665</v>
+        <v>0.003716489598747767</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.70575070490939e-05</v>
+        <v>1.705750707103488e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02411371375679934</v>
+        <v>0.02411371379036301</v>
       </c>
       <c r="QK2" t="n">
-        <v>92506.54862102517</v>
+        <v>92506.54923114939</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.194408003036838</v>
+        <v>1.194408008992274</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.194408003036838</v>
+        <v>1.194408008992274</v>
       </c>
       <c r="QN2" t="n">
-        <v>318666.368183873</v>
+        <v>318666.368493962</v>
       </c>
       <c r="QO2" t="n">
-        <v>396116.074135125</v>
+        <v>396116.0745698594</v>
       </c>
       <c r="QP2" t="n">
-        <v>3806.836359594925</v>
+        <v>3806.836359313107</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.8246501472742</v>
+        <v>716.8246501615041</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.460590491164</v>
+        <v>1005.460590509802</v>
       </c>
       <c r="QS2" t="n">
-        <v>329.5025902614561</v>
+        <v>329.5025905266416</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.999411919791926</v>
+        <v>0.9994119197934476</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.70575070490939e-05</v>
+        <v>1.705750707103488e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02411371375679934</v>
+        <v>0.02411371379036301</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4315627324619066</v>
+        <v>0.4315627330678285</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8109494433040955</v>
+        <v>0.8109494488058676</v>
       </c>
       <c r="RA2" t="n">
-        <v>372027.3303909628</v>
+        <v>372027.3332881502</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.699358797683121</v>
+        <v>2.699358781136189</v>
       </c>
       <c r="RC2" t="n">
-        <v>382453.5001701053</v>
+        <v>382453.5006048396</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02701446673512969</v>
+        <v>0.02701446602094412</v>
       </c>
       <c r="RE2" t="n">
         <v>0</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01388396193096741</v>
+        <v>0.0138839619551212</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.07948209073342892</v>
+        <v>0.07948208973906772</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04125112778125927</v>
+        <v>0.04125112767902427</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1616316471807853</v>
+        <v>0.1616316453941573</v>
       </c>
       <c r="RJ2" t="n">
-        <v>9.954133350920102e-10</v>
+        <v>4.385464213996215e-12</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360832.6519870234</v>
+        <v>360832.6520173486</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.43107430746947</v>
+        <v>79.43107415913326</v>
       </c>
       <c r="D3" t="n">
-        <v>79.43107430746947</v>
+        <v>79.43107415913326</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.43107430746947</v>
+        <v>79.43107415913326</v>
       </c>
       <c r="H3" t="n">
-        <v>79.43107430746947</v>
+        <v>79.43107415913326</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4545872399919</v>
+        <v>292.4545872517408</v>
       </c>
       <c r="L3" t="n">
-        <v>132934.6669225686</v>
+        <v>132934.6669412357</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584314364047215</v>
+        <v>1.584314364205913</v>
       </c>
       <c r="N3" t="n">
-        <v>334723.0347846122</v>
+        <v>334723.0347930169</v>
       </c>
       <c r="O3" t="n">
-        <v>418629.7833057705</v>
+        <v>418629.783317553</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687701.7481841715</v>
+        <v>-687701.7482168342</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7175347740548</v>
+        <v>717.7175347745873</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653029400635</v>
+        <v>1006.653029401253</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575498893921</v>
+        <v>1.402575498893741</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986783121768</v>
+        <v>0.9994986783122588</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9681628758112</v>
+        <v>342.9681628827067</v>
       </c>
       <c r="W3" t="n">
-        <v>186358.4003726264</v>
+        <v>186358.4003987872</v>
       </c>
       <c r="X3" t="n">
-        <v>5.36600441944385e-06</v>
+        <v>5.366004418690578e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132868.7122508483</v>
+        <v>132868.7122695173</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526226325668445e-06</v>
+        <v>7.526226324610959e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343226290250507</v>
+        <v>0.003432262902367405</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817640677234844e-05</v>
+        <v>1.817640677292323e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583200301717687</v>
+        <v>0.02583200301806225</v>
       </c>
       <c r="AD3" t="n">
-        <v>132934.6669225686</v>
+        <v>132934.6669412357</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584314364047215</v>
+        <v>1.584314364205913</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584314364047215</v>
+        <v>1.584314364205913</v>
       </c>
       <c r="AG3" t="n">
-        <v>334723.0347846122</v>
+        <v>334723.0347930169</v>
       </c>
       <c r="AH3" t="n">
-        <v>418629.7833057705</v>
+        <v>418629.783317553</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7175347740548</v>
+        <v>717.7175347745873</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653029400635</v>
+        <v>1006.653029401253</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9681628758112</v>
+        <v>342.9681628827067</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986783121768</v>
+        <v>0.9994986783122588</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817640677234844e-05</v>
+        <v>1.817640677292323e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583200301717687</v>
+        <v>0.02583200301806225</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2315989730400471</v>
+        <v>0.2315989726028835</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2315989730400471</v>
+        <v>0.2315989726028835</v>
       </c>
       <c r="DH3" t="n">
-        <v>181117.9535840484</v>
+        <v>181117.9532582284</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.701669623476074</v>
+        <v>2.701669618701372</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>262.5129105144348</v>
+        <v>262.5129107641542</v>
       </c>
       <c r="DV3" t="n">
-        <v>108.2771578268093</v>
+        <v>108.2771577238555</v>
       </c>
       <c r="DW3" t="n">
-        <v>239.1423954043027</v>
+        <v>239.142395725041</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.64027846768528</v>
+        <v>65.64027851702951</v>
       </c>
       <c r="DY3" t="n">
-        <v>262.5129105144348</v>
+        <v>262.5129107641542</v>
       </c>
       <c r="DZ3" t="n">
-        <v>108.2771578268093</v>
+        <v>108.2771577238555</v>
       </c>
       <c r="EA3" t="n">
-        <v>239.1423954043027</v>
+        <v>239.142395725041</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.64027846768528</v>
+        <v>65.64027851702951</v>
       </c>
       <c r="EC3" t="n">
-        <v>261.2151829860094</v>
+        <v>261.2151829204555</v>
       </c>
       <c r="ED3" t="n">
-        <v>87088.6578932496</v>
+        <v>87088.65780986255</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.162237673108443</v>
+        <v>1.162237672287555</v>
       </c>
       <c r="EF3" t="n">
-        <v>312396.0335187989</v>
+        <v>312396.0334719729</v>
       </c>
       <c r="EG3" t="n">
-        <v>387327.9169952036</v>
+        <v>387327.916929555</v>
       </c>
       <c r="EH3" t="n">
-        <v>3791.058035511556</v>
+        <v>3791.0580355349</v>
       </c>
       <c r="EI3" t="n">
-        <v>-602954.0014615291</v>
+        <v>-602954.0012847568</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5795267662387</v>
+        <v>716.579526764401</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.244489916485</v>
+        <v>1005.244489914065</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402837301887379</v>
+        <v>1.4028373018876</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993370812320357</v>
+        <v>0.9993370812317964</v>
       </c>
       <c r="EN3" t="n">
-        <v>324.1108394414372</v>
+        <v>324.1108394007153</v>
       </c>
       <c r="EO3" t="n">
-        <v>122090.5527606444</v>
+        <v>122090.5526437325</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.190641924281205e-06</v>
+        <v>8.190641932124422e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>87031.15649718152</v>
+        <v>87031.15641382831</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.149013801778429e-05</v>
+        <v>1.149013802878886e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003841562700748544</v>
+        <v>0.003841562701709664</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.66129675353147e-05</v>
+        <v>1.6612967531958e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02343549247857492</v>
+        <v>0.02343549247345534</v>
       </c>
       <c r="EV3" t="n">
-        <v>87088.6578932496</v>
+        <v>87088.65780986255</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.162237673108443</v>
+        <v>1.162237672287555</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.162237673108443</v>
+        <v>1.162237672287555</v>
       </c>
       <c r="EY3" t="n">
-        <v>312396.0335187989</v>
+        <v>312396.0334719729</v>
       </c>
       <c r="EZ3" t="n">
-        <v>387327.9169952036</v>
+        <v>387327.916929555</v>
       </c>
       <c r="FA3" t="n">
-        <v>3791.058035511556</v>
+        <v>3791.0580355349</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5795267662387</v>
+        <v>716.579526764401</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.244489916485</v>
+        <v>1005.244489914065</v>
       </c>
       <c r="FD3" t="n">
-        <v>324.1108394414372</v>
+        <v>324.1108394007153</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993370812320357</v>
+        <v>0.9993370812317964</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.66129675353147e-05</v>
+        <v>1.6612967531958e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02343549247857492</v>
+        <v>0.02343549247345534</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5910489676903</v>
+        <v>295.5910489674648</v>
       </c>
       <c r="FK3" t="n">
-        <v>134139.5092313645</v>
+        <v>134139.5092201324</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.581654219593054</v>
+        <v>1.581654219461766</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.8010381749</v>
+        <v>336974.8010380357</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="FO3" t="n">
-        <v>3791.05803551678</v>
+        <v>3791.058035540126</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698818.3903272069</v>
+        <v>-698818.3903334533</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8531809316935</v>
+        <v>717.8531809316559</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.758198712858</v>
+        <v>1006.758198712668</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402456972338269</v>
+        <v>1.402456972338078</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995342034561493</v>
+        <v>0.999534203456185</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.800042052323</v>
+        <v>344.8000420521802</v>
       </c>
       <c r="FV3" t="n">
-        <v>188038.2343377677</v>
+        <v>188038.2343220034</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.318067378806209e-06</v>
+        <v>5.318067379252052e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>134077.7207761733</v>
+        <v>134077.7207649511</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.458360674771466e-06</v>
+        <v>7.458360675395727e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395544026639955</v>
+        <v>0.003395544026641532</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832896064261658e-05</v>
+        <v>1.832896064260402e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606672882651926</v>
+        <v>0.02606672882649884</v>
       </c>
       <c r="GC3" t="n">
-        <v>134139.5092313645</v>
+        <v>134139.5092201324</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.581654219593054</v>
+        <v>1.581654219461766</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.581654219593054</v>
+        <v>1.581654219461766</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.8010381749</v>
+        <v>336974.8010380357</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="GH3" t="n">
-        <v>3791.05803551678</v>
+        <v>3791.058035540126</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8531809316935</v>
+        <v>717.8531809316559</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.758198712858</v>
+        <v>1006.758198712668</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.800042052323</v>
+        <v>344.8000420521802</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995342034561493</v>
+        <v>0.999534203456185</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832896064261658e-05</v>
+        <v>1.832896064260402e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606672882651926</v>
+        <v>0.02606672882649884</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5910489676903</v>
+        <v>295.5910489674648</v>
       </c>
       <c r="GR3" t="n">
-        <v>134139.5092313645</v>
+        <v>134139.5092201324</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.581654219593054</v>
+        <v>1.581654219461766</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.8010381749</v>
+        <v>336974.8010380357</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="GV3" t="n">
-        <v>3791.05803551678</v>
+        <v>3791.058035540126</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698818.3903272069</v>
+        <v>-698818.3903334533</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8531809316935</v>
+        <v>717.8531809316559</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.758198712858</v>
+        <v>1006.758198712668</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402456972338269</v>
+        <v>1.402456972338078</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995342034561493</v>
+        <v>0.999534203456185</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.800042052323</v>
+        <v>344.8000420521802</v>
       </c>
       <c r="HC3" t="n">
-        <v>188038.2343377677</v>
+        <v>188038.2343220034</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.318067378806209e-06</v>
+        <v>5.318067379252052e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>134077.7207761733</v>
+        <v>134077.7207649511</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.458360674771466e-06</v>
+        <v>7.458360675395727e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395544026639955</v>
+        <v>0.003395544026641532</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832896064261658e-05</v>
+        <v>1.832896064260402e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606672882651926</v>
+        <v>0.02606672882649884</v>
       </c>
       <c r="HJ3" t="n">
-        <v>134139.5092313645</v>
+        <v>134139.5092201324</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.581654219593054</v>
+        <v>1.581654219461766</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.581654219593054</v>
+        <v>1.581654219461766</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.8010381749</v>
+        <v>336974.8010380357</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310883889</v>
       </c>
       <c r="HO3" t="n">
-        <v>3791.05803551678</v>
+        <v>3791.058035540126</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8531809316935</v>
+        <v>717.8531809316559</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.758198712858</v>
+        <v>1006.758198712668</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.800042052323</v>
+        <v>344.8000420521802</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995342034561493</v>
+        <v>0.999534203456185</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832896064261658e-05</v>
+        <v>1.832896064260402e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606672882651926</v>
+        <v>0.02606672882649884</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,22 +5456,22 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8099479516539515</v>
+        <v>0.8099479525261901</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8099479516539515</v>
+        <v>0.8099479525261901</v>
       </c>
       <c r="HZ3" t="n">
-        <v>480436.6599360192</v>
+        <v>480436.6601507835</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.701669623184122</v>
+        <v>2.701669618707091</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01762361544000119</v>
+        <v>0.01762361549035323</v>
       </c>
       <c r="ID3" t="n">
         <v>0</v>
@@ -5480,142 +5480,142 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.04914564470215346</v>
+        <v>0.04914564471344091</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.08204932868139779</v>
+        <v>0.08204932874303728</v>
       </c>
       <c r="II3" t="n">
-        <v>-5.00510605183635e-11</v>
+        <v>1.20436993711337e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>385210.032911166</v>
+        <v>385210.0328399992</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>262.5129105144348</v>
+        <v>262.5129107641542</v>
       </c>
       <c r="IN3" t="n">
-        <v>108.2771578268093</v>
+        <v>108.2771577238555</v>
       </c>
       <c r="IO3" t="n">
-        <v>239.1423954043027</v>
+        <v>239.142395725041</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.64027846768528</v>
+        <v>65.64027851702951</v>
       </c>
       <c r="IQ3" t="n">
-        <v>131.0578867714819</v>
+        <v>131.0578868671305</v>
       </c>
       <c r="IR3" t="n">
-        <v>108.2771578268093</v>
+        <v>108.2771577238555</v>
       </c>
       <c r="IS3" t="n">
-        <v>73.83919540430273</v>
+        <v>73.83919572504095</v>
       </c>
       <c r="IT3" t="n">
-        <v>34.29188352808639</v>
+        <v>34.29188366929176</v>
       </c>
       <c r="IU3" t="n">
-        <v>261.2151829859158</v>
+        <v>261.2151829204556</v>
       </c>
       <c r="IV3" t="n">
-        <v>87088.65789313488</v>
+        <v>87088.65780994574</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.162237673107329</v>
+        <v>1.162237672288666</v>
       </c>
       <c r="IX3" t="n">
-        <v>312396.0335187319</v>
+        <v>312396.0334719728</v>
       </c>
       <c r="IY3" t="n">
-        <v>387327.9169951097</v>
+        <v>387327.9169295549</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3791.058035511575</v>
+        <v>3791.058035534626</v>
       </c>
       <c r="JA3" t="n">
-        <v>-602954.0014612728</v>
+        <v>-602954.0012846857</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.579526766236</v>
+        <v>716.5795267644013</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.244489916482</v>
+        <v>1005.244489914067</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.40283730188738</v>
+        <v>1.402837301887602</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993370812320352</v>
+        <v>0.9993370812317959</v>
       </c>
       <c r="JF3" t="n">
-        <v>324.110839441379</v>
+        <v>324.1108394007153</v>
       </c>
       <c r="JG3" t="n">
-        <v>122090.5527604835</v>
+        <v>122090.5526438493</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.190641924291994e-06</v>
+        <v>8.190641932116593e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>87031.15649706683</v>
+        <v>87031.15641391141</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.149013801779944e-05</v>
+        <v>1.149013802877789e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003841562700749916</v>
+        <v>0.003841562701709676</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.66129675353099e-05</v>
+        <v>1.661296753195801e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.0234354924785676</v>
+        <v>0.02343549247345537</v>
       </c>
       <c r="JN3" t="n">
-        <v>87088.65789313488</v>
+        <v>87088.65780994574</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.162237673107329</v>
+        <v>1.162237672288666</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.162237673107329</v>
+        <v>1.162237672288666</v>
       </c>
       <c r="JQ3" t="n">
-        <v>312396.0335187319</v>
+        <v>312396.0334719728</v>
       </c>
       <c r="JR3" t="n">
-        <v>387327.9169951097</v>
+        <v>387327.9169295549</v>
       </c>
       <c r="JS3" t="n">
-        <v>3791.058035511575</v>
+        <v>3791.058035534626</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.579526766236</v>
+        <v>716.5795267644013</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.244489916482</v>
+        <v>1005.244489914067</v>
       </c>
       <c r="JV3" t="n">
-        <v>324.110839441379</v>
+        <v>324.1108394007153</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993370812320352</v>
+        <v>0.9993370812317959</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.66129675353099e-05</v>
+        <v>1.661296753195801e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.0234354924785676</v>
+        <v>0.02343549247345537</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5910489677904</v>
+        <v>295.5910489675651</v>
       </c>
       <c r="KC3" t="n">
-        <v>134139.5092315143</v>
+        <v>134139.5092204191</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.581654219594284</v>
+        <v>1.581654219464609</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.8010382465</v>
+        <v>336974.8010381075</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KG3" t="n">
-        <v>3791.0580355168</v>
+        <v>3791.058035539853</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698818.3903274914</v>
+        <v>-698818.3903336526</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8531809316983</v>
+        <v>717.8531809316607</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.758198712863</v>
+        <v>1006.758198712676</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402456972338266</v>
+        <v>1.402456972338078</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.99953420345615</v>
+        <v>0.9995342034561853</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8000420523815</v>
+        <v>344.800042052239</v>
       </c>
       <c r="KN3" t="n">
-        <v>188038.2343379777</v>
+        <v>188038.2343224055</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.318067378800272e-06</v>
+        <v>5.31806737924068e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>134077.7207763231</v>
+        <v>134077.7207652377</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.458360674763133e-06</v>
+        <v>7.458360675379782e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395544026638807</v>
+        <v>0.003395544026640392</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832896064262145e-05</v>
+        <v>1.832896064260893e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606672882652677</v>
+        <v>0.02606672882650642</v>
       </c>
       <c r="KU3" t="n">
-        <v>134139.5092315143</v>
+        <v>134139.5092204191</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.581654219594284</v>
+        <v>1.581654219464609</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.581654219594284</v>
+        <v>1.581654219464609</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.8010382465</v>
+        <v>336974.8010381075</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3791.0580355168</v>
+        <v>3791.058035539853</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8531809316983</v>
+        <v>717.8531809316607</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.758198712863</v>
+        <v>1006.758198712676</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8000420523815</v>
+        <v>344.800042052239</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.99953420345615</v>
+        <v>0.9995342034561853</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832896064262145e-05</v>
+        <v>1.832896064260893e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606672882652677</v>
+        <v>0.02606672882650642</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>269.7870970237373</v>
+        <v>269.7870969708026</v>
       </c>
       <c r="LJ3" t="n">
-        <v>97484.73991786504</v>
+        <v>97484.73984324854</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.259590688023957</v>
+        <v>1.259590687307265</v>
       </c>
       <c r="LL3" t="n">
-        <v>318522.0191377258</v>
+        <v>318522.0190999089</v>
       </c>
       <c r="LM3" t="n">
-        <v>395916.001837613</v>
+        <v>395916.0017845936</v>
       </c>
       <c r="LN3" t="n">
-        <v>3791.058035511574</v>
+        <v>3791.058035534626</v>
       </c>
       <c r="LO3" t="n">
-        <v>-626862.5402115667</v>
+        <v>-626862.5400701272</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8352535784762</v>
+        <v>716.8352535767538</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.559450771363</v>
+        <v>1005.559450769139</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.40277622473443</v>
+        <v>1.402776224734699</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993780141829443</v>
+        <v>0.9993780141827245</v>
       </c>
       <c r="LT3" t="n">
-        <v>329.3922557163921</v>
+        <v>329.3922556840357</v>
       </c>
       <c r="LU3" t="n">
-        <v>136664.655192933</v>
+        <v>136664.655088323</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.317180865734997e-06</v>
+        <v>7.317180871335933e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>97424.41651290887</v>
+        <v>97424.41643831672</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.026436735053475e-05</v>
+        <v>1.026436735839357e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003719733428356682</v>
+        <v>0.003719733429084121</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.704894490690585e-05</v>
+        <v>1.704894490422948e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02410124998706072</v>
+        <v>0.02410124998296708</v>
       </c>
       <c r="MB3" t="n">
-        <v>97484.73991786504</v>
+        <v>97484.73984324854</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.259590688023957</v>
+        <v>1.259590687307265</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.259590688023957</v>
+        <v>1.259590687307265</v>
       </c>
       <c r="ME3" t="n">
-        <v>318522.0191377258</v>
+        <v>318522.0190999089</v>
       </c>
       <c r="MF3" t="n">
-        <v>395916.001837613</v>
+        <v>395916.0017845936</v>
       </c>
       <c r="MG3" t="n">
-        <v>3791.058035511574</v>
+        <v>3791.058035534626</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8352535784762</v>
+        <v>716.8352535767538</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.559450771363</v>
+        <v>1005.559450769139</v>
       </c>
       <c r="MJ3" t="n">
-        <v>329.3922557163921</v>
+        <v>329.3922556840357</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993780141829443</v>
+        <v>0.9993780141827245</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.704894490690585e-05</v>
+        <v>1.704894490422948e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02410124998706072</v>
+        <v>0.02410124998296708</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8099479516540968</v>
+        <v>0.80994795252619</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4043613197181761</v>
+        <v>0.4043613200640191</v>
       </c>
       <c r="MR3" t="n">
-        <v>238938.0442608981</v>
+        <v>238938.0443151844</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.701669623181532</v>
+        <v>2.701669618709673</v>
       </c>
       <c r="MT3" t="n">
-        <v>382253.4278725932</v>
+        <v>382253.4278193733</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>140.9419863269743</v>
+        <v>140.9419860098859</v>
       </c>
       <c r="MW3" t="n">
-        <v>126.2302384822771</v>
+        <v>126.2302382482795</v>
       </c>
       <c r="MX3" t="n">
-        <v>-62.69426132031916</v>
+        <v>-62.69426107861443</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.41202586999218</v>
+        <v>-26.41202582430432</v>
       </c>
       <c r="MZ3" t="n">
-        <v>260.6087402137599</v>
+        <v>260.6087398889602</v>
       </c>
       <c r="NA3" t="n">
-        <v>126.2302384822771</v>
+        <v>126.2302382482795</v>
       </c>
       <c r="NB3" t="n">
-        <v>-227.9974613203192</v>
+        <v>-227.9974610786144</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.02900054858979</v>
+        <v>-61.02900056785832</v>
       </c>
       <c r="ND3" t="n">
-        <v>235.869663769335</v>
+        <v>235.8696638008864</v>
       </c>
       <c r="NE3" t="n">
-        <v>57499.99997848162</v>
+        <v>57499.99999828989</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8498616910926781</v>
+        <v>0.849861691271623</v>
       </c>
       <c r="NG3" t="n">
-        <v>294299.4762268636</v>
+        <v>294299.4762494212</v>
       </c>
       <c r="NH3" t="n">
-        <v>361957.5440997115</v>
+        <v>361957.5441313306</v>
       </c>
       <c r="NI3" t="n">
-        <v>3807.976748284423</v>
+        <v>3807.976748319662</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-536228.651159581</v>
+        <v>-536228.6512564205</v>
       </c>
       <c r="NK3" t="n">
-        <v>716.0083017009943</v>
+        <v>716.0083017014857</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.418583801856</v>
+        <v>1004.41858380238</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402802986244289</v>
+        <v>1.402802986244057</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992893832277953</v>
+        <v>0.9992893832279627</v>
       </c>
       <c r="NO3" t="n">
-        <v>307.9669022422263</v>
+        <v>307.9669022628503</v>
       </c>
       <c r="NP3" t="n">
-        <v>80603.95322870859</v>
+        <v>80603.95325647618</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240633939085548e-05</v>
+        <v>1.240633938658157e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57459.21132126241</v>
+        <v>57459.21134106628</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740364994585222e-05</v>
+        <v>1.740364993985389e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004252688981566844</v>
+        <v>0.004252688980997498</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.528932515066293e-05</v>
+        <v>1.528932515234167e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02142505496441639</v>
+        <v>0.02142505496695337</v>
       </c>
       <c r="NW3" t="n">
-        <v>57499.99997848162</v>
+        <v>57499.99999828989</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8498616910926781</v>
+        <v>0.849861691271623</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8498616910926781</v>
+        <v>0.849861691271623</v>
       </c>
       <c r="NZ3" t="n">
-        <v>294299.4762268636</v>
+        <v>294299.4762494212</v>
       </c>
       <c r="OA3" t="n">
-        <v>361957.5440997115</v>
+        <v>361957.5441313306</v>
       </c>
       <c r="OB3" t="n">
-        <v>3807.976748284423</v>
+        <v>3807.976748319662</v>
       </c>
       <c r="OC3" t="n">
-        <v>716.0083017009943</v>
+        <v>716.0083017014857</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.418583801856</v>
+        <v>1004.41858380238</v>
       </c>
       <c r="OE3" t="n">
-        <v>307.9669022422263</v>
+        <v>307.9669022628503</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992893832277953</v>
+        <v>0.9992893832279627</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.528932515066293e-05</v>
+        <v>1.528932515234167e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02142505496441639</v>
+        <v>0.02142505496695337</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>245.7879687398195</v>
+        <v>245.7879687265543</v>
       </c>
       <c r="OL3" t="n">
-        <v>66392.36249496817</v>
+        <v>66392.36247658842</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9416676300939197</v>
+        <v>0.9416676298840376</v>
       </c>
       <c r="ON3" t="n">
-        <v>301384.7742777025</v>
+        <v>301384.7742682408</v>
       </c>
       <c r="OO3" t="n">
-        <v>371889.8658548085</v>
+        <v>371889.865841543</v>
       </c>
       <c r="OP3" t="n">
-        <v>3807.97674830288</v>
+        <v>3807.976748328321</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-564065.0041190194</v>
+        <v>-564065.0040880243</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.192260591894</v>
+        <v>716.1922605915972</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.66548615214</v>
+        <v>1004.665486151632</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402787409796691</v>
+        <v>1.402787409796564</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9993178167726681</v>
+        <v>0.9993178167726861</v>
       </c>
       <c r="OV3" t="n">
-        <v>314.3824840548311</v>
+        <v>314.3824840463387</v>
       </c>
       <c r="OW3" t="n">
-        <v>93070.98796908736</v>
+        <v>93070.98794331514</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.074448678176856e-05</v>
+        <v>1.074448678474381e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66347.17942227349</v>
+        <v>66347.17940390736</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.507223078219191e-05</v>
+        <v>1.507223078636418e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004081408208706539</v>
+        <v>0.00408140820892525</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.581324606212624e-05</v>
+        <v>1.581324606143008e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02221851972634243</v>
+        <v>0.02221851972528546</v>
       </c>
       <c r="PD3" t="n">
-        <v>66392.36249496817</v>
+        <v>66392.36247658842</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9416676300939197</v>
+        <v>0.9416676298840376</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9416676300939197</v>
+        <v>0.9416676298840376</v>
       </c>
       <c r="PG3" t="n">
-        <v>301384.7742777025</v>
+        <v>301384.7742682408</v>
       </c>
       <c r="PH3" t="n">
-        <v>371889.8658548085</v>
+        <v>371889.865841543</v>
       </c>
       <c r="PI3" t="n">
-        <v>3807.97674830288</v>
+        <v>3807.976748328321</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.192260591894</v>
+        <v>716.1922605915972</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.66548615214</v>
+        <v>1004.665486151632</v>
       </c>
       <c r="PL3" t="n">
-        <v>314.3824840548311</v>
+        <v>314.3824840463387</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9993178167726681</v>
+        <v>0.9993178167726861</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.581324606212624e-05</v>
+        <v>1.581324606143008e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02221851972634243</v>
+        <v>0.02221851972528546</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>269.7715080597828</v>
+        <v>269.7715080065519</v>
       </c>
       <c r="PS3" t="n">
-        <v>91901.75167855016</v>
+        <v>91901.75160708405</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.187480174244857</v>
+        <v>1.187480173555983</v>
       </c>
       <c r="PU3" t="n">
-        <v>318523.7609635669</v>
+        <v>318523.7609255334</v>
       </c>
       <c r="PV3" t="n">
-        <v>395916.0018378134</v>
+        <v>395916.0017844933</v>
       </c>
       <c r="PW3" t="n">
-        <v>3807.976748294222</v>
+        <v>3807.976748319662</v>
       </c>
       <c r="PX3" t="n">
-        <v>-631367.6282061066</v>
+        <v>-631367.6280635878</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.8170544746956</v>
+        <v>716.8170544729659</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.445398282905</v>
+        <v>1005.445398280688</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402652729879209</v>
+        <v>1.4026527298795</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9994132707884651</v>
+        <v>0.9994132707882616</v>
       </c>
       <c r="QC3" t="n">
-        <v>329.3798013115797</v>
+        <v>329.3798012790498</v>
       </c>
       <c r="QD3" t="n">
-        <v>128830.975128504</v>
+        <v>128830.9750283204</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.762108444824995e-06</v>
+        <v>7.762108450861093e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>91848.09068143219</v>
+        <v>91848.09060998879</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.088754259975224e-05</v>
+        <v>1.088754260822104e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003719200282959952</v>
+        <v>0.003719200283691438</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.704731314929799e-05</v>
+        <v>1.704731314660705e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02409808134194703</v>
+        <v>0.02409808133783125</v>
       </c>
       <c r="QK3" t="n">
-        <v>91901.75167855016</v>
+        <v>91901.75160708405</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.187480174244857</v>
+        <v>1.187480173555983</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.187480174244857</v>
+        <v>1.187480173555983</v>
       </c>
       <c r="QN3" t="n">
-        <v>318523.7609635669</v>
+        <v>318523.7609255334</v>
       </c>
       <c r="QO3" t="n">
-        <v>395916.0018378134</v>
+        <v>395916.0017844933</v>
       </c>
       <c r="QP3" t="n">
-        <v>3807.976748294222</v>
+        <v>3807.976748319662</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.8170544746956</v>
+        <v>716.8170544729659</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.445398282905</v>
+        <v>1005.445398280688</v>
       </c>
       <c r="QS3" t="n">
-        <v>329.3798013115797</v>
+        <v>329.3798012790498</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9994132707884651</v>
+        <v>0.9994132707882616</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.704731314929799e-05</v>
+        <v>1.704731314660705e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02409808134194703</v>
+        <v>0.02409808133783125</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4576530312212534</v>
+        <v>0.4576530301609867</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8462232087809953</v>
+        <v>0.8462232076696676</v>
       </c>
       <c r="RA3" t="n">
-        <v>377505.5358994438</v>
+        <v>377505.5354669915</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.701669623084664</v>
+        <v>2.701669618645338</v>
       </c>
       <c r="RC3" t="n">
-        <v>382253.4278725932</v>
+        <v>382253.4278193733</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02714521510899845</v>
+        <v>0.02714521513407107</v>
       </c>
       <c r="RE3" t="n">
         <v>0</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01389203144369766</v>
+        <v>0.01389203144473616</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.07971792757284088</v>
+        <v>0.07971792769828766</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04153273176620009</v>
+        <v>0.04153273186482422</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1622879058917371</v>
+        <v>0.1622879061419191</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-9.002379397493598e-11</v>
+        <v>-1.195210597160212e-12</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>358000.3545031756</v>
+        <v>358000.3545314391</v>
       </c>
     </row>
   </sheetData>
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760661578241667</v>
+        <v>0.01760661588440731</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914148722443781</v>
+        <v>0.04914148724406629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202817154609759</v>
+        <v>0.08202817166771673</v>
       </c>
       <c r="H2" t="n">
-        <v>1.965006629633947e-10</v>
+        <v>7.782691158197963e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248354857346</v>
+        <v>80.7124835054916</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248354857346</v>
+        <v>80.7124835054916</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248354857346</v>
+        <v>80.7124835054916</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248354857346</v>
+        <v>80.7124835054916</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750112086</v>
+        <v>292.3522750147761</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796788272</v>
+        <v>132772.179684491</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58293274695521</v>
+        <v>1.58293274700338</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439799817</v>
+        <v>334649.8439825336</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785883004</v>
+        <v>418527.1785918779</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.91734772346</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.3141980212</v>
+        <v>-687417.3142079387</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7129007515916</v>
+        <v>717.7129007517531</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.64765284577</v>
+        <v>1006.647652845957</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602458</v>
+        <v>1.402577063602404</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633404869</v>
+        <v>0.9994979633405119</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.908110077521</v>
+        <v>342.9081100796152</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6855931931</v>
+        <v>186130.6856011306</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261285581e-06</v>
+        <v>5.372569261056469e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094649719</v>
+        <v>132706.2094706363</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.535442418494759e-06</v>
+        <v>7.535442418173119e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124746795</v>
+        <v>0.003433462124704964</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103481978e-05</v>
+        <v>1.817140103499434e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250848285</v>
+        <v>0.02582429250875172</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796788272</v>
+        <v>132772.179684491</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.58293274695521</v>
+        <v>1.58293274700338</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.58293274695521</v>
+        <v>1.58293274700338</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439799817</v>
+        <v>334649.8439825336</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785883004</v>
+        <v>418527.1785918779</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723462</v>
+        <v>3782.91734772346</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7129007515916</v>
+        <v>717.7129007517531</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.64765284577</v>
+        <v>1006.647652845957</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.908110077521</v>
+        <v>342.9081100796152</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633404869</v>
+        <v>0.9994979633405119</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103481978e-05</v>
+        <v>1.817140103499434e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250848285</v>
+        <v>0.02582429250875172</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8838,10 +8838,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.9999953539</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756452</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475829663</v>
@@ -8850,10 +8850,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723354</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368990477</v>
       </c>
       <c r="BF2" t="n">
         <v>717.8632360362602</v>
@@ -8871,16 +8871,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974372415</v>
+        <v>193456.8974372429</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087296864e-06</v>
+        <v>5.169110087296827e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.66174619</v>
+        <v>137934.661746191</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346979613e-06</v>
+        <v>7.249809346979563e-06</v>
       </c>
       <c r="BO2" t="n">
         <v>0.003395798695744087</v>
@@ -8892,13 +8892,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.9999953539</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756452</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756452</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475829663</v>
@@ -8907,7 +8907,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723354</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362602</v>
@@ -8939,10 +8939,10 @@
         <v>295.6000000001888</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.9999953539</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756452</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475829663</v>
@@ -8951,10 +8951,10 @@
         <v>421784.4310886902</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723354</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368990477</v>
       </c>
       <c r="CM2" t="n">
         <v>717.8632360362602</v>
@@ -8972,16 +8972,16 @@
         <v>344.8092213941073</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974372415</v>
+        <v>193456.8974372429</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087296864e-06</v>
+        <v>5.169110087296827e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.66174619</v>
+        <v>137934.661746191</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346979613e-06</v>
+        <v>7.249809346979563e-06</v>
       </c>
       <c r="CV2" t="n">
         <v>0.003395798695744087</v>
@@ -8993,13 +8993,13 @@
         <v>0.02606863419707387</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999953529</v>
+        <v>137999.9999953539</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756452</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.62714581975644</v>
+        <v>1.627145819756452</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475829663</v>
@@ -9008,7 +9008,7 @@
         <v>421784.4310886902</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723354</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362602</v>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2353764206111277</v>
+        <v>0.2353764204840535</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2353764206111277</v>
+        <v>0.2353764204840535</v>
       </c>
       <c r="DO2" t="n">
-        <v>183929.9704325646</v>
+        <v>183929.9703382186</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.742859855361276</v>
+        <v>2.742859853980688</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885898</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>306.8418948242568</v>
+        <v>306.8418807843727</v>
       </c>
       <c r="DT2" t="n">
-        <v>125.3773429335055</v>
+        <v>125.377337196729</v>
       </c>
       <c r="DU2" t="n">
-        <v>280.0579766731782</v>
+        <v>280.0579638588214</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>306.8418948242568</v>
+        <v>306.8418807843727</v>
       </c>
       <c r="DX2" t="n">
-        <v>125.3773429335055</v>
+        <v>125.377337196729</v>
       </c>
       <c r="DY2" t="n">
-        <v>280.0579766731782</v>
+        <v>280.0579638588214</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>248.6139868325872</v>
+        <v>248.6139911349734</v>
       </c>
       <c r="EB2" t="n">
-        <v>72670.28658660839</v>
+        <v>72670.29122918428</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.019019550490939</v>
+        <v>1.019019597943794</v>
       </c>
       <c r="ED2" t="n">
-        <v>303394.5291417179</v>
+        <v>303394.5322146062</v>
       </c>
       <c r="EE2" t="n">
-        <v>374708.4568790195</v>
+        <v>374708.4611869442</v>
       </c>
       <c r="EF2" t="n">
-        <v>3793.461869983918</v>
+        <v>3793.46186898639</v>
       </c>
       <c r="EG2" t="n">
-        <v>-568399.2225150838</v>
+        <v>-568399.2342800979</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2663342804369</v>
+        <v>716.26633437519</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.832375529386</v>
+        <v>1004.832375658388</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.40287533761983</v>
+        <v>1.40287533761435</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.999292363272517</v>
+        <v>0.999292363285328</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.1865743479669</v>
+        <v>316.1865770873194</v>
       </c>
       <c r="EM2" t="n">
-        <v>101875.4093838622</v>
+        <v>101875.4158931521</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.815911475084655e-06</v>
+        <v>9.81591084790083e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72619.00373607523</v>
+        <v>72619.00837632199</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.377050012465575e-05</v>
+        <v>1.377049924474124e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004035765715625051</v>
+        <v>0.004035765645971469</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.596159549317302e-05</v>
+        <v>1.596159571773691e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02244419780347814</v>
+        <v>0.02244419814452123</v>
       </c>
       <c r="ET2" t="n">
-        <v>72670.28658660839</v>
+        <v>72670.29122918428</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.019019550490939</v>
+        <v>1.019019597943794</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.019019550490939</v>
+        <v>1.019019597943794</v>
       </c>
       <c r="EW2" t="n">
-        <v>303394.5291417179</v>
+        <v>303394.5322146062</v>
       </c>
       <c r="EX2" t="n">
-        <v>374708.4568790195</v>
+        <v>374708.4611869442</v>
       </c>
       <c r="EY2" t="n">
-        <v>3793.461869983918</v>
+        <v>3793.46186898639</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2663342804369</v>
+        <v>716.26633437519</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.832375529386</v>
+        <v>1004.832375658388</v>
       </c>
       <c r="FB2" t="n">
-        <v>316.1865743479669</v>
+        <v>316.1865770873194</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.999292363272517</v>
+        <v>0.999292363285328</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.596159549317302e-05</v>
+        <v>1.596159571773691e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02244419780347814</v>
+        <v>0.02244419814452123</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5884537387881</v>
+        <v>295.5884537396605</v>
       </c>
       <c r="FI2" t="n">
-        <v>133020.3586515763</v>
+        <v>133020.3591137356</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.568465977903324</v>
+        <v>1.568465983350568</v>
       </c>
       <c r="FK2" t="n">
-        <v>336975.222265816</v>
+        <v>336975.2222654987</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="FM2" t="n">
-        <v>3793.46186999135</v>
+        <v>3793.461868993822</v>
       </c>
       <c r="FN2" t="n">
-        <v>-699519.0973791047</v>
+        <v>-699519.0970877573</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8502656711661</v>
+        <v>717.8502656723613</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.739822659197</v>
+        <v>1006.739822666779</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402437069126008</v>
+        <v>1.402437069134236</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995380147669315</v>
+        <v>0.9995380147653549</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.7973817650274</v>
+        <v>344.7973817660098</v>
       </c>
       <c r="FT2" t="n">
-        <v>186467.4455444197</v>
+        <v>186467.4461930792</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.362866408559146e-06</v>
+        <v>5.362866389903479e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>132959.5813241198</v>
+        <v>132959.5817858628</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.52108264813401e-06</v>
+        <v>7.521082622014739e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395470178508462</v>
+        <v>0.003395470178541276</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832867335233305e-05</v>
+        <v>1.832867335244202e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606617654981031</v>
+        <v>0.0260661765500235</v>
       </c>
       <c r="GA2" t="n">
-        <v>133020.3586515763</v>
+        <v>133020.3591137356</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.568465977903324</v>
+        <v>1.568465983350568</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.568465977903324</v>
+        <v>1.568465983350568</v>
       </c>
       <c r="GD2" t="n">
-        <v>336975.222265816</v>
+        <v>336975.2222654987</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GF2" t="n">
-        <v>3793.46186999135</v>
+        <v>3793.461868993822</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8502656711661</v>
+        <v>717.8502656723613</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.739822659197</v>
+        <v>1006.739822666779</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.7973817650274</v>
+        <v>344.7973817660098</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995380147669315</v>
+        <v>0.9995380147653549</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832867335233305e-05</v>
+        <v>1.832867335244202e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606617654981031</v>
+        <v>0.0260661765500235</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5884537387881</v>
+        <v>295.5884537396605</v>
       </c>
       <c r="GP2" t="n">
-        <v>133020.3586515763</v>
+        <v>133020.3591137356</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.568465977903324</v>
+        <v>1.568465983350568</v>
       </c>
       <c r="GR2" t="n">
-        <v>336975.222265816</v>
+        <v>336975.2222654987</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="GT2" t="n">
-        <v>3793.46186999135</v>
+        <v>3793.461868993822</v>
       </c>
       <c r="GU2" t="n">
-        <v>-699519.0973791047</v>
+        <v>-699519.0970877573</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8502656711661</v>
+        <v>717.8502656723613</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.739822659197</v>
+        <v>1006.739822666779</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402437069126008</v>
+        <v>1.402437069134236</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995380147669315</v>
+        <v>0.9995380147653549</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.7973817650274</v>
+        <v>344.7973817660098</v>
       </c>
       <c r="HA2" t="n">
-        <v>186467.4455444197</v>
+        <v>186467.4461930792</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.362866408559146e-06</v>
+        <v>5.362866389903479e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>132959.5813241198</v>
+        <v>132959.5817858628</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.52108264813401e-06</v>
+        <v>7.521082622014739e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395470178508462</v>
+        <v>0.003395470178541276</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832867335233305e-05</v>
+        <v>1.832867335244202e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606617654981031</v>
+        <v>0.0260661765500235</v>
       </c>
       <c r="HH2" t="n">
-        <v>133020.3586515763</v>
+        <v>133020.3591137356</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.568465977903324</v>
+        <v>1.568465983350568</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.568465977903324</v>
+        <v>1.568465983350568</v>
       </c>
       <c r="HK2" t="n">
-        <v>336975.222265816</v>
+        <v>336975.2222654987</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="HM2" t="n">
-        <v>3793.46186999135</v>
+        <v>3793.461868993822</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8502656711661</v>
+        <v>717.8502656723613</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.739822659197</v>
+        <v>1006.739822666779</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.7973817650274</v>
+        <v>344.7973817660098</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995380147669315</v>
+        <v>0.9995380147653549</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832867335233305e-05</v>
+        <v>1.832867335244202e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606617654981031</v>
+        <v>0.0260661765500235</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.0179540785796714</v>
+        <v>0.01795407853738893</v>
       </c>
       <c r="HW2" t="n">
         <v>0</v>
@@ -9391,184 +9391,184 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.04927004796753447</v>
+        <v>0.0492700479314822</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.082504195086449</v>
+        <v>0.08250419500811426</v>
       </c>
       <c r="IB2" t="n">
-        <v>8.404659516667023e-06</v>
+        <v>8.402798221257557e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9704456789698281</v>
+        <v>0.9704456261583614</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9704456789698281</v>
+        <v>0.9704456261583614</v>
       </c>
       <c r="IE2" t="n">
-        <v>512458.3942113993</v>
+        <v>512458.3874172606</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.742849772510407</v>
+        <v>2.742849774735079</v>
       </c>
       <c r="IG2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="IH2" t="n">
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372100.6480509976</v>
+        <v>372100.652559201</v>
       </c>
       <c r="IJ2" t="n">
-        <v>2102.618825656711</v>
+        <v>2102.618788526685</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02701446673512969</v>
+        <v>0.02701446602094412</v>
       </c>
       <c r="IM2" t="n">
         <v>0</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01388396193096741</v>
+        <v>0.0138839619551212</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.07948209073342892</v>
+        <v>0.07948208973906772</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04125112778125927</v>
+        <v>0.04125112767902427</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1616316471807853</v>
+        <v>0.1616316453941573</v>
       </c>
       <c r="IR2" t="n">
-        <v>9.954133350920102e-10</v>
+        <v>4.385464213996215e-12</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>263.9934637848094</v>
+        <v>263.9934657090399</v>
       </c>
       <c r="IU2" t="n">
-        <v>108.9555780495275</v>
+        <v>108.9555784026993</v>
       </c>
       <c r="IV2" t="n">
-        <v>240.4604560691732</v>
+        <v>240.4604580216949</v>
       </c>
       <c r="IW2" t="n">
-        <v>65.62413751244526</v>
+        <v>65.6241376175242</v>
       </c>
       <c r="IX2" t="n">
-        <v>132.3628766986951</v>
+        <v>132.3628780980769</v>
       </c>
       <c r="IY2" t="n">
-        <v>108.9555780495275</v>
+        <v>108.9555784026993</v>
       </c>
       <c r="IZ2" t="n">
-        <v>75.15725606917317</v>
+        <v>75.15725802169487</v>
       </c>
       <c r="JA2" t="n">
-        <v>34.59780420546672</v>
+        <v>34.59780481438298</v>
       </c>
       <c r="JB2" t="n">
-        <v>260.8261693956645</v>
+        <v>260.8261688887208</v>
       </c>
       <c r="JC2" t="n">
-        <v>86657.47196945061</v>
+        <v>86657.47143199154</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.158210349809009</v>
+        <v>1.158210344879826</v>
       </c>
       <c r="JE2" t="n">
-        <v>312118.0067443354</v>
+        <v>312118.0063819693</v>
       </c>
       <c r="JF2" t="n">
-        <v>386938.1566279386</v>
+        <v>386938.1561199541</v>
       </c>
       <c r="JG2" t="n">
-        <v>3790.988616017663</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="JH2" t="n">
-        <v>-601850.8823105203</v>
+        <v>-601850.8808527451</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.568879379805</v>
+        <v>716.5688793660603</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.231555314353</v>
+        <v>1005.231555298065</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.40284009568541</v>
+        <v>1.402840095689588</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993351898600223</v>
+        <v>0.9993351898573846</v>
       </c>
       <c r="JM2" t="n">
-        <v>323.8691152380638</v>
+        <v>323.8691149229497</v>
       </c>
       <c r="JN2" t="n">
-        <v>121486.077850977</v>
+        <v>121486.0770975451</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.231395874238917e-06</v>
+        <v>8.23139592528836e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>86600.08950743626</v>
+        <v>86600.08897010222</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.154733217584182e-05</v>
+        <v>1.154733224749041e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003847284345133047</v>
+        <v>0.00384728435260392</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.659305186231952e-05</v>
+        <v>1.659305183636236e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02340512762064837</v>
+        <v>0.0234051275810778</v>
       </c>
       <c r="JU2" t="n">
-        <v>86657.47196945061</v>
+        <v>86657.47143199154</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.158210349809009</v>
+        <v>1.158210344879826</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.158210349809009</v>
+        <v>1.158210344879826</v>
       </c>
       <c r="JX2" t="n">
-        <v>312118.0067443354</v>
+        <v>312118.0063819693</v>
       </c>
       <c r="JY2" t="n">
-        <v>386938.1566279386</v>
+        <v>386938.1561199541</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3790.988616017663</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.568879379805</v>
+        <v>716.5688793660603</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.231555314353</v>
+        <v>1005.231555298065</v>
       </c>
       <c r="KC2" t="n">
-        <v>323.8691152380638</v>
+        <v>323.8691149229497</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993351898600223</v>
+        <v>0.9993351898573846</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.659305186231952e-05</v>
+        <v>1.659305183636236e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02340512762064837</v>
+        <v>0.0234051275810778</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5911242356835</v>
+        <v>295.591124235766</v>
       </c>
       <c r="KJ2" t="n">
-        <v>134171.9683578352</v>
+        <v>134171.9684364595</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.582036720936162</v>
+        <v>1.582036721863215</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201356</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KN2" t="n">
-        <v>3790.988616022888</v>
+        <v>3790.988615854417</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698798.1558863939</v>
+        <v>-698798.1558370085</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8532654820223</v>
+        <v>717.8532654822227</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.758731672278</v>
+        <v>1006.758731673566</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.40245754958886</v>
+        <v>1.402457549590263</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995340929340343</v>
+        <v>0.9995340929337653</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8001192148371</v>
+        <v>344.8001192149659</v>
       </c>
       <c r="KU2" t="n">
-        <v>188083.7929835405</v>
+        <v>188083.7930938956</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.316779208549414e-06</v>
+        <v>5.316779205429878e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>134110.150456018</v>
+        <v>134110.1505345709</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.456557140527211e-06</v>
+        <v>7.456557136159652e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395546168351268</v>
+        <v>0.003395546168357614</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832896897517917e-05</v>
+        <v>1.832896897519451e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606674484497824</v>
+        <v>0.02606674484500959</v>
       </c>
       <c r="LB2" t="n">
-        <v>134171.9683578352</v>
+        <v>134171.9684364595</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.582036720936162</v>
+        <v>1.582036721863215</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.582036720936162</v>
+        <v>1.582036721863215</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.7888202369</v>
+        <v>336974.7888201356</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.431088389</v>
       </c>
       <c r="LG2" t="n">
-        <v>3790.988616022888</v>
+        <v>3790.988615854417</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8532654820223</v>
+        <v>717.8532654822227</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.758731672278</v>
+        <v>1006.758731673566</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8001192148371</v>
+        <v>344.8001192149659</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995340929340343</v>
+        <v>0.9995340929337653</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832896897517917e-05</v>
+        <v>1.832896897519451e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606674484497824</v>
+        <v>0.02606674484500959</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>269.5697208250006</v>
+        <v>269.5697205027492</v>
       </c>
       <c r="LQ2" t="n">
-        <v>97234.10294177075</v>
+        <v>97234.10259267004</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.257366909628778</v>
+        <v>1.257366906620045</v>
       </c>
       <c r="LS2" t="n">
-        <v>318366.5953344513</v>
+        <v>318366.5951039911</v>
       </c>
       <c r="LT2" t="n">
-        <v>395698.1221920159</v>
+        <v>395698.1218689568</v>
       </c>
       <c r="LU2" t="n">
-        <v>3790.988616017664</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="LV2" t="n">
-        <v>-626237.6206786212</v>
+        <v>-626237.6197346143</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.8283699417135</v>
+        <v>716.8283699315984</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.55146358256</v>
+        <v>1005.55146357119</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402778553064694</v>
+        <v>1.402778553068627</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993767605637589</v>
+        <v>0.9993767605617614</v>
       </c>
       <c r="MA2" t="n">
-        <v>329.2593861136751</v>
+        <v>329.2593859166727</v>
       </c>
       <c r="MB2" t="n">
-        <v>136313.3386958558</v>
+        <v>136313.338206556</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.336039228202117e-06</v>
+        <v>7.336039254535e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>97173.81150292602</v>
+        <v>97173.81115384588</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.02908384937632e-05</v>
+        <v>1.029083853073126e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003722730533770097</v>
+        <v>0.003722730538219743</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.703796107236315e-05</v>
+        <v>1.703796105608079e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02408445695813739</v>
+        <v>0.02408445693324709</v>
       </c>
       <c r="MI2" t="n">
-        <v>97234.10294177075</v>
+        <v>97234.10259267004</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.257366909628778</v>
+        <v>1.257366906620045</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.257366909628778</v>
+        <v>1.257366906620045</v>
       </c>
       <c r="ML2" t="n">
-        <v>318366.5953344513</v>
+        <v>318366.5951039911</v>
       </c>
       <c r="MM2" t="n">
-        <v>395698.1221920159</v>
+        <v>395698.1218689568</v>
       </c>
       <c r="MN2" t="n">
-        <v>3790.988616017664</v>
+        <v>3790.988615849193</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.8283699417135</v>
+        <v>716.8283699315984</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.55146358256</v>
+        <v>1005.55146357119</v>
       </c>
       <c r="MQ2" t="n">
-        <v>329.2593861136751</v>
+        <v>329.2593859166727</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993767605637589</v>
+        <v>0.9993767605617614</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.703796107236315e-05</v>
+        <v>1.703796105608079e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02408445695813739</v>
+        <v>0.02408445693324709</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.815123923103189</v>
+        <v>0.8151239298376614</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4086924948104427</v>
+        <v>0.4086924995289126</v>
       </c>
       <c r="MY2" t="n">
-        <v>240769.6711351619</v>
+        <v>240769.6730326174</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.709176839689941</v>
+        <v>2.709176836941664</v>
       </c>
       <c r="NA2" t="n">
-        <v>382035.5482267956</v>
+        <v>382035.5479039372</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>162.4251649204332</v>
+        <v>162.4251420417079</v>
       </c>
       <c r="ND2" t="n">
-        <v>138.1173084476742</v>
+        <v>138.1172957780901</v>
       </c>
       <c r="NE2" t="n">
-        <v>-85.47247104536029</v>
+        <v>-85.47244804155639</v>
       </c>
       <c r="NF2" t="n">
-        <v>-31.75086605055416</v>
+        <v>-31.75086150214334</v>
       </c>
       <c r="NG2" t="n">
-        <v>286.2950018443926</v>
+        <v>286.294975582379</v>
       </c>
       <c r="NH2" t="n">
-        <v>138.1173084476742</v>
+        <v>138.1172957780901</v>
       </c>
       <c r="NI2" t="n">
-        <v>-250.7756710453603</v>
+        <v>-250.7756480415564</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK2" t="n">
-        <v>228.6352255557661</v>
+        <v>228.6352327441526</v>
       </c>
       <c r="NL2" t="n">
-        <v>51079.99169404837</v>
+        <v>51079.99773652203</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7788690598462583</v>
+        <v>0.7788691274872207</v>
       </c>
       <c r="NN2" t="n">
-        <v>289133.4500704968</v>
+        <v>289133.4552037098</v>
       </c>
       <c r="NO2" t="n">
-        <v>354715.7081513752</v>
+        <v>354715.7153470996</v>
       </c>
       <c r="NP2" t="n">
-        <v>3810.753365423897</v>
+        <v>3810.753362964588</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-516556.7470897122</v>
+        <v>-516556.7667248712</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.894853943011</v>
+        <v>715.8948540464</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.247083808862</v>
+        <v>1004.247083967849</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402785727928706</v>
+        <v>1.402785727948199</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992795353060636</v>
+        <v>0.9992795353148727</v>
       </c>
       <c r="NV2" t="n">
-        <v>303.2023495273424</v>
+        <v>303.2023542985629</v>
       </c>
       <c r="NW2" t="n">
-        <v>71602.72930086638</v>
+        <v>71602.73777270733</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.396594808276254e-05</v>
+        <v>1.396594643034959e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>51043.24051442406</v>
+        <v>51043.24655301272</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.959123264749257e-05</v>
+        <v>1.95912303297835e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004386854122283169</v>
+        <v>0.004386853984742371</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.490180029838534e-05</v>
+        <v>1.490180068569743e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.02083979073452596</v>
+        <v>0.02083979131872585</v>
       </c>
       <c r="OD2" t="n">
-        <v>51079.99169404837</v>
+        <v>51079.99773652203</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7788690598462583</v>
+        <v>0.7788691274872207</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7788690598462583</v>
+        <v>0.7788691274872207</v>
       </c>
       <c r="OG2" t="n">
-        <v>289133.4500704968</v>
+        <v>289133.4552037098</v>
       </c>
       <c r="OH2" t="n">
-        <v>354715.7081513752</v>
+        <v>354715.7153470996</v>
       </c>
       <c r="OI2" t="n">
-        <v>3810.753365423897</v>
+        <v>3810.753362964588</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.894853943011</v>
+        <v>715.8948540464</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.247083808862</v>
+        <v>1004.247083967849</v>
       </c>
       <c r="OL2" t="n">
-        <v>303.2023495273424</v>
+        <v>303.2023542985629</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992795353060636</v>
+        <v>0.9992795353148727</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.490180029838534e-05</v>
+        <v>1.490180068569743e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.02083979073452596</v>
+        <v>0.02083979131872585</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>241.8085164564445</v>
+        <v>241.808519933113</v>
       </c>
       <c r="OS2" t="n">
-        <v>62112.35043771921</v>
+        <v>62112.35408631725</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.8954655972708678</v>
+        <v>0.8954656369936439</v>
       </c>
       <c r="OU2" t="n">
-        <v>298543.48516649</v>
+        <v>298543.4876487531</v>
       </c>
       <c r="OV2" t="n">
-        <v>367906.6752510901</v>
+        <v>367906.6787309343</v>
       </c>
       <c r="OW2" t="n">
-        <v>3810.753365416434</v>
+        <v>3810.753362957124</v>
       </c>
       <c r="OX2" t="n">
-        <v>-553565.9426216608</v>
+        <v>-553565.9517958608</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.1111450664998</v>
+        <v>716.1111451345535</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.545565074159</v>
+        <v>1004.545565175955</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402778845148227</v>
+        <v>1.402778845157069</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9993123068875671</v>
+        <v>0.9993123068917844</v>
       </c>
       <c r="PC2" t="n">
-        <v>311.8243784892034</v>
+        <v>311.8243807331975</v>
       </c>
       <c r="PD2" t="n">
-        <v>87070.09859436384</v>
+        <v>87070.10370995787</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.148499905413833e-05</v>
+        <v>1.14849983793649e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>62069.72602667344</v>
+        <v>62069.72967303955</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.611091370969265e-05</v>
+        <v>1.61109127632363e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.004148320329261902</v>
+        <v>0.004148320269843088</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.560393107853529e-05</v>
+        <v>1.560393126197605e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02190110348843892</v>
+        <v>0.02190110376642967</v>
       </c>
       <c r="PK2" t="n">
-        <v>62112.35043771921</v>
+        <v>62112.35408631725</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.8954655972708678</v>
+        <v>0.8954656369936439</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.8954655972708678</v>
+        <v>0.8954656369936439</v>
       </c>
       <c r="PN2" t="n">
-        <v>298543.48516649</v>
+        <v>298543.4876487531</v>
       </c>
       <c r="PO2" t="n">
-        <v>367906.6752510901</v>
+        <v>367906.6787309343</v>
       </c>
       <c r="PP2" t="n">
-        <v>3810.753365416434</v>
+        <v>3810.753362957124</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.1111450664998</v>
+        <v>716.1111451345535</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.545565074159</v>
+        <v>1004.545565175955</v>
       </c>
       <c r="PS2" t="n">
-        <v>311.8243784892034</v>
+        <v>311.8243807331975</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9993123068875671</v>
+        <v>0.9993123068917844</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.560393107853529e-05</v>
+        <v>1.560393126197605e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02190110348843892</v>
+        <v>0.02190110376642967</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>269.5516160838139</v>
+        <v>269.5516157638118</v>
       </c>
       <c r="PZ2" t="n">
-        <v>90760.58074713941</v>
+        <v>90760.58114625425</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.173686207062064</v>
+        <v>1.173686213624237</v>
       </c>
       <c r="QB2" t="n">
-        <v>318368.6109468882</v>
+        <v>318368.6107163328</v>
       </c>
       <c r="QC2" t="n">
-        <v>395698.1221919155</v>
+        <v>395698.1218690572</v>
       </c>
       <c r="QD2" t="n">
-        <v>3810.753365413225</v>
+        <v>3810.753362953915</v>
       </c>
       <c r="QE2" t="n">
-        <v>-631496.6059520518</v>
+        <v>-631496.6043925504</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.8072235491804</v>
+        <v>716.8072235414497</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.418959908381</v>
+        <v>1005.418959911948</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402635083572646</v>
+        <v>1.402635083592749</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.999417834772521</v>
+        <v>0.9994178347660568</v>
       </c>
       <c r="QJ2" t="n">
-        <v>329.2449559736107</v>
+        <v>329.2449557784114</v>
       </c>
       <c r="QK2" t="n">
-        <v>127230.2151162992</v>
+        <v>127230.2156767916</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.859768209036784e-06</v>
+        <v>7.859768174411829e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>90707.99426478888</v>
+        <v>90707.99466308841</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.102438663874393e-05</v>
+        <v>1.102438659033576e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003722110330506644</v>
+        <v>0.00372211033502227</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.703606690956442e-05</v>
+        <v>1.703606689350777e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.02408077845520612</v>
+        <v>0.02408077843074944</v>
       </c>
       <c r="QR2" t="n">
-        <v>90760.58074713941</v>
+        <v>90760.58114625425</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.173686207062064</v>
+        <v>1.173686213624237</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.173686207062064</v>
+        <v>1.173686213624237</v>
       </c>
       <c r="QU2" t="n">
-        <v>318368.6109468882</v>
+        <v>318368.6107163328</v>
       </c>
       <c r="QV2" t="n">
-        <v>395698.1221919155</v>
+        <v>395698.1218690572</v>
       </c>
       <c r="QW2" t="n">
-        <v>3810.753365413225</v>
+        <v>3810.753362953915</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.8072235491804</v>
+        <v>716.8072235414497</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.418959908381</v>
+        <v>1005.418959911948</v>
       </c>
       <c r="QZ2" t="n">
-        <v>329.2449559736107</v>
+        <v>329.2449557784114</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.999417834772521</v>
+        <v>0.9994178347660568</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.703606690956442e-05</v>
+        <v>1.703606689350777e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02408077845520612</v>
+        <v>0.02408077843074944</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.02720806867259296</v>
+        <v>0.02720806913725058</v>
       </c>
       <c r="RG2" t="n">
         <v>0</v>
@@ -10135,43 +10135,43 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.08021887399643278</v>
+        <v>0.08021887416424303</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.0417912625442662</v>
+        <v>0.04179126292740102</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1631170474418686</v>
+        <v>0.1631170484574712</v>
       </c>
       <c r="RL2" t="n">
-        <v>2.373118846857314e-05</v>
+        <v>2.373451872031418e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.5356988993443995</v>
+        <v>0.5356988154576402</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9442374120474119</v>
+        <v>0.9442373105733368</v>
       </c>
       <c r="RO2" t="n">
-        <v>389954.4588462242</v>
+        <v>389954.4468058071</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.709150565865862</v>
+        <v>2.709150552630277</v>
       </c>
       <c r="RQ2" t="n">
-        <v>382035.5482267955</v>
+        <v>382035.5479039372</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>350240.9684025621</v>
+        <v>350240.9759711513</v>
       </c>
       <c r="RT2" t="n">
-        <v>3749.900749898166</v>
+        <v>3749.900725616433</v>
       </c>
       <c r="RU2" t="n">
-        <v>4.367165575631169</v>
+        <v>4.367165037087645</v>
       </c>
     </row>
     <row r="3">
@@ -10179,7 +10179,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01762361544000119</v>
+        <v>0.01762361549035323</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10188,25 +10188,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914564470215346</v>
+        <v>0.04914564471344091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204932868139779</v>
+        <v>0.08204932874303728</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.00510605183635e-11</v>
+        <v>1.20436993711337e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.7124835196426</v>
+        <v>80.71248350569044</v>
       </c>
       <c r="K3" t="n">
-        <v>80.7124835196426</v>
+        <v>80.71248350569044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.7124835196426</v>
+        <v>80.71248350569044</v>
       </c>
       <c r="O3" t="n">
-        <v>80.7124835196426</v>
+        <v>80.71248350569044</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750136373</v>
+        <v>292.3522750145598</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796826828</v>
+        <v>132772.1796841469</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932746988001</v>
+        <v>1.582932747000451</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439817193</v>
+        <v>334649.8439823789</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785907361</v>
+        <v>418527.178591661</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723462</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.3142047729</v>
+        <v>-687417.3142073378</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517016</v>
+        <v>717.7129007517435</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845897</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602421</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994979633405039</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100789467</v>
+        <v>342.9081100794882</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6855985965</v>
+        <v>186130.6856006483</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261129614e-06</v>
+        <v>5.372569261070389e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094688279</v>
+        <v>132706.2094702922</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418275803e-06</v>
+        <v>7.535442418192659e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124718317</v>
+        <v>0.0034334621247075</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103493861e-05</v>
+        <v>1.817140103498375e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0258242925086659</v>
+        <v>0.02582429250873542</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796826828</v>
+        <v>132772.1796841469</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932746988001</v>
+        <v>1.582932747000451</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932746988001</v>
+        <v>1.582932747000451</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439817193</v>
+        <v>334649.8439823789</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785907361</v>
+        <v>418527.178591661</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723462</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517016</v>
+        <v>717.7129007517435</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845897</v>
+        <v>1006.647652845946</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100789467</v>
+        <v>342.9081100794882</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994979633405039</v>
+        <v>0.9994979633405103</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103493861e-05</v>
+        <v>1.817140103498375e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0258242925086659</v>
+        <v>0.02582429250873542</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.23537642052578</v>
+        <v>0.2353764204847205</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.23537642052578</v>
+        <v>0.2353764204847205</v>
       </c>
       <c r="DO3" t="n">
-        <v>183929.9703692434</v>
+        <v>183929.9703384385</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.742859854434935</v>
+        <v>2.74285985398237</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885898</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>306.8418926716206</v>
+        <v>306.8418874424321</v>
       </c>
       <c r="DT3" t="n">
-        <v>125.3773420539261</v>
+        <v>125.3773399172499</v>
       </c>
       <c r="DU3" t="n">
-        <v>280.0579747084435</v>
+        <v>280.0579699357055</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>306.8418926716206</v>
+        <v>306.8418874424321</v>
       </c>
       <c r="DX3" t="n">
-        <v>125.3773420539261</v>
+        <v>125.3773399172499</v>
       </c>
       <c r="DY3" t="n">
-        <v>280.0579747084435</v>
+        <v>280.0579699357055</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>248.6139874924428</v>
+        <v>248.6139890948207</v>
       </c>
       <c r="EB3" t="n">
-        <v>72670.28735515926</v>
+        <v>72670.28905585139</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.019019558561887</v>
+        <v>1.019019575836876</v>
       </c>
       <c r="ED3" t="n">
-        <v>303394.5296128592</v>
+        <v>303394.5307573975</v>
       </c>
       <c r="EE3" t="n">
-        <v>374708.4575395388</v>
+        <v>374708.459144073</v>
       </c>
       <c r="EF3" t="n">
-        <v>3793.461869607081</v>
+        <v>3793.461869347984</v>
       </c>
       <c r="EG3" t="n">
-        <v>-568399.224264015</v>
+        <v>-568399.228673625</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2663342951955</v>
+        <v>716.2663343303715</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.832375550579</v>
+        <v>1004.832375597917</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402875337620512</v>
+        <v>1.402875337617707</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.999292363273933</v>
+        <v>0.99929236327898</v>
       </c>
       <c r="EL3" t="n">
-        <v>316.1865747680989</v>
+        <v>316.1865757883424</v>
       </c>
       <c r="EM3" t="n">
-        <v>101875.4104614801</v>
+        <v>101875.4128459745</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.815911371253892e-06</v>
+        <v>9.815911141502814e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72619.0045041893</v>
+        <v>72619.00620405393</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.377049997900083e-05</v>
+        <v>1.377049965666117e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.00403576570495278</v>
+        <v>0.004035765679005784</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.596159552762323e-05</v>
+        <v>1.596159561125518e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0224441978558056</v>
+        <v>0.02244419798281252</v>
       </c>
       <c r="ET3" t="n">
-        <v>72670.28735515926</v>
+        <v>72670.28905585139</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.019019558561887</v>
+        <v>1.019019575836876</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.019019558561887</v>
+        <v>1.019019575836876</v>
       </c>
       <c r="EW3" t="n">
-        <v>303394.5296128592</v>
+        <v>303394.5307573975</v>
       </c>
       <c r="EX3" t="n">
-        <v>374708.4575395388</v>
+        <v>374708.459144073</v>
       </c>
       <c r="EY3" t="n">
-        <v>3793.461869607081</v>
+        <v>3793.461869347984</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2663342951955</v>
+        <v>716.2663343303715</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.832375550579</v>
+        <v>1004.832375597917</v>
       </c>
       <c r="FB3" t="n">
-        <v>316.1865747680989</v>
+        <v>316.1865757883424</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.999292363273933</v>
+        <v>0.99929236327898</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.596159552762323e-05</v>
+        <v>1.596159561125518e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0224441978558056</v>
+        <v>0.02244419798281252</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5884537390933</v>
+        <v>295.5884537393719</v>
       </c>
       <c r="FI3" t="n">
-        <v>133020.3588261285</v>
+        <v>133020.358946251</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.568465979960814</v>
+        <v>1.568465981376363</v>
       </c>
       <c r="FK3" t="n">
-        <v>336975.2222656787</v>
+        <v>336975.2222656335</v>
       </c>
       <c r="FL3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="FM3" t="n">
-        <v>3793.461869614513</v>
+        <v>3793.461869355416</v>
       </c>
       <c r="FN3" t="n">
-        <v>-699519.0972689742</v>
+        <v>-699519.0971934445</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8502656716164</v>
+        <v>717.8502656719293</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.739822662059</v>
+        <v>1006.739822664032</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402437069129117</v>
+        <v>1.402437069131254</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995380147663357</v>
+        <v>0.9995380147659265</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.7973817653842</v>
+        <v>344.7973817656697</v>
       </c>
       <c r="FT3" t="n">
-        <v>186467.4457894109</v>
+        <v>186467.4459580075</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.362866401513115e-06</v>
+        <v>5.36286639666422e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>132959.5814985147</v>
+        <v>132959.5816185291</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.521082638269067e-06</v>
+        <v>7.521082631480252e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395470178521139</v>
+        <v>0.003395470178529065</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832867335237303e-05</v>
+        <v>1.832867335240386e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606617654988902</v>
+        <v>0.02606617654994829</v>
       </c>
       <c r="GA3" t="n">
-        <v>133020.3588261285</v>
+        <v>133020.358946251</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.568465979960814</v>
+        <v>1.568465981376363</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.568465979960814</v>
+        <v>1.568465981376363</v>
       </c>
       <c r="GD3" t="n">
-        <v>336975.2222656787</v>
+        <v>336975.2222656335</v>
       </c>
       <c r="GE3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GF3" t="n">
-        <v>3793.461869614513</v>
+        <v>3793.461869355416</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8502656716164</v>
+        <v>717.8502656719293</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.739822662059</v>
+        <v>1006.739822664032</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.7973817653842</v>
+        <v>344.7973817656697</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995380147663357</v>
+        <v>0.9995380147659265</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832867335237303e-05</v>
+        <v>1.832867335240386e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606617654988902</v>
+        <v>0.02606617654994829</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5884537390933</v>
+        <v>295.5884537393719</v>
       </c>
       <c r="GP3" t="n">
-        <v>133020.3588261285</v>
+        <v>133020.358946251</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.568465979960814</v>
+        <v>1.568465981376363</v>
       </c>
       <c r="GR3" t="n">
-        <v>336975.2222656787</v>
+        <v>336975.2222656335</v>
       </c>
       <c r="GS3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GT3" t="n">
-        <v>3793.461869614513</v>
+        <v>3793.461869355416</v>
       </c>
       <c r="GU3" t="n">
-        <v>-699519.0972689742</v>
+        <v>-699519.0971934445</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8502656716164</v>
+        <v>717.8502656719293</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.739822662059</v>
+        <v>1006.739822664032</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402437069129117</v>
+        <v>1.402437069131254</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995380147663357</v>
+        <v>0.9995380147659265</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.7973817653842</v>
+        <v>344.7973817656697</v>
       </c>
       <c r="HA3" t="n">
-        <v>186467.4457894109</v>
+        <v>186467.4459580075</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.362866401513115e-06</v>
+        <v>5.36286639666422e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>132959.5814985147</v>
+        <v>132959.5816185291</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.521082638269067e-06</v>
+        <v>7.521082631480252e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395470178521139</v>
+        <v>0.003395470178529065</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832867335237303e-05</v>
+        <v>1.832867335240386e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606617654988902</v>
+        <v>0.02606617654994829</v>
       </c>
       <c r="HH3" t="n">
-        <v>133020.3588261285</v>
+        <v>133020.358946251</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568465979960814</v>
+        <v>1.568465981376363</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.568465979960814</v>
+        <v>1.568465981376363</v>
       </c>
       <c r="HK3" t="n">
-        <v>336975.2222656787</v>
+        <v>336975.2222656335</v>
       </c>
       <c r="HL3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="HM3" t="n">
-        <v>3793.461869614513</v>
+        <v>3793.461869355416</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8502656716164</v>
+        <v>717.8502656719293</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.739822662059</v>
+        <v>1006.739822664032</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.7973817653842</v>
+        <v>344.7973817656697</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995380147663357</v>
+        <v>0.9995380147659265</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832867335237303e-05</v>
+        <v>1.832867335240386e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606617654988902</v>
+        <v>0.02606617654994829</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01795407857379167</v>
+        <v>0.0179540785579861</v>
       </c>
       <c r="HW3" t="n">
         <v>0</v>
@@ -10884,28 +10884,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.04927004796252109</v>
+        <v>0.04927004794904444</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.0825041950755559</v>
+        <v>0.08250419504627367</v>
       </c>
       <c r="IB3" t="n">
-        <v>8.402592933734465e-06</v>
+        <v>8.40279279450129e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.970445670872231</v>
+        <v>0.9704456512025808</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.970445670872231</v>
+        <v>0.9704456512025808</v>
       </c>
       <c r="IE3" t="n">
-        <v>512458.3935690484</v>
+        <v>512458.3908381687</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.742849774992274</v>
+        <v>2.742849774747049</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885898</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372100.6487973036</v>
+        <v>372100.6504487718</v>
       </c>
       <c r="IJ3" t="n">
-        <v>2117.88408403768</v>
+        <v>2117.884089555708</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02714521510899845</v>
+        <v>0.02714521513407107</v>
       </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01389203144369766</v>
+        <v>0.01389203144473616</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.07971792757284088</v>
+        <v>0.07971792769828766</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04153273176620009</v>
+        <v>0.04153273186482422</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1622879058917371</v>
+        <v>0.1622879061419191</v>
       </c>
       <c r="IR3" t="n">
-        <v>-9.002379397493598e-11</v>
+        <v>-1.195210597160212e-12</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>264.1672627907185</v>
+        <v>264.1672631523962</v>
       </c>
       <c r="IU3" t="n">
-        <v>108.9595187901969</v>
+        <v>108.959518732124</v>
       </c>
       <c r="IV3" t="n">
-        <v>240.6494670581035</v>
+        <v>240.6494674814205</v>
       </c>
       <c r="IW3" t="n">
-        <v>65.64027846768528</v>
+        <v>65.64027851702951</v>
       </c>
       <c r="IX3" t="n">
-        <v>132.4735320529438</v>
+        <v>132.4735322459466</v>
       </c>
       <c r="IY3" t="n">
-        <v>108.9595187901969</v>
+        <v>108.959518732124</v>
       </c>
       <c r="IZ3" t="n">
-        <v>75.34626705810351</v>
+        <v>75.34626748142051</v>
       </c>
       <c r="JA3" t="n">
-        <v>34.66412850451209</v>
+        <v>34.66412866938744</v>
       </c>
       <c r="JB3" t="n">
-        <v>260.7802902593295</v>
+        <v>260.7802901637323</v>
       </c>
       <c r="JC3" t="n">
-        <v>86583.36967950116</v>
+        <v>86583.36956172703</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.15742358503313</v>
+        <v>1.157423583883476</v>
       </c>
       <c r="JE3" t="n">
-        <v>312085.2739326275</v>
+        <v>312085.273864334</v>
       </c>
       <c r="JF3" t="n">
-        <v>386892.2597234197</v>
+        <v>386892.2596276757</v>
       </c>
       <c r="JG3" t="n">
-        <v>3791.058035511575</v>
+        <v>3791.058035534626</v>
       </c>
       <c r="JH3" t="n">
-        <v>-601740.9551672526</v>
+        <v>-601740.9549065932</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.5675470249048</v>
+        <v>716.5675470222574</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.229517577423</v>
+        <v>1005.229517573989</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.402839860318828</v>
+        <v>1.402839860319218</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.999335146015625</v>
+        <v>0.9993351460152541</v>
       </c>
       <c r="JM3" t="n">
-        <v>323.8405877994065</v>
+        <v>323.8405877399733</v>
       </c>
       <c r="JN3" t="n">
-        <v>121382.1668535955</v>
+        <v>121382.1666884746</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.238442482297623e-06</v>
+        <v>8.238442493504699e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>86526.03214882173</v>
+        <v>86526.03203109295</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.15572155011111e-05</v>
+        <v>1.155721551683604e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003847956673679997</v>
+        <v>0.003847956675086783</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.659069868724506e-05</v>
+        <v>1.659069868234729e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.0234015370018756</v>
+        <v>0.02340153699440711</v>
       </c>
       <c r="JU3" t="n">
-        <v>86583.36967950116</v>
+        <v>86583.36956172703</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.15742358503313</v>
+        <v>1.157423583883476</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.15742358503313</v>
+        <v>1.157423583883476</v>
       </c>
       <c r="JX3" t="n">
-        <v>312085.2739326275</v>
+        <v>312085.273864334</v>
       </c>
       <c r="JY3" t="n">
-        <v>386892.2597234197</v>
+        <v>386892.2596276757</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3791.058035511575</v>
+        <v>3791.058035534626</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.5675470249048</v>
+        <v>716.5675470222574</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.229517577423</v>
+        <v>1005.229517573989</v>
       </c>
       <c r="KC3" t="n">
-        <v>323.8405877994065</v>
+        <v>323.8405877399733</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.999335146015625</v>
+        <v>0.9993351460152541</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.659069868724506e-05</v>
+        <v>1.659069868234729e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.0234015370018756</v>
+        <v>0.02340153699440711</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5910489678904</v>
+        <v>295.5910489675651</v>
       </c>
       <c r="KJ3" t="n">
-        <v>134139.5092316731</v>
+        <v>134139.5092204191</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.581654219595621</v>
+        <v>1.581654219464609</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.8010383182</v>
+        <v>336974.8010381075</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KN3" t="n">
-        <v>3791.058035516801</v>
+        <v>3791.058035539853</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698818.3903277705</v>
+        <v>-698818.3903336526</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.8531809317032</v>
+        <v>717.8531809316607</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.758198712869</v>
+        <v>1006.758198712676</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402456972338265</v>
+        <v>1.402456972338078</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995342034561507</v>
+        <v>0.9995342034561853</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8000420524398</v>
+        <v>344.800042052239</v>
       </c>
       <c r="KU3" t="n">
-        <v>188038.2343382002</v>
+        <v>188038.2343224055</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.318067378793977e-06</v>
+        <v>5.31806737924068e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>134077.720776482</v>
+        <v>134077.7207652377</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.458360674754294e-06</v>
+        <v>7.458360675379782e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.00339554402663766</v>
+        <v>0.003395544026640392</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832896064262632e-05</v>
+        <v>1.832896064260893e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606672882653429</v>
+        <v>0.02606672882650642</v>
       </c>
       <c r="LB3" t="n">
-        <v>134139.5092316731</v>
+        <v>134139.5092204191</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.581654219595621</v>
+        <v>1.581654219464609</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.581654219595621</v>
+        <v>1.581654219464609</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.8010383182</v>
+        <v>336974.8010381075</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="LG3" t="n">
-        <v>3791.058035516801</v>
+        <v>3791.058035539853</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.8531809317032</v>
+        <v>717.8531809316607</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.758198712869</v>
+        <v>1006.758198712676</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8000420524398</v>
+        <v>344.800042052239</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995342034561507</v>
+        <v>0.9995342034561853</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832896064262632e-05</v>
+        <v>1.832896064260893e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606672882653429</v>
+        <v>0.02606672882650642</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>269.5384735546971</v>
+        <v>269.5384734846397</v>
       </c>
       <c r="LQ3" t="n">
-        <v>97171.30602318431</v>
+        <v>97171.30592718528</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.256700543656116</v>
+        <v>1.256700542741598</v>
       </c>
       <c r="LS3" t="n">
-        <v>318344.3158155594</v>
+        <v>318344.3157655043</v>
       </c>
       <c r="LT3" t="n">
-        <v>395666.8780709111</v>
+        <v>395666.8780007349</v>
       </c>
       <c r="LU3" t="n">
-        <v>3791.058035518203</v>
+        <v>3791.058035541255</v>
       </c>
       <c r="LV3" t="n">
-        <v>-626169.1179799342</v>
+        <v>-626169.1177907323</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.8272970302969</v>
+        <v>716.827297028035</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.549769728502</v>
+        <v>1005.549769725619</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402778289686144</v>
+        <v>1.40277828968655</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993767516365526</v>
+        <v>0.9993767516362471</v>
       </c>
       <c r="MA3" t="n">
-        <v>329.2402680145157</v>
+        <v>329.2402679716744</v>
       </c>
       <c r="MB3" t="n">
-        <v>136225.275867052</v>
+        <v>136225.2757324672</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.340781610719162e-06</v>
+        <v>7.340781617971543e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>97111.0523085803</v>
+        <v>97111.05221261064</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.029748907284413e-05</v>
+        <v>1.029748908302058e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003723158141718823</v>
+        <v>0.00372315814268368</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.703637781324928e-05</v>
+        <v>1.703637780970628e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02408203317972327</v>
+        <v>0.02408203317430481</v>
       </c>
       <c r="MI3" t="n">
-        <v>97171.30602318431</v>
+        <v>97171.30592718528</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.256700543656116</v>
+        <v>1.256700542741598</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.256700543656116</v>
+        <v>1.256700542741598</v>
       </c>
       <c r="ML3" t="n">
-        <v>318344.3158155594</v>
+        <v>318344.3157655043</v>
       </c>
       <c r="MM3" t="n">
-        <v>395666.8780709111</v>
+        <v>395666.8780007349</v>
       </c>
       <c r="MN3" t="n">
-        <v>3791.058035518203</v>
+        <v>3791.058035541255</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.8272970302969</v>
+        <v>716.827297028035</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.549769728502</v>
+        <v>1005.549769725619</v>
       </c>
       <c r="MQ3" t="n">
-        <v>329.2402680145157</v>
+        <v>329.2402679716744</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993767516365526</v>
+        <v>0.9993767516362471</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.703637781324928e-05</v>
+        <v>1.703637780970628e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02408203317972327</v>
+        <v>0.02408203317430481</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8157324089170352</v>
+        <v>0.8157324101835822</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4090701939282566</v>
+        <v>0.4090701945993124</v>
       </c>
       <c r="MY3" t="n">
-        <v>240841.4199369473</v>
+        <v>240841.4201197076</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.707434433265241</v>
+        <v>2.707434429132982</v>
       </c>
       <c r="NA3" t="n">
-        <v>382004.3041056909</v>
+        <v>382004.3040355146</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>162.4026160162971</v>
+        <v>162.4026137217937</v>
       </c>
       <c r="ND3" t="n">
-        <v>138.1048212339959</v>
+        <v>138.1048199633095</v>
       </c>
       <c r="NE3" t="n">
-        <v>-85.44979836642614</v>
+        <v>-85.44979605927693</v>
       </c>
       <c r="NF3" t="n">
-        <v>-31.74638248937691</v>
+        <v>-31.74638203307083</v>
       </c>
       <c r="NG3" t="n">
-        <v>286.2691178556061</v>
+        <v>286.2691152216772</v>
       </c>
       <c r="NH3" t="n">
-        <v>138.1048212339959</v>
+        <v>138.1048199633095</v>
       </c>
       <c r="NI3" t="n">
-        <v>-250.7529983664261</v>
+        <v>-250.7529960592769</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="NK3" t="n">
-        <v>228.6113640754809</v>
+        <v>228.6113647583822</v>
       </c>
       <c r="NL3" t="n">
-        <v>51046.43371177668</v>
+        <v>51046.43427579621</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7784384830091203</v>
+        <v>0.778438489284115</v>
       </c>
       <c r="NN3" t="n">
-        <v>289116.4499843071</v>
+        <v>289116.4504719939</v>
       </c>
       <c r="NO3" t="n">
-        <v>354691.8741519977</v>
+        <v>354691.8748356334</v>
       </c>
       <c r="NP3" t="n">
-        <v>3810.837623850305</v>
+        <v>3810.837623671325</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-516508.9133065847</v>
+        <v>-516508.9151844581</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.8944413180295</v>
+        <v>715.8944413277959</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.246141390167</v>
+        <v>1004.246141404965</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.402785220040617</v>
+        <v>1.402785220042152</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.9992796963651186</v>
+        <v>0.9992796963660908</v>
       </c>
       <c r="NV3" t="n">
-        <v>303.1865210601559</v>
+        <v>303.1865215134552</v>
       </c>
       <c r="NW3" t="n">
-        <v>71555.67404223848</v>
+        <v>71555.67483301715</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.397513213850395e-05</v>
+        <v>1.397513198406146e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>51009.71483016239</v>
+        <v>51009.71539382702</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.960410881200797e-05</v>
+        <v>1.960410859537977e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004387307268784761</v>
+        <v>0.004387307255713086</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.490051240148481e-05</v>
+        <v>1.490051243827953e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02083784578984291</v>
+        <v>0.02083784584533983</v>
       </c>
       <c r="OD3" t="n">
-        <v>51046.43371177668</v>
+        <v>51046.43427579621</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7784384830091203</v>
+        <v>0.778438489284115</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7784384830091203</v>
+        <v>0.778438489284115</v>
       </c>
       <c r="OG3" t="n">
-        <v>289116.4499843071</v>
+        <v>289116.4504719939</v>
       </c>
       <c r="OH3" t="n">
-        <v>354691.8741519977</v>
+        <v>354691.8748356334</v>
       </c>
       <c r="OI3" t="n">
-        <v>3810.837623850305</v>
+        <v>3810.837623671325</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.8944413180295</v>
+        <v>715.8944413277959</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.246141390167</v>
+        <v>1004.246141404965</v>
       </c>
       <c r="OL3" t="n">
-        <v>303.1865210601559</v>
+        <v>303.1865215134552</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9992796963651186</v>
+        <v>0.9992796963660908</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.490051240148481e-05</v>
+        <v>1.490051243827953e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02083784578984291</v>
+        <v>0.02083784584533983</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>241.7809969479054</v>
+        <v>241.7809972587936</v>
       </c>
       <c r="OS3" t="n">
-        <v>62069.497299915</v>
+        <v>62069.4976171532</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.8949495322630955</v>
+        <v>0.8949495356860233</v>
       </c>
       <c r="OU3" t="n">
-        <v>298523.8745214113</v>
+        <v>298523.8747434021</v>
       </c>
       <c r="OV3" t="n">
-        <v>367879.1789964662</v>
+        <v>367879.1793076687</v>
       </c>
       <c r="OW3" t="n">
-        <v>3810.837623842622</v>
+        <v>3810.837623663644</v>
       </c>
       <c r="OX3" t="n">
-        <v>-553508.9409027898</v>
+        <v>-553508.9417330582</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.1105458241566</v>
+        <v>716.1105458302001</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.544386356075</v>
+        <v>1004.544386364937</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402778372995423</v>
+        <v>1.40277837299596</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9993124280487518</v>
+        <v>0.9993124280492257</v>
       </c>
       <c r="PC3" t="n">
-        <v>311.8066191128846</v>
+        <v>311.8066193135588</v>
       </c>
       <c r="PD3" t="n">
-        <v>87010.00746839048</v>
+        <v>87010.00791317581</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.149293086043334e-05</v>
+        <v>1.149293080168277e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>62026.90969821103</v>
+        <v>62026.91001526183</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.612203485334756e-05</v>
+        <v>1.612203477093971e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004148787824419855</v>
+        <v>0.004148787819103513</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.560247679069969e-05</v>
+        <v>1.560247680710248e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02189889747204823</v>
+        <v>0.02189889749690383</v>
       </c>
       <c r="PK3" t="n">
-        <v>62069.497299915</v>
+        <v>62069.4976171532</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.8949495322630955</v>
+        <v>0.8949495356860233</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.8949495322630955</v>
+        <v>0.8949495356860233</v>
       </c>
       <c r="PN3" t="n">
-        <v>298523.8745214113</v>
+        <v>298523.8747434021</v>
       </c>
       <c r="PO3" t="n">
-        <v>367879.1789964662</v>
+        <v>367879.1793076687</v>
       </c>
       <c r="PP3" t="n">
-        <v>3810.837623842622</v>
+        <v>3810.837623663644</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.1105458241566</v>
+        <v>716.1105458302001</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.544386356075</v>
+        <v>1004.544386364937</v>
       </c>
       <c r="PS3" t="n">
-        <v>311.8066191128846</v>
+        <v>311.8066193135588</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9993124280487518</v>
+        <v>0.9993124280492257</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.560247679069969e-05</v>
+        <v>1.560247680710248e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02189889747204823</v>
+        <v>0.02189889749690383</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>269.5203632279237</v>
+        <v>269.5203631582476</v>
       </c>
       <c r="PZ3" t="n">
-        <v>90697.27316192548</v>
+        <v>90697.27313642007</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.173003510972351</v>
+        <v>1.173003510946538</v>
       </c>
       <c r="QB3" t="n">
-        <v>318346.3310190291</v>
+        <v>318346.3309690892</v>
       </c>
       <c r="QC3" t="n">
-        <v>395666.8780707108</v>
+        <v>395666.8780007286</v>
       </c>
       <c r="QD3" t="n">
-        <v>3810.837623839626</v>
+        <v>3810.837623660647</v>
       </c>
       <c r="QE3" t="n">
-        <v>-631431.4625091831</v>
+        <v>-631431.4622654021</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.806142632647</v>
+        <v>716.8061426306064</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.417218531942</v>
+        <v>1005.417218530423</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402634769338471</v>
+        <v>1.402634769340345</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.999417856603699</v>
+        <v>0.9994178566030094</v>
       </c>
       <c r="QJ3" t="n">
-        <v>329.2258382082697</v>
+        <v>329.2258381657067</v>
       </c>
       <c r="QK3" t="n">
-        <v>127141.4429871122</v>
+        <v>127141.4429514402</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.865256021212263e-06</v>
+        <v>7.865256023419015e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>90644.72503207393</v>
+        <v>90644.72500652073</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.103208156510109e-05</v>
+        <v>1.103208156821109e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003722537602067943</v>
+        <v>0.003722537603036221</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.703448319270977e-05</v>
+        <v>1.703448318919643e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02407835374136877</v>
+        <v>0.02407835373600376</v>
       </c>
       <c r="QR3" t="n">
-        <v>90697.27316192548</v>
+        <v>90697.27313642007</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.173003510972351</v>
+        <v>1.173003510946538</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.173003510972351</v>
+        <v>1.173003510946538</v>
       </c>
       <c r="QU3" t="n">
-        <v>318346.3310190291</v>
+        <v>318346.3309690892</v>
       </c>
       <c r="QV3" t="n">
-        <v>395666.8780707108</v>
+        <v>395666.8780007286</v>
       </c>
       <c r="QW3" t="n">
-        <v>3810.837623839626</v>
+        <v>3810.837623660647</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.806142632647</v>
+        <v>716.8061426306064</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.417218531942</v>
+        <v>1005.417218530423</v>
       </c>
       <c r="QZ3" t="n">
-        <v>329.2258382082697</v>
+        <v>329.2258381657067</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.999417856603699</v>
+        <v>0.9994178566030094</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.703448319270977e-05</v>
+        <v>1.703448318919643e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02407835374136877</v>
+        <v>0.02407835373600376</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02723180798399643</v>
+        <v>0.02723180804371903</v>
       </c>
       <c r="RG3" t="n">
         <v>0</v>
@@ -11628,43 +11628,43 @@
         <v>0.01389884222857662</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.08028856703530751</v>
+        <v>0.08028856717264472</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04183303510501547</v>
+        <v>0.04183303520895931</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.163252252352896</v>
+        <v>0.1632522526538997</v>
       </c>
       <c r="RL3" t="n">
-        <v>2.380815518615575e-05</v>
+        <v>2.380850389821498e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.5356524935489281</v>
+        <v>0.5356524851801052</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.944201334724926</v>
+        <v>0.9442013246257477</v>
       </c>
       <c r="RO3" t="n">
-        <v>389737.3299071426</v>
+        <v>389737.3285004867</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.707408085308148</v>
+        <v>2.707408082222024</v>
       </c>
       <c r="RQ3" t="n">
-        <v>382004.3041056909</v>
+        <v>382004.3040355146</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>350214.2752377388</v>
+        <v>350214.2759532838</v>
       </c>
       <c r="RT3" t="n">
-        <v>3957.189596535871</v>
+        <v>3957.189599891484</v>
       </c>
       <c r="RU3" t="n">
-        <v>4.691883528086386</v>
+        <v>4.691883669291755</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.427073151353677</v>
+        <v>0.4270731659474849</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4476684396260758</v>
+        <v>0.4476684380664482</v>
       </c>
     </row>
   </sheetData>
@@ -12804,20 +12804,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The solution converged.</t>
+          <t>The relative error between two consecutive iterates is at most 0.000000</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="H2" t="n">
-        <v>3.845564386823895e-08</v>
+        <v>8.871055436858388e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12839,16 +12839,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H3" t="n">
-        <v>6.580905125806455e-08</v>
+        <v>5.100373426038404e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
